--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>217000</v>
+        <v>200100</v>
       </c>
       <c r="E8" s="3">
-        <v>224200</v>
+        <v>211700</v>
       </c>
       <c r="F8" s="3">
-        <v>209200</v>
+        <v>218700</v>
       </c>
       <c r="G8" s="3">
-        <v>181300</v>
+        <v>204100</v>
       </c>
       <c r="H8" s="3">
-        <v>155500</v>
+        <v>176800</v>
       </c>
       <c r="I8" s="3">
-        <v>152900</v>
+        <v>151700</v>
       </c>
       <c r="J8" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K8" s="3">
         <v>137100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47600</v>
+        <v>42700</v>
       </c>
       <c r="E9" s="3">
-        <v>44000</v>
+        <v>46500</v>
       </c>
       <c r="F9" s="3">
-        <v>37900</v>
+        <v>43000</v>
       </c>
       <c r="G9" s="3">
-        <v>39800</v>
+        <v>37000</v>
       </c>
       <c r="H9" s="3">
-        <v>32500</v>
+        <v>38900</v>
       </c>
       <c r="I9" s="3">
-        <v>37600</v>
+        <v>31700</v>
       </c>
       <c r="J9" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K9" s="3">
         <v>39100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>169400</v>
+        <v>157400</v>
       </c>
       <c r="E10" s="3">
-        <v>180100</v>
+        <v>165200</v>
       </c>
       <c r="F10" s="3">
-        <v>171400</v>
+        <v>175700</v>
       </c>
       <c r="G10" s="3">
-        <v>141400</v>
+        <v>167200</v>
       </c>
       <c r="H10" s="3">
-        <v>123100</v>
+        <v>138000</v>
       </c>
       <c r="I10" s="3">
-        <v>115200</v>
+        <v>120100</v>
       </c>
       <c r="J10" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K10" s="3">
         <v>98000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="E12" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="F12" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
+        <v>14200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>11200</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>123900</v>
+        <v>139200</v>
       </c>
       <c r="E17" s="3">
-        <v>114000</v>
+        <v>120900</v>
       </c>
       <c r="F17" s="3">
-        <v>95200</v>
+        <v>111200</v>
       </c>
       <c r="G17" s="3">
-        <v>111500</v>
+        <v>92900</v>
       </c>
       <c r="H17" s="3">
-        <v>85100</v>
+        <v>108700</v>
       </c>
       <c r="I17" s="3">
-        <v>85500</v>
+        <v>83000</v>
       </c>
       <c r="J17" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K17" s="3">
         <v>79700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>93100</v>
+        <v>60900</v>
       </c>
       <c r="E18" s="3">
-        <v>110100</v>
+        <v>90800</v>
       </c>
       <c r="F18" s="3">
-        <v>114000</v>
+        <v>107400</v>
       </c>
       <c r="G18" s="3">
-        <v>69800</v>
+        <v>111200</v>
       </c>
       <c r="H18" s="3">
-        <v>70400</v>
+        <v>68100</v>
       </c>
       <c r="I18" s="3">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="J18" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K18" s="3">
         <v>57400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11500</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
-        <v>6600</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
-        <v>7100</v>
+        <v>6400</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
-        <v>36000</v>
+        <v>13200</v>
       </c>
       <c r="I20" s="3">
-        <v>42500</v>
+        <v>35100</v>
       </c>
       <c r="J20" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>104600</v>
+        <v>65700</v>
       </c>
       <c r="E23" s="3">
-        <v>116700</v>
+        <v>102100</v>
       </c>
       <c r="F23" s="3">
-        <v>121200</v>
+        <v>113800</v>
       </c>
       <c r="G23" s="3">
-        <v>83400</v>
+        <v>118200</v>
       </c>
       <c r="H23" s="3">
-        <v>106400</v>
+        <v>81300</v>
       </c>
       <c r="I23" s="3">
-        <v>109900</v>
+        <v>103800</v>
       </c>
       <c r="J23" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K23" s="3">
         <v>76400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18800</v>
+        <v>8000</v>
       </c>
       <c r="E24" s="3">
-        <v>21900</v>
+        <v>18300</v>
       </c>
       <c r="F24" s="3">
-        <v>20300</v>
+        <v>21400</v>
       </c>
       <c r="G24" s="3">
-        <v>-27800</v>
+        <v>19800</v>
       </c>
       <c r="H24" s="3">
-        <v>13200</v>
+        <v>-27100</v>
       </c>
       <c r="I24" s="3">
-        <v>22700</v>
+        <v>12900</v>
       </c>
       <c r="J24" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K24" s="3">
         <v>13600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>85900</v>
+        <v>57700</v>
       </c>
       <c r="E26" s="3">
-        <v>94800</v>
+        <v>83800</v>
       </c>
       <c r="F26" s="3">
-        <v>100900</v>
+        <v>92400</v>
       </c>
       <c r="G26" s="3">
-        <v>111100</v>
+        <v>98400</v>
       </c>
       <c r="H26" s="3">
-        <v>93200</v>
+        <v>108400</v>
       </c>
       <c r="I26" s="3">
-        <v>87200</v>
+        <v>90900</v>
       </c>
       <c r="J26" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K26" s="3">
         <v>62800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>85800</v>
+        <v>57600</v>
       </c>
       <c r="E27" s="3">
-        <v>94800</v>
+        <v>83700</v>
       </c>
       <c r="F27" s="3">
-        <v>100900</v>
+        <v>92400</v>
       </c>
       <c r="G27" s="3">
-        <v>111100</v>
+        <v>98400</v>
       </c>
       <c r="H27" s="3">
-        <v>93200</v>
+        <v>108400</v>
       </c>
       <c r="I27" s="3">
-        <v>87000</v>
+        <v>90900</v>
       </c>
       <c r="J27" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K27" s="3">
         <v>63000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11500</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
-        <v>-6600</v>
+        <v>-11200</v>
       </c>
       <c r="F32" s="3">
-        <v>-7100</v>
+        <v>-6400</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
-        <v>-36000</v>
+        <v>-13200</v>
       </c>
       <c r="I32" s="3">
-        <v>-42500</v>
+        <v>-35100</v>
       </c>
       <c r="J32" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>85800</v>
+        <v>57600</v>
       </c>
       <c r="E33" s="3">
-        <v>94800</v>
+        <v>83700</v>
       </c>
       <c r="F33" s="3">
-        <v>100900</v>
+        <v>92400</v>
       </c>
       <c r="G33" s="3">
-        <v>111100</v>
+        <v>98400</v>
       </c>
       <c r="H33" s="3">
-        <v>93200</v>
+        <v>108400</v>
       </c>
       <c r="I33" s="3">
-        <v>87000</v>
+        <v>90900</v>
       </c>
       <c r="J33" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K33" s="3">
         <v>63000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>85800</v>
+        <v>57600</v>
       </c>
       <c r="E35" s="3">
-        <v>94800</v>
+        <v>83700</v>
       </c>
       <c r="F35" s="3">
-        <v>100900</v>
+        <v>92400</v>
       </c>
       <c r="G35" s="3">
-        <v>111100</v>
+        <v>98400</v>
       </c>
       <c r="H35" s="3">
-        <v>93200</v>
+        <v>108400</v>
       </c>
       <c r="I35" s="3">
-        <v>87000</v>
+        <v>90900</v>
       </c>
       <c r="J35" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K35" s="3">
         <v>63000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>252900</v>
+        <v>325300</v>
       </c>
       <c r="E41" s="3">
-        <v>205000</v>
+        <v>246700</v>
       </c>
       <c r="F41" s="3">
-        <v>273700</v>
+        <v>200000</v>
       </c>
       <c r="G41" s="3">
-        <v>231900</v>
+        <v>266900</v>
       </c>
       <c r="H41" s="3">
-        <v>237400</v>
+        <v>226200</v>
       </c>
       <c r="I41" s="3">
-        <v>356600</v>
+        <v>231600</v>
       </c>
       <c r="J41" s="3">
+        <v>347800</v>
+      </c>
+      <c r="K41" s="3">
         <v>211800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>574400</v>
+        <v>634300</v>
       </c>
       <c r="E43" s="3">
-        <v>529900</v>
+        <v>560300</v>
       </c>
       <c r="F43" s="3">
-        <v>493500</v>
+        <v>516900</v>
       </c>
       <c r="G43" s="3">
-        <v>413000</v>
+        <v>481400</v>
       </c>
       <c r="H43" s="3">
-        <v>376500</v>
+        <v>402900</v>
       </c>
       <c r="I43" s="3">
-        <v>361100</v>
+        <v>367300</v>
       </c>
       <c r="J43" s="3">
+        <v>352300</v>
+      </c>
+      <c r="K43" s="3">
         <v>239000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,37 +1745,43 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>282500</v>
+        <v>194700</v>
       </c>
       <c r="E45" s="3">
-        <v>143900</v>
+        <v>275600</v>
       </c>
       <c r="F45" s="3">
-        <v>45800</v>
+        <v>140400</v>
       </c>
       <c r="G45" s="3">
-        <v>28500</v>
+        <v>44700</v>
       </c>
       <c r="H45" s="3">
-        <v>46100</v>
+        <v>27800</v>
       </c>
       <c r="I45" s="3">
-        <v>21000</v>
-      </c>
-      <c r="J45" s="3" t="s">
+        <v>44900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,95 +1809,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>754400</v>
+        <v>825200</v>
       </c>
       <c r="E47" s="3">
-        <v>765500</v>
+        <v>735900</v>
       </c>
       <c r="F47" s="3">
-        <v>683600</v>
+        <v>746700</v>
       </c>
       <c r="G47" s="3">
-        <v>618100</v>
+        <v>666900</v>
       </c>
       <c r="H47" s="3">
-        <v>498300</v>
+        <v>603000</v>
       </c>
       <c r="I47" s="3">
-        <v>332700</v>
+        <v>486100</v>
       </c>
       <c r="J47" s="3">
+        <v>324500</v>
+      </c>
+      <c r="K47" s="3">
         <v>427300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34700</v>
+        <v>32200</v>
       </c>
       <c r="E48" s="3">
-        <v>35100</v>
+        <v>33800</v>
       </c>
       <c r="F48" s="3">
-        <v>38100</v>
+        <v>34200</v>
       </c>
       <c r="G48" s="3">
-        <v>20700</v>
+        <v>37100</v>
       </c>
       <c r="H48" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="I48" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="J48" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K48" s="3">
         <v>16300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="E49" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="F49" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="G49" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="H49" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="I49" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="J49" s="3">
-        <v>16400</v>
+        <v>16100</v>
       </c>
       <c r="K49" s="3">
         <v>16400</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>880300</v>
+        <v>534100</v>
       </c>
       <c r="E52" s="3">
-        <v>663500</v>
+        <v>858700</v>
       </c>
       <c r="F52" s="3">
-        <v>614600</v>
+        <v>647200</v>
       </c>
       <c r="G52" s="3">
-        <v>545300</v>
+        <v>599500</v>
       </c>
       <c r="H52" s="3">
-        <v>507000</v>
+        <v>531900</v>
       </c>
       <c r="I52" s="3">
-        <v>346100</v>
+        <v>494600</v>
       </c>
       <c r="J52" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K52" s="3">
         <v>379500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2796300</v>
+        <v>2561900</v>
       </c>
       <c r="E54" s="3">
-        <v>2366900</v>
+        <v>2727700</v>
       </c>
       <c r="F54" s="3">
-        <v>2174400</v>
+        <v>2308800</v>
       </c>
       <c r="G54" s="3">
-        <v>1885700</v>
+        <v>2121000</v>
       </c>
       <c r="H54" s="3">
-        <v>1708500</v>
+        <v>1839400</v>
       </c>
       <c r="I54" s="3">
-        <v>1460300</v>
+        <v>1666600</v>
       </c>
       <c r="J54" s="3">
+        <v>1424500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1314200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,95 +2095,105 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>343500</v>
+        <v>95800</v>
       </c>
       <c r="E57" s="3">
-        <v>106200</v>
+        <v>335100</v>
       </c>
       <c r="F57" s="3">
-        <v>112300</v>
+        <v>103600</v>
       </c>
       <c r="G57" s="3">
-        <v>129900</v>
+        <v>109500</v>
       </c>
       <c r="H57" s="3">
-        <v>185700</v>
+        <v>126700</v>
       </c>
       <c r="I57" s="3">
-        <v>98900</v>
+        <v>181100</v>
       </c>
       <c r="J57" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K57" s="3">
         <v>178100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>32900</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H58" s="3">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="J58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K58" s="3">
         <v>8200</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>898500</v>
+        <v>756200</v>
       </c>
       <c r="E59" s="3">
-        <v>834600</v>
+        <v>876400</v>
       </c>
       <c r="F59" s="3">
-        <v>807800</v>
+        <v>814100</v>
       </c>
       <c r="G59" s="3">
-        <v>634300</v>
+        <v>788000</v>
       </c>
       <c r="H59" s="3">
-        <v>592300</v>
+        <v>618700</v>
       </c>
       <c r="I59" s="3">
-        <v>561200</v>
+        <v>577800</v>
       </c>
       <c r="J59" s="3">
+        <v>547400</v>
+      </c>
+      <c r="K59" s="3">
         <v>397900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16100</v>
+        <v>27800</v>
       </c>
       <c r="E62" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F62" s="3">
-        <v>14300</v>
+        <v>15400</v>
       </c>
       <c r="G62" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="H62" s="3">
-        <v>5700</v>
+        <v>14000</v>
       </c>
       <c r="I62" s="3">
-        <v>17700</v>
+        <v>5600</v>
       </c>
       <c r="J62" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="K62" s="3">
         <v>17700</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1710100</v>
+        <v>1449500</v>
       </c>
       <c r="E66" s="3">
-        <v>1371000</v>
+        <v>1668100</v>
       </c>
       <c r="F66" s="3">
-        <v>1276100</v>
+        <v>1337400</v>
       </c>
       <c r="G66" s="3">
-        <v>1035700</v>
+        <v>1244800</v>
       </c>
       <c r="H66" s="3">
-        <v>958200</v>
+        <v>1010300</v>
       </c>
       <c r="I66" s="3">
-        <v>775900</v>
+        <v>934700</v>
       </c>
       <c r="J66" s="3">
+        <v>756900</v>
+      </c>
+      <c r="K66" s="3">
         <v>711200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>268700</v>
+        <v>319600</v>
       </c>
       <c r="E72" s="3">
-        <v>182900</v>
+        <v>262100</v>
       </c>
       <c r="F72" s="3">
-        <v>88100</v>
+        <v>178400</v>
       </c>
       <c r="G72" s="3">
-        <v>43300</v>
+        <v>86000</v>
       </c>
       <c r="H72" s="3">
-        <v>-67800</v>
+        <v>42200</v>
       </c>
       <c r="I72" s="3">
-        <v>-161000</v>
+        <v>-66100</v>
       </c>
       <c r="J72" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-248000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1086200</v>
+        <v>1112400</v>
       </c>
       <c r="E76" s="3">
-        <v>995900</v>
+        <v>1059600</v>
       </c>
       <c r="F76" s="3">
-        <v>898300</v>
+        <v>971400</v>
       </c>
       <c r="G76" s="3">
-        <v>850000</v>
+        <v>876200</v>
       </c>
       <c r="H76" s="3">
-        <v>750300</v>
+        <v>829100</v>
       </c>
       <c r="I76" s="3">
-        <v>684400</v>
+        <v>731900</v>
       </c>
       <c r="J76" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K76" s="3">
         <v>602900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>85800</v>
+        <v>57600</v>
       </c>
       <c r="E81" s="3">
-        <v>94800</v>
+        <v>83700</v>
       </c>
       <c r="F81" s="3">
-        <v>100900</v>
+        <v>92400</v>
       </c>
       <c r="G81" s="3">
-        <v>111100</v>
+        <v>98400</v>
       </c>
       <c r="H81" s="3">
-        <v>93200</v>
+        <v>108400</v>
       </c>
       <c r="I81" s="3">
-        <v>87000</v>
+        <v>90900</v>
       </c>
       <c r="J81" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K81" s="3">
         <v>63000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>217500</v>
+        <v>-395300</v>
       </c>
       <c r="E89" s="3">
-        <v>88800</v>
+        <v>212100</v>
       </c>
       <c r="F89" s="3">
-        <v>68100</v>
+        <v>86600</v>
       </c>
       <c r="G89" s="3">
-        <v>74400</v>
+        <v>66500</v>
       </c>
       <c r="H89" s="3">
-        <v>161600</v>
+        <v>72500</v>
       </c>
       <c r="I89" s="3">
-        <v>21800</v>
+        <v>157600</v>
       </c>
       <c r="J89" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K89" s="3">
         <v>12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4100</v>
+        <v>37300</v>
       </c>
       <c r="E94" s="3">
-        <v>-122400</v>
+        <v>4000</v>
       </c>
       <c r="F94" s="3">
-        <v>-38700</v>
+        <v>-119400</v>
       </c>
       <c r="G94" s="3">
-        <v>-117500</v>
+        <v>-37800</v>
       </c>
       <c r="H94" s="3">
-        <v>-160300</v>
+        <v>-114700</v>
       </c>
       <c r="I94" s="3">
-        <v>102800</v>
+        <v>-156400</v>
       </c>
       <c r="J94" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-32500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>40900</v>
+        <v>113700</v>
       </c>
       <c r="E100" s="3">
-        <v>9700</v>
+        <v>39900</v>
       </c>
       <c r="F100" s="3">
-        <v>83900</v>
+        <v>9400</v>
       </c>
       <c r="G100" s="3">
-        <v>63300</v>
+        <v>81800</v>
       </c>
       <c r="H100" s="3">
-        <v>37800</v>
+        <v>61700</v>
       </c>
       <c r="I100" s="3">
-        <v>-15800</v>
+        <v>36900</v>
       </c>
       <c r="J100" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2400</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
         <v>2300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>5300</v>
-      </c>
       <c r="I101" s="3">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="J101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>264900</v>
+        <v>-245300</v>
       </c>
       <c r="E102" s="3">
-        <v>-21700</v>
+        <v>258400</v>
       </c>
       <c r="F102" s="3">
-        <v>111100</v>
+        <v>-21200</v>
       </c>
       <c r="G102" s="3">
-        <v>19700</v>
+        <v>108400</v>
       </c>
       <c r="H102" s="3">
-        <v>44400</v>
+        <v>19200</v>
       </c>
       <c r="I102" s="3">
-        <v>115800</v>
+        <v>43300</v>
       </c>
       <c r="J102" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-35000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200100</v>
+        <v>262900</v>
       </c>
       <c r="E8" s="3">
-        <v>211700</v>
+        <v>305900</v>
       </c>
       <c r="F8" s="3">
-        <v>218700</v>
+        <v>207600</v>
       </c>
       <c r="G8" s="3">
-        <v>204100</v>
+        <v>219600</v>
       </c>
       <c r="H8" s="3">
-        <v>176800</v>
+        <v>238500</v>
       </c>
       <c r="I8" s="3">
+        <v>217200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K8" s="3">
         <v>151700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>149100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>137100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42700</v>
+        <v>39500</v>
       </c>
       <c r="E9" s="3">
-        <v>46500</v>
+        <v>36200</v>
       </c>
       <c r="F9" s="3">
-        <v>43000</v>
+        <v>44300</v>
       </c>
       <c r="G9" s="3">
-        <v>37000</v>
+        <v>48200</v>
       </c>
       <c r="H9" s="3">
-        <v>38900</v>
+        <v>44600</v>
       </c>
       <c r="I9" s="3">
+        <v>38300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K9" s="3">
         <v>31700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>36700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>39100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>157400</v>
+        <v>223400</v>
       </c>
       <c r="E10" s="3">
-        <v>165200</v>
+        <v>269700</v>
       </c>
       <c r="F10" s="3">
-        <v>175700</v>
+        <v>163300</v>
       </c>
       <c r="G10" s="3">
-        <v>167200</v>
+        <v>171400</v>
       </c>
       <c r="H10" s="3">
-        <v>138000</v>
+        <v>193900</v>
       </c>
       <c r="I10" s="3">
+        <v>178900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K10" s="3">
         <v>120100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>112400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>98000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="E12" s="3">
-        <v>15100</v>
+        <v>12700</v>
       </c>
       <c r="F12" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="G12" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H12" s="3" t="s">
+        <v>15700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,22 +924,28 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>115700</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>139200</v>
+        <v>180600</v>
       </c>
       <c r="E17" s="3">
-        <v>120900</v>
+        <v>239700</v>
       </c>
       <c r="F17" s="3">
-        <v>111200</v>
+        <v>144500</v>
       </c>
       <c r="G17" s="3">
-        <v>92900</v>
+        <v>125400</v>
       </c>
       <c r="H17" s="3">
-        <v>108700</v>
+        <v>127000</v>
       </c>
       <c r="I17" s="3">
+        <v>101800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>112800</v>
+      </c>
+      <c r="K17" s="3">
         <v>83000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>83400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>79700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>60900</v>
+        <v>82400</v>
       </c>
       <c r="E18" s="3">
-        <v>90800</v>
+        <v>66200</v>
       </c>
       <c r="F18" s="3">
-        <v>107400</v>
+        <v>63200</v>
       </c>
       <c r="G18" s="3">
-        <v>111200</v>
+        <v>94200</v>
       </c>
       <c r="H18" s="3">
-        <v>68100</v>
+        <v>111500</v>
       </c>
       <c r="I18" s="3">
+        <v>115400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K18" s="3">
         <v>68700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>65700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>57400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1109,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
-        <v>11200</v>
+        <v>7800</v>
       </c>
       <c r="F20" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>11700</v>
       </c>
       <c r="H20" s="3">
-        <v>13200</v>
+        <v>6600</v>
       </c>
       <c r="I20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K20" s="3">
         <v>35100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>41500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1219,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>65700</v>
+        <v>87400</v>
       </c>
       <c r="E23" s="3">
-        <v>102100</v>
+        <v>74000</v>
       </c>
       <c r="F23" s="3">
-        <v>113800</v>
+        <v>68200</v>
       </c>
       <c r="G23" s="3">
-        <v>118200</v>
+        <v>105900</v>
       </c>
       <c r="H23" s="3">
-        <v>81300</v>
+        <v>118100</v>
       </c>
       <c r="I23" s="3">
+        <v>122600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K23" s="3">
         <v>103800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>107200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>76400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8000</v>
+        <v>21400</v>
       </c>
       <c r="E24" s="3">
-        <v>18300</v>
+        <v>12900</v>
       </c>
       <c r="F24" s="3">
-        <v>21400</v>
+        <v>8300</v>
       </c>
       <c r="G24" s="3">
-        <v>19800</v>
+        <v>19000</v>
       </c>
       <c r="H24" s="3">
-        <v>-27100</v>
+        <v>22200</v>
       </c>
       <c r="I24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="K24" s="3">
         <v>12900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>22100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57700</v>
+        <v>65900</v>
       </c>
       <c r="E26" s="3">
-        <v>83800</v>
+        <v>61000</v>
       </c>
       <c r="F26" s="3">
-        <v>92400</v>
+        <v>59900</v>
       </c>
       <c r="G26" s="3">
-        <v>98400</v>
+        <v>86900</v>
       </c>
       <c r="H26" s="3">
-        <v>108400</v>
+        <v>95900</v>
       </c>
       <c r="I26" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K26" s="3">
         <v>90900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>85100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>62800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57600</v>
+        <v>66300</v>
       </c>
       <c r="E27" s="3">
-        <v>83700</v>
+        <v>60900</v>
       </c>
       <c r="F27" s="3">
-        <v>92400</v>
+        <v>59700</v>
       </c>
       <c r="G27" s="3">
-        <v>98400</v>
+        <v>86800</v>
       </c>
       <c r="H27" s="3">
-        <v>108400</v>
+        <v>95900</v>
       </c>
       <c r="I27" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K27" s="3">
         <v>90900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>84900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>63000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
-        <v>-11200</v>
+        <v>-7800</v>
       </c>
       <c r="F32" s="3">
-        <v>-6400</v>
+        <v>-5000</v>
       </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-11700</v>
       </c>
       <c r="H32" s="3">
-        <v>-13200</v>
+        <v>-6600</v>
       </c>
       <c r="I32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-35100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-41500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57600</v>
+        <v>66300</v>
       </c>
       <c r="E33" s="3">
-        <v>83700</v>
+        <v>60900</v>
       </c>
       <c r="F33" s="3">
-        <v>92400</v>
+        <v>59700</v>
       </c>
       <c r="G33" s="3">
-        <v>98400</v>
+        <v>86800</v>
       </c>
       <c r="H33" s="3">
-        <v>108400</v>
+        <v>95900</v>
       </c>
       <c r="I33" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K33" s="3">
         <v>90900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>84900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>63000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57600</v>
+        <v>66300</v>
       </c>
       <c r="E35" s="3">
-        <v>83700</v>
+        <v>60900</v>
       </c>
       <c r="F35" s="3">
-        <v>92400</v>
+        <v>59700</v>
       </c>
       <c r="G35" s="3">
-        <v>98400</v>
+        <v>86800</v>
       </c>
       <c r="H35" s="3">
-        <v>108400</v>
+        <v>95900</v>
       </c>
       <c r="I35" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K35" s="3">
         <v>90900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>84900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>63000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>325300</v>
+        <v>255200</v>
       </c>
       <c r="E41" s="3">
-        <v>246700</v>
+        <v>317000</v>
       </c>
       <c r="F41" s="3">
-        <v>200000</v>
+        <v>337600</v>
       </c>
       <c r="G41" s="3">
-        <v>266900</v>
+        <v>256000</v>
       </c>
       <c r="H41" s="3">
-        <v>226200</v>
+        <v>207500</v>
       </c>
       <c r="I41" s="3">
+        <v>277000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>234700</v>
+      </c>
+      <c r="K41" s="3">
         <v>231600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>347800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>211800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1864,52 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>634300</v>
+        <v>280200</v>
       </c>
       <c r="E43" s="3">
-        <v>560300</v>
+        <v>493400</v>
       </c>
       <c r="F43" s="3">
-        <v>516900</v>
+        <v>658200</v>
       </c>
       <c r="G43" s="3">
-        <v>481400</v>
+        <v>581400</v>
       </c>
       <c r="H43" s="3">
-        <v>402900</v>
+        <v>536400</v>
       </c>
       <c r="I43" s="3">
+        <v>499500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K43" s="3">
         <v>367300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>352300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>239000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,40 +1940,52 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>194700</v>
+        <v>159500</v>
       </c>
       <c r="E45" s="3">
-        <v>275600</v>
+        <v>187700</v>
       </c>
       <c r="F45" s="3">
-        <v>140400</v>
+        <v>202000</v>
       </c>
       <c r="G45" s="3">
-        <v>44700</v>
+        <v>286000</v>
       </c>
       <c r="H45" s="3">
-        <v>27800</v>
+        <v>145600</v>
       </c>
       <c r="I45" s="3">
+        <v>46400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K45" s="3">
         <v>44900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>20500</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,80 +2016,98 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>825200</v>
+        <v>892600</v>
       </c>
       <c r="E47" s="3">
-        <v>735900</v>
+        <v>834900</v>
       </c>
       <c r="F47" s="3">
-        <v>746700</v>
+        <v>856300</v>
       </c>
       <c r="G47" s="3">
-        <v>666900</v>
+        <v>763600</v>
       </c>
       <c r="H47" s="3">
-        <v>603000</v>
+        <v>774800</v>
       </c>
       <c r="I47" s="3">
+        <v>692000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>625700</v>
+      </c>
+      <c r="K47" s="3">
         <v>486100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>324500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>427300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32200</v>
+        <v>27600</v>
       </c>
       <c r="E48" s="3">
-        <v>33800</v>
+        <v>30800</v>
       </c>
       <c r="F48" s="3">
-        <v>34200</v>
+        <v>33400</v>
       </c>
       <c r="G48" s="3">
-        <v>37100</v>
+        <v>35100</v>
       </c>
       <c r="H48" s="3">
-        <v>20200</v>
+        <v>35500</v>
       </c>
       <c r="I48" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K48" s="3">
         <v>19000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>16300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16100</v>
+        <v>21400</v>
       </c>
       <c r="E49" s="3">
-        <v>16100</v>
+        <v>21400</v>
       </c>
       <c r="F49" s="3">
         <v>16700</v>
@@ -1894,22 +2116,28 @@
         <v>16700</v>
       </c>
       <c r="H49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K49" s="3">
         <v>16700</v>
       </c>
-      <c r="I49" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>16100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>16400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2206,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>534100</v>
+        <v>537600</v>
       </c>
       <c r="E52" s="3">
-        <v>858700</v>
+        <v>432100</v>
       </c>
       <c r="F52" s="3">
-        <v>647200</v>
+        <v>554200</v>
       </c>
       <c r="G52" s="3">
-        <v>599500</v>
+        <v>891000</v>
       </c>
       <c r="H52" s="3">
-        <v>531900</v>
+        <v>671600</v>
       </c>
       <c r="I52" s="3">
+        <v>622100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>551900</v>
+      </c>
+      <c r="K52" s="3">
         <v>494600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>337600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>379500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2561900</v>
+        <v>2174000</v>
       </c>
       <c r="E54" s="3">
-        <v>2727700</v>
+        <v>2317400</v>
       </c>
       <c r="F54" s="3">
-        <v>2308800</v>
+        <v>2658400</v>
       </c>
       <c r="G54" s="3">
-        <v>2121000</v>
+        <v>2830400</v>
       </c>
       <c r="H54" s="3">
-        <v>1839400</v>
+        <v>2395700</v>
       </c>
       <c r="I54" s="3">
+        <v>2200900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1908700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1666600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1424500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1314200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,104 +2356,124 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95800</v>
+        <v>25500</v>
       </c>
       <c r="E57" s="3">
-        <v>335100</v>
+        <v>44800</v>
       </c>
       <c r="F57" s="3">
-        <v>103600</v>
+        <v>99400</v>
       </c>
       <c r="G57" s="3">
-        <v>109500</v>
+        <v>347700</v>
       </c>
       <c r="H57" s="3">
-        <v>126700</v>
+        <v>107500</v>
       </c>
       <c r="I57" s="3">
+        <v>113700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K57" s="3">
         <v>181100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>96400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>178100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32900</v>
+        <v>21800</v>
       </c>
       <c r="E58" s="3">
-        <v>3500</v>
+        <v>34100</v>
       </c>
       <c r="F58" s="3">
-        <v>3500</v>
+        <v>34100</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8200</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>756200</v>
+        <v>92200</v>
       </c>
       <c r="E59" s="3">
-        <v>876400</v>
+        <v>144500</v>
       </c>
       <c r="F59" s="3">
-        <v>814100</v>
+        <v>784700</v>
       </c>
       <c r="G59" s="3">
-        <v>788000</v>
+        <v>909400</v>
       </c>
       <c r="H59" s="3">
-        <v>618700</v>
+        <v>844700</v>
       </c>
       <c r="I59" s="3">
+        <v>817700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>642000</v>
+      </c>
+      <c r="K59" s="3">
         <v>577800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>547400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>397900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,8 +2504,14 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,40 +2542,52 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27800</v>
+        <v>30000</v>
       </c>
       <c r="E62" s="3">
-        <v>15700</v>
+        <v>30100</v>
       </c>
       <c r="F62" s="3">
-        <v>15400</v>
+        <v>28900</v>
       </c>
       <c r="G62" s="3">
-        <v>14000</v>
+        <v>16300</v>
       </c>
       <c r="H62" s="3">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="I62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>17300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>17700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1449500</v>
+        <v>1075600</v>
       </c>
       <c r="E66" s="3">
-        <v>1668100</v>
+        <v>1271800</v>
       </c>
       <c r="F66" s="3">
-        <v>1337400</v>
+        <v>1504100</v>
       </c>
       <c r="G66" s="3">
-        <v>1244800</v>
+        <v>1731000</v>
       </c>
       <c r="H66" s="3">
-        <v>1010300</v>
+        <v>1387700</v>
       </c>
       <c r="I66" s="3">
+        <v>1291700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1048400</v>
+      </c>
+      <c r="K66" s="3">
         <v>934700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>756900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>711200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>319600</v>
+        <v>292400</v>
       </c>
       <c r="E72" s="3">
-        <v>262100</v>
+        <v>226100</v>
       </c>
       <c r="F72" s="3">
-        <v>178400</v>
+        <v>331700</v>
       </c>
       <c r="G72" s="3">
-        <v>86000</v>
+        <v>271900</v>
       </c>
       <c r="H72" s="3">
-        <v>42200</v>
+        <v>185100</v>
       </c>
       <c r="I72" s="3">
+        <v>89200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-66100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-157000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-248000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1112400</v>
+        <v>1098400</v>
       </c>
       <c r="E76" s="3">
-        <v>1059600</v>
+        <v>1045600</v>
       </c>
       <c r="F76" s="3">
-        <v>971400</v>
+        <v>1154300</v>
       </c>
       <c r="G76" s="3">
-        <v>876200</v>
+        <v>1099500</v>
       </c>
       <c r="H76" s="3">
-        <v>829100</v>
+        <v>1008000</v>
       </c>
       <c r="I76" s="3">
+        <v>909200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>860300</v>
+      </c>
+      <c r="K76" s="3">
         <v>731900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>667600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>602900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57600</v>
+        <v>66300</v>
       </c>
       <c r="E81" s="3">
-        <v>83700</v>
+        <v>60900</v>
       </c>
       <c r="F81" s="3">
-        <v>92400</v>
+        <v>59700</v>
       </c>
       <c r="G81" s="3">
-        <v>98400</v>
+        <v>86800</v>
       </c>
       <c r="H81" s="3">
-        <v>108400</v>
+        <v>95900</v>
       </c>
       <c r="I81" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K81" s="3">
         <v>90900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>84900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>63000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-395300</v>
+        <v>181600</v>
       </c>
       <c r="E89" s="3">
-        <v>212100</v>
+        <v>-84700</v>
       </c>
       <c r="F89" s="3">
-        <v>86600</v>
+        <v>-410200</v>
       </c>
       <c r="G89" s="3">
-        <v>66500</v>
+        <v>220100</v>
       </c>
       <c r="H89" s="3">
-        <v>72500</v>
+        <v>89800</v>
       </c>
       <c r="I89" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K89" s="3">
         <v>157600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>37300</v>
+        <v>6800</v>
       </c>
       <c r="E94" s="3">
-        <v>4000</v>
+        <v>-37800</v>
       </c>
       <c r="F94" s="3">
-        <v>-119400</v>
+        <v>38700</v>
       </c>
       <c r="G94" s="3">
-        <v>-37800</v>
+        <v>4200</v>
       </c>
       <c r="H94" s="3">
-        <v>-114700</v>
+        <v>-123900</v>
       </c>
       <c r="I94" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-156400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-32500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3827,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>113700</v>
+        <v>-145500</v>
       </c>
       <c r="E100" s="3">
-        <v>39900</v>
+        <v>-62600</v>
       </c>
       <c r="F100" s="3">
-        <v>9400</v>
+        <v>118000</v>
       </c>
       <c r="G100" s="3">
-        <v>81800</v>
+        <v>41400</v>
       </c>
       <c r="H100" s="3">
-        <v>61700</v>
+        <v>9800</v>
       </c>
       <c r="I100" s="3">
+        <v>84900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K100" s="3">
         <v>36900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-2100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-245300</v>
+        <v>43400</v>
       </c>
       <c r="E102" s="3">
-        <v>258400</v>
+        <v>-184700</v>
       </c>
       <c r="F102" s="3">
-        <v>-21200</v>
+        <v>-254500</v>
       </c>
       <c r="G102" s="3">
-        <v>108400</v>
+        <v>268100</v>
       </c>
       <c r="H102" s="3">
-        <v>19200</v>
+        <v>-22000</v>
       </c>
       <c r="I102" s="3">
+        <v>112500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K102" s="3">
         <v>43300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>113000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-35000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>262900</v>
+        <v>275400</v>
       </c>
       <c r="E8" s="3">
-        <v>305900</v>
+        <v>320400</v>
       </c>
       <c r="F8" s="3">
-        <v>207600</v>
+        <v>217500</v>
       </c>
       <c r="G8" s="3">
-        <v>219600</v>
+        <v>230100</v>
       </c>
       <c r="H8" s="3">
-        <v>238500</v>
+        <v>249800</v>
       </c>
       <c r="I8" s="3">
-        <v>217200</v>
+        <v>227500</v>
       </c>
       <c r="J8" s="3">
-        <v>183500</v>
+        <v>192200</v>
       </c>
       <c r="K8" s="3">
         <v>151700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39500</v>
+        <v>41400</v>
       </c>
       <c r="E9" s="3">
-        <v>36200</v>
+        <v>38000</v>
       </c>
       <c r="F9" s="3">
-        <v>44300</v>
+        <v>46400</v>
       </c>
       <c r="G9" s="3">
-        <v>48200</v>
+        <v>50500</v>
       </c>
       <c r="H9" s="3">
-        <v>44600</v>
+        <v>46700</v>
       </c>
       <c r="I9" s="3">
-        <v>38300</v>
+        <v>40200</v>
       </c>
       <c r="J9" s="3">
-        <v>40300</v>
+        <v>42200</v>
       </c>
       <c r="K9" s="3">
         <v>31700</v>
@@ -806,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>223400</v>
+        <v>234000</v>
       </c>
       <c r="E10" s="3">
-        <v>269700</v>
+        <v>282500</v>
       </c>
       <c r="F10" s="3">
-        <v>163300</v>
+        <v>171100</v>
       </c>
       <c r="G10" s="3">
-        <v>171400</v>
+        <v>179600</v>
       </c>
       <c r="H10" s="3">
-        <v>193900</v>
+        <v>203100</v>
       </c>
       <c r="I10" s="3">
-        <v>178900</v>
+        <v>187300</v>
       </c>
       <c r="J10" s="3">
-        <v>143200</v>
+        <v>150000</v>
       </c>
       <c r="K10" s="3">
         <v>120100</v>
@@ -860,22 +860,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="E12" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="F12" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="G12" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="H12" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="I12" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -936,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>83600</v>
+        <v>87600</v>
       </c>
       <c r="E14" s="3">
-        <v>115700</v>
+        <v>121200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180600</v>
+        <v>189100</v>
       </c>
       <c r="E17" s="3">
-        <v>239700</v>
+        <v>251100</v>
       </c>
       <c r="F17" s="3">
-        <v>144500</v>
+        <v>151300</v>
       </c>
       <c r="G17" s="3">
-        <v>125400</v>
+        <v>131400</v>
       </c>
       <c r="H17" s="3">
-        <v>127000</v>
+        <v>133000</v>
       </c>
       <c r="I17" s="3">
-        <v>101800</v>
+        <v>106600</v>
       </c>
       <c r="J17" s="3">
-        <v>112800</v>
+        <v>118200</v>
       </c>
       <c r="K17" s="3">
         <v>83000</v>
@@ -1063,25 +1063,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>82400</v>
+        <v>86300</v>
       </c>
       <c r="E18" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F18" s="3">
         <v>66200</v>
       </c>
-      <c r="F18" s="3">
-        <v>63200</v>
-      </c>
       <c r="G18" s="3">
-        <v>94200</v>
+        <v>98700</v>
       </c>
       <c r="H18" s="3">
-        <v>111500</v>
+        <v>116800</v>
       </c>
       <c r="I18" s="3">
-        <v>115400</v>
+        <v>120900</v>
       </c>
       <c r="J18" s="3">
-        <v>70700</v>
+        <v>74000</v>
       </c>
       <c r="K18" s="3">
         <v>68700</v>
@@ -1117,25 +1117,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="F20" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="G20" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="H20" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="I20" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="J20" s="3">
-        <v>13700</v>
+        <v>14400</v>
       </c>
       <c r="K20" s="3">
         <v>35100</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87400</v>
+        <v>91500</v>
       </c>
       <c r="E23" s="3">
-        <v>74000</v>
+        <v>77500</v>
       </c>
       <c r="F23" s="3">
-        <v>68200</v>
+        <v>71400</v>
       </c>
       <c r="G23" s="3">
-        <v>105900</v>
+        <v>110900</v>
       </c>
       <c r="H23" s="3">
-        <v>118100</v>
+        <v>123700</v>
       </c>
       <c r="I23" s="3">
-        <v>122600</v>
+        <v>128500</v>
       </c>
       <c r="J23" s="3">
-        <v>84400</v>
+        <v>88400</v>
       </c>
       <c r="K23" s="3">
         <v>103800</v>
@@ -1269,25 +1269,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="E24" s="3">
-        <v>12900</v>
+        <v>13600</v>
       </c>
       <c r="F24" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="G24" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="H24" s="3">
-        <v>22200</v>
+        <v>23300</v>
       </c>
       <c r="I24" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="J24" s="3">
-        <v>-28100</v>
+        <v>-29500</v>
       </c>
       <c r="K24" s="3">
         <v>12900</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>65900</v>
+        <v>69100</v>
       </c>
       <c r="E26" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="F26" s="3">
-        <v>59900</v>
+        <v>62700</v>
       </c>
       <c r="G26" s="3">
-        <v>86900</v>
+        <v>91000</v>
       </c>
       <c r="H26" s="3">
-        <v>95900</v>
+        <v>100500</v>
       </c>
       <c r="I26" s="3">
-        <v>102100</v>
+        <v>107000</v>
       </c>
       <c r="J26" s="3">
-        <v>112500</v>
+        <v>117800</v>
       </c>
       <c r="K26" s="3">
         <v>90900</v>
@@ -1383,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>66300</v>
+        <v>69500</v>
       </c>
       <c r="E27" s="3">
-        <v>60900</v>
+        <v>63800</v>
       </c>
       <c r="F27" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="G27" s="3">
-        <v>86800</v>
+        <v>90900</v>
       </c>
       <c r="H27" s="3">
-        <v>95900</v>
+        <v>100500</v>
       </c>
       <c r="I27" s="3">
-        <v>102100</v>
+        <v>107000</v>
       </c>
       <c r="J27" s="3">
-        <v>112400</v>
+        <v>117800</v>
       </c>
       <c r="K27" s="3">
         <v>90900</v>
@@ -1573,25 +1573,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-7800</v>
+        <v>-8200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5000</v>
+        <v>-5300</v>
       </c>
       <c r="G32" s="3">
-        <v>-11700</v>
+        <v>-12200</v>
       </c>
       <c r="H32" s="3">
-        <v>-6600</v>
+        <v>-7000</v>
       </c>
       <c r="I32" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="J32" s="3">
-        <v>-13700</v>
+        <v>-14400</v>
       </c>
       <c r="K32" s="3">
         <v>-35100</v>
@@ -1611,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>66300</v>
+        <v>69500</v>
       </c>
       <c r="E33" s="3">
-        <v>60900</v>
+        <v>63800</v>
       </c>
       <c r="F33" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="G33" s="3">
-        <v>86800</v>
+        <v>90900</v>
       </c>
       <c r="H33" s="3">
-        <v>95900</v>
+        <v>100500</v>
       </c>
       <c r="I33" s="3">
-        <v>102100</v>
+        <v>107000</v>
       </c>
       <c r="J33" s="3">
-        <v>112400</v>
+        <v>117800</v>
       </c>
       <c r="K33" s="3">
         <v>90900</v>
@@ -1687,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>66300</v>
+        <v>69500</v>
       </c>
       <c r="E35" s="3">
-        <v>60900</v>
+        <v>63800</v>
       </c>
       <c r="F35" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="G35" s="3">
-        <v>86800</v>
+        <v>90900</v>
       </c>
       <c r="H35" s="3">
-        <v>95900</v>
+        <v>100500</v>
       </c>
       <c r="I35" s="3">
-        <v>102100</v>
+        <v>107000</v>
       </c>
       <c r="J35" s="3">
-        <v>112400</v>
+        <v>117800</v>
       </c>
       <c r="K35" s="3">
         <v>90900</v>
@@ -1800,25 +1800,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>255200</v>
+        <v>267300</v>
       </c>
       <c r="E41" s="3">
-        <v>317000</v>
+        <v>332100</v>
       </c>
       <c r="F41" s="3">
-        <v>337600</v>
+        <v>353600</v>
       </c>
       <c r="G41" s="3">
-        <v>256000</v>
+        <v>268100</v>
       </c>
       <c r="H41" s="3">
-        <v>207500</v>
+        <v>217300</v>
       </c>
       <c r="I41" s="3">
-        <v>277000</v>
+        <v>290100</v>
       </c>
       <c r="J41" s="3">
-        <v>234700</v>
+        <v>245900</v>
       </c>
       <c r="K41" s="3">
         <v>231600</v>
@@ -1876,25 +1876,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>280200</v>
+        <v>293500</v>
       </c>
       <c r="E43" s="3">
-        <v>493400</v>
+        <v>516800</v>
       </c>
       <c r="F43" s="3">
-        <v>658200</v>
+        <v>689400</v>
       </c>
       <c r="G43" s="3">
-        <v>581400</v>
+        <v>609000</v>
       </c>
       <c r="H43" s="3">
-        <v>536400</v>
+        <v>561800</v>
       </c>
       <c r="I43" s="3">
-        <v>499500</v>
+        <v>523200</v>
       </c>
       <c r="J43" s="3">
-        <v>418000</v>
+        <v>437900</v>
       </c>
       <c r="K43" s="3">
         <v>367300</v>
@@ -1952,25 +1952,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>159500</v>
+        <v>167100</v>
       </c>
       <c r="E45" s="3">
-        <v>187700</v>
+        <v>196600</v>
       </c>
       <c r="F45" s="3">
-        <v>202000</v>
+        <v>211600</v>
       </c>
       <c r="G45" s="3">
-        <v>286000</v>
+        <v>299600</v>
       </c>
       <c r="H45" s="3">
-        <v>145600</v>
+        <v>152500</v>
       </c>
       <c r="I45" s="3">
-        <v>46400</v>
+        <v>48600</v>
       </c>
       <c r="J45" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="K45" s="3">
         <v>44900</v>
@@ -2028,25 +2028,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>892600</v>
+        <v>935000</v>
       </c>
       <c r="E47" s="3">
-        <v>834900</v>
+        <v>874500</v>
       </c>
       <c r="F47" s="3">
-        <v>856300</v>
+        <v>896900</v>
       </c>
       <c r="G47" s="3">
-        <v>763600</v>
+        <v>799800</v>
       </c>
       <c r="H47" s="3">
-        <v>774800</v>
+        <v>811600</v>
       </c>
       <c r="I47" s="3">
-        <v>692000</v>
+        <v>724800</v>
       </c>
       <c r="J47" s="3">
-        <v>625700</v>
+        <v>655400</v>
       </c>
       <c r="K47" s="3">
         <v>486100</v>
@@ -2066,25 +2066,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="E48" s="3">
-        <v>30800</v>
+        <v>32300</v>
       </c>
       <c r="F48" s="3">
-        <v>33400</v>
+        <v>35000</v>
       </c>
       <c r="G48" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="H48" s="3">
-        <v>35500</v>
+        <v>37200</v>
       </c>
       <c r="I48" s="3">
-        <v>38500</v>
+        <v>40400</v>
       </c>
       <c r="J48" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="K48" s="3">
         <v>19000</v>
@@ -2104,25 +2104,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="E49" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="F49" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="G49" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="H49" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="I49" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="J49" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="K49" s="3">
         <v>16700</v>
@@ -2218,25 +2218,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>537600</v>
+        <v>563100</v>
       </c>
       <c r="E52" s="3">
-        <v>432100</v>
+        <v>452600</v>
       </c>
       <c r="F52" s="3">
-        <v>554200</v>
+        <v>580500</v>
       </c>
       <c r="G52" s="3">
-        <v>891000</v>
+        <v>933300</v>
       </c>
       <c r="H52" s="3">
-        <v>671600</v>
+        <v>703500</v>
       </c>
       <c r="I52" s="3">
-        <v>622100</v>
+        <v>651600</v>
       </c>
       <c r="J52" s="3">
-        <v>551900</v>
+        <v>578100</v>
       </c>
       <c r="K52" s="3">
         <v>494600</v>
@@ -2294,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2174000</v>
+        <v>2277100</v>
       </c>
       <c r="E54" s="3">
-        <v>2317400</v>
+        <v>2427300</v>
       </c>
       <c r="F54" s="3">
-        <v>2658400</v>
+        <v>2784500</v>
       </c>
       <c r="G54" s="3">
-        <v>2830400</v>
+        <v>2964700</v>
       </c>
       <c r="H54" s="3">
-        <v>2395700</v>
+        <v>2509400</v>
       </c>
       <c r="I54" s="3">
-        <v>2200900</v>
+        <v>2305300</v>
       </c>
       <c r="J54" s="3">
-        <v>1908700</v>
+        <v>1999200</v>
       </c>
       <c r="K54" s="3">
         <v>1666600</v>
@@ -2364,25 +2364,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="E57" s="3">
-        <v>44800</v>
+        <v>46900</v>
       </c>
       <c r="F57" s="3">
-        <v>99400</v>
+        <v>104100</v>
       </c>
       <c r="G57" s="3">
-        <v>347700</v>
+        <v>364200</v>
       </c>
       <c r="H57" s="3">
-        <v>107500</v>
+        <v>112600</v>
       </c>
       <c r="I57" s="3">
-        <v>113700</v>
+        <v>119100</v>
       </c>
       <c r="J57" s="3">
-        <v>131400</v>
+        <v>137700</v>
       </c>
       <c r="K57" s="3">
         <v>181100</v>
@@ -2402,25 +2402,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="E58" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="F58" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="G58" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="H58" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="I58" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J58" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K58" s="3">
         <v>4200</v>
@@ -2440,25 +2440,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92200</v>
+        <v>96600</v>
       </c>
       <c r="E59" s="3">
-        <v>144500</v>
+        <v>151300</v>
       </c>
       <c r="F59" s="3">
-        <v>784700</v>
+        <v>821900</v>
       </c>
       <c r="G59" s="3">
-        <v>909400</v>
+        <v>952600</v>
       </c>
       <c r="H59" s="3">
-        <v>844700</v>
+        <v>884800</v>
       </c>
       <c r="I59" s="3">
-        <v>817700</v>
+        <v>856500</v>
       </c>
       <c r="J59" s="3">
-        <v>642000</v>
+        <v>672500</v>
       </c>
       <c r="K59" s="3">
         <v>577800</v>
@@ -2554,25 +2554,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30000</v>
+        <v>31500</v>
       </c>
       <c r="E62" s="3">
-        <v>30100</v>
+        <v>31500</v>
       </c>
       <c r="F62" s="3">
-        <v>28900</v>
+        <v>30300</v>
       </c>
       <c r="G62" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="H62" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="I62" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="J62" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="K62" s="3">
         <v>5600</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1075600</v>
+        <v>1126600</v>
       </c>
       <c r="E66" s="3">
-        <v>1271800</v>
+        <v>1332100</v>
       </c>
       <c r="F66" s="3">
-        <v>1504100</v>
+        <v>1575400</v>
       </c>
       <c r="G66" s="3">
-        <v>1731000</v>
+        <v>1813100</v>
       </c>
       <c r="H66" s="3">
-        <v>1387700</v>
+        <v>1453600</v>
       </c>
       <c r="I66" s="3">
-        <v>1291700</v>
+        <v>1353000</v>
       </c>
       <c r="J66" s="3">
-        <v>1048400</v>
+        <v>1098100</v>
       </c>
       <c r="K66" s="3">
         <v>934700</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>292400</v>
+        <v>306300</v>
       </c>
       <c r="E72" s="3">
-        <v>226100</v>
+        <v>236800</v>
       </c>
       <c r="F72" s="3">
-        <v>331700</v>
+        <v>347400</v>
       </c>
       <c r="G72" s="3">
-        <v>271900</v>
+        <v>284800</v>
       </c>
       <c r="H72" s="3">
-        <v>185100</v>
+        <v>193900</v>
       </c>
       <c r="I72" s="3">
-        <v>89200</v>
+        <v>93400</v>
       </c>
       <c r="J72" s="3">
-        <v>43800</v>
+        <v>45900</v>
       </c>
       <c r="K72" s="3">
         <v>-66100</v>
@@ -3064,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1098400</v>
+        <v>1150500</v>
       </c>
       <c r="E76" s="3">
-        <v>1045600</v>
+        <v>1095200</v>
       </c>
       <c r="F76" s="3">
-        <v>1154300</v>
+        <v>1209000</v>
       </c>
       <c r="G76" s="3">
-        <v>1099500</v>
+        <v>1151600</v>
       </c>
       <c r="H76" s="3">
-        <v>1008000</v>
+        <v>1055800</v>
       </c>
       <c r="I76" s="3">
-        <v>909200</v>
+        <v>952300</v>
       </c>
       <c r="J76" s="3">
-        <v>860300</v>
+        <v>901100</v>
       </c>
       <c r="K76" s="3">
         <v>731900</v>
@@ -3183,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>66300</v>
+        <v>69500</v>
       </c>
       <c r="E81" s="3">
-        <v>60900</v>
+        <v>63800</v>
       </c>
       <c r="F81" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="G81" s="3">
-        <v>86800</v>
+        <v>90900</v>
       </c>
       <c r="H81" s="3">
-        <v>95900</v>
+        <v>100500</v>
       </c>
       <c r="I81" s="3">
-        <v>102100</v>
+        <v>107000</v>
       </c>
       <c r="J81" s="3">
-        <v>112400</v>
+        <v>117800</v>
       </c>
       <c r="K81" s="3">
         <v>90900</v>
@@ -3465,25 +3465,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>181600</v>
+        <v>190200</v>
       </c>
       <c r="E89" s="3">
-        <v>-84700</v>
+        <v>-88700</v>
       </c>
       <c r="F89" s="3">
-        <v>-410200</v>
+        <v>-429700</v>
       </c>
       <c r="G89" s="3">
-        <v>220100</v>
+        <v>230500</v>
       </c>
       <c r="H89" s="3">
-        <v>89800</v>
+        <v>94100</v>
       </c>
       <c r="I89" s="3">
-        <v>69000</v>
+        <v>72200</v>
       </c>
       <c r="J89" s="3">
-        <v>75300</v>
+        <v>78800</v>
       </c>
       <c r="K89" s="3">
         <v>157600</v>
@@ -3633,25 +3633,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E94" s="3">
-        <v>-37800</v>
+        <v>-39600</v>
       </c>
       <c r="F94" s="3">
-        <v>38700</v>
+        <v>40500</v>
       </c>
       <c r="G94" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H94" s="3">
-        <v>-123900</v>
+        <v>-129800</v>
       </c>
       <c r="I94" s="3">
-        <v>-39200</v>
+        <v>-41100</v>
       </c>
       <c r="J94" s="3">
-        <v>-119000</v>
+        <v>-124600</v>
       </c>
       <c r="K94" s="3">
         <v>-156400</v>
@@ -3839,25 +3839,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-145500</v>
+        <v>-152400</v>
       </c>
       <c r="E100" s="3">
-        <v>-62600</v>
+        <v>-65500</v>
       </c>
       <c r="F100" s="3">
-        <v>118000</v>
+        <v>123600</v>
       </c>
       <c r="G100" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="H100" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="I100" s="3">
-        <v>84900</v>
+        <v>88900</v>
       </c>
       <c r="J100" s="3">
-        <v>64000</v>
+        <v>67100</v>
       </c>
       <c r="K100" s="3">
         <v>36900</v>
@@ -3880,19 +3880,19 @@
         <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H101" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="I101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -3915,25 +3915,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43400</v>
+        <v>45500</v>
       </c>
       <c r="E102" s="3">
-        <v>-184700</v>
+        <v>-193400</v>
       </c>
       <c r="F102" s="3">
-        <v>-254500</v>
+        <v>-266600</v>
       </c>
       <c r="G102" s="3">
-        <v>268100</v>
+        <v>280800</v>
       </c>
       <c r="H102" s="3">
-        <v>-22000</v>
+        <v>-23000</v>
       </c>
       <c r="I102" s="3">
-        <v>112500</v>
+        <v>117800</v>
       </c>
       <c r="J102" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="K102" s="3">
         <v>43300</v>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>275400</v>
+        <v>274000</v>
       </c>
       <c r="E8" s="3">
-        <v>320400</v>
+        <v>276600</v>
       </c>
       <c r="F8" s="3">
-        <v>217500</v>
+        <v>321800</v>
       </c>
       <c r="G8" s="3">
-        <v>230100</v>
+        <v>218400</v>
       </c>
       <c r="H8" s="3">
-        <v>249800</v>
+        <v>243300</v>
       </c>
       <c r="I8" s="3">
-        <v>227500</v>
+        <v>250800</v>
       </c>
       <c r="J8" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K8" s="3">
         <v>192200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>151700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>137100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41400</v>
+        <v>51800</v>
       </c>
       <c r="E9" s="3">
-        <v>38000</v>
+        <v>41600</v>
       </c>
       <c r="F9" s="3">
-        <v>46400</v>
+        <v>38100</v>
       </c>
       <c r="G9" s="3">
-        <v>50500</v>
+        <v>46600</v>
       </c>
       <c r="H9" s="3">
-        <v>46700</v>
+        <v>50700</v>
       </c>
       <c r="I9" s="3">
-        <v>40200</v>
+        <v>46900</v>
       </c>
       <c r="J9" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K9" s="3">
         <v>42200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>234000</v>
+        <v>222200</v>
       </c>
       <c r="E10" s="3">
-        <v>282500</v>
+        <v>235000</v>
       </c>
       <c r="F10" s="3">
-        <v>171100</v>
+        <v>283700</v>
       </c>
       <c r="G10" s="3">
-        <v>179600</v>
+        <v>171800</v>
       </c>
       <c r="H10" s="3">
-        <v>203100</v>
+        <v>192600</v>
       </c>
       <c r="I10" s="3">
-        <v>187300</v>
+        <v>204000</v>
       </c>
       <c r="J10" s="3">
+        <v>188200</v>
+      </c>
+      <c r="K10" s="3">
         <v>150000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>120100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>112400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>98000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
         <v>12700</v>
       </c>
-      <c r="E12" s="3">
-        <v>13300</v>
-      </c>
       <c r="F12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G12" s="3">
         <v>14200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16500</v>
       </c>
-      <c r="H12" s="3">
-        <v>15400</v>
-      </c>
       <c r="I12" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+        <v>15500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>10900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,19 +947,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>87600</v>
+        <v>49900</v>
       </c>
       <c r="E14" s="3">
-        <v>121200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>88000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>121700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>189100</v>
+        <v>168700</v>
       </c>
       <c r="E17" s="3">
-        <v>251100</v>
+        <v>189900</v>
       </c>
       <c r="F17" s="3">
-        <v>151300</v>
+        <v>252200</v>
       </c>
       <c r="G17" s="3">
-        <v>131400</v>
+        <v>152000</v>
       </c>
       <c r="H17" s="3">
-        <v>133000</v>
+        <v>144200</v>
       </c>
       <c r="I17" s="3">
-        <v>106600</v>
+        <v>133600</v>
       </c>
       <c r="J17" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K17" s="3">
         <v>118200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>86300</v>
+        <v>105300</v>
       </c>
       <c r="E18" s="3">
-        <v>69300</v>
+        <v>86700</v>
       </c>
       <c r="F18" s="3">
-        <v>66200</v>
+        <v>69600</v>
       </c>
       <c r="G18" s="3">
-        <v>98700</v>
+        <v>66500</v>
       </c>
       <c r="H18" s="3">
-        <v>116800</v>
+        <v>99100</v>
       </c>
       <c r="I18" s="3">
-        <v>120900</v>
+        <v>117300</v>
       </c>
       <c r="J18" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K18" s="3">
         <v>74000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1144,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
-        <v>12200</v>
-      </c>
       <c r="H20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
-        <v>7500</v>
-      </c>
       <c r="J20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K20" s="3">
         <v>14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>91500</v>
+        <v>109300</v>
       </c>
       <c r="E23" s="3">
-        <v>77500</v>
+        <v>91900</v>
       </c>
       <c r="F23" s="3">
-        <v>71400</v>
+        <v>77800</v>
       </c>
       <c r="G23" s="3">
-        <v>110900</v>
+        <v>71700</v>
       </c>
       <c r="H23" s="3">
-        <v>123700</v>
+        <v>111400</v>
       </c>
       <c r="I23" s="3">
-        <v>128500</v>
+        <v>124300</v>
       </c>
       <c r="J23" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K23" s="3">
         <v>88400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>103800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>107200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22400</v>
+        <v>18100</v>
       </c>
       <c r="E24" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F24" s="3">
         <v>13600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8700</v>
       </c>
-      <c r="G24" s="3">
-        <v>19900</v>
-      </c>
       <c r="H24" s="3">
-        <v>23300</v>
+        <v>20000</v>
       </c>
       <c r="I24" s="3">
-        <v>21500</v>
+        <v>23400</v>
       </c>
       <c r="J24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-29500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69100</v>
+        <v>91200</v>
       </c>
       <c r="E26" s="3">
-        <v>63900</v>
+        <v>69400</v>
       </c>
       <c r="F26" s="3">
-        <v>62700</v>
+        <v>64200</v>
       </c>
       <c r="G26" s="3">
-        <v>91000</v>
+        <v>63000</v>
       </c>
       <c r="H26" s="3">
-        <v>100500</v>
+        <v>91400</v>
       </c>
       <c r="I26" s="3">
-        <v>107000</v>
+        <v>100900</v>
       </c>
       <c r="J26" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K26" s="3">
         <v>117800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>90900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>85100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>62800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69500</v>
+        <v>92100</v>
       </c>
       <c r="E27" s="3">
-        <v>63800</v>
+        <v>69800</v>
       </c>
       <c r="F27" s="3">
-        <v>62600</v>
+        <v>64100</v>
       </c>
       <c r="G27" s="3">
+        <v>62800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>91300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>117800</v>
+      </c>
+      <c r="L27" s="3">
         <v>90900</v>
       </c>
-      <c r="H27" s="3">
-        <v>100500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>107000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>117800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>90900</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-12200</v>
-      </c>
       <c r="H32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69500</v>
+        <v>92100</v>
       </c>
       <c r="E33" s="3">
-        <v>63800</v>
+        <v>69800</v>
       </c>
       <c r="F33" s="3">
-        <v>62600</v>
+        <v>64100</v>
       </c>
       <c r="G33" s="3">
+        <v>62800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>91300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>117800</v>
+      </c>
+      <c r="L33" s="3">
         <v>90900</v>
       </c>
-      <c r="H33" s="3">
-        <v>100500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>107000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>117800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>90900</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>84900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69500</v>
+        <v>92100</v>
       </c>
       <c r="E35" s="3">
-        <v>63800</v>
+        <v>69800</v>
       </c>
       <c r="F35" s="3">
-        <v>62600</v>
+        <v>64100</v>
       </c>
       <c r="G35" s="3">
+        <v>62800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>91300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>117800</v>
+      </c>
+      <c r="L35" s="3">
         <v>90900</v>
       </c>
-      <c r="H35" s="3">
-        <v>100500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>107000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>117800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>90900</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>84900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>267300</v>
+        <v>169200</v>
       </c>
       <c r="E41" s="3">
-        <v>332100</v>
+        <v>268400</v>
       </c>
       <c r="F41" s="3">
-        <v>353600</v>
+        <v>333500</v>
       </c>
       <c r="G41" s="3">
-        <v>268100</v>
+        <v>355100</v>
       </c>
       <c r="H41" s="3">
-        <v>217300</v>
+        <v>269300</v>
       </c>
       <c r="I41" s="3">
-        <v>290100</v>
+        <v>218300</v>
       </c>
       <c r="J41" s="3">
+        <v>291400</v>
+      </c>
+      <c r="K41" s="3">
         <v>245900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>231600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>347800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>211800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>293500</v>
+        <v>281600</v>
       </c>
       <c r="E43" s="3">
-        <v>516800</v>
+        <v>294700</v>
       </c>
       <c r="F43" s="3">
-        <v>689400</v>
+        <v>519100</v>
       </c>
       <c r="G43" s="3">
-        <v>609000</v>
+        <v>692400</v>
       </c>
       <c r="H43" s="3">
-        <v>561800</v>
+        <v>611600</v>
       </c>
       <c r="I43" s="3">
-        <v>523200</v>
+        <v>564300</v>
       </c>
       <c r="J43" s="3">
+        <v>525500</v>
+      </c>
+      <c r="K43" s="3">
         <v>437900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>367300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>239000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,46 +2042,52 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>167100</v>
+        <v>173200</v>
       </c>
       <c r="E45" s="3">
-        <v>196600</v>
+        <v>167800</v>
       </c>
       <c r="F45" s="3">
-        <v>211600</v>
+        <v>197500</v>
       </c>
       <c r="G45" s="3">
-        <v>299600</v>
+        <v>212500</v>
       </c>
       <c r="H45" s="3">
-        <v>152500</v>
+        <v>300900</v>
       </c>
       <c r="I45" s="3">
-        <v>48600</v>
+        <v>153200</v>
       </c>
       <c r="J45" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K45" s="3">
         <v>30200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20500</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,122 +2124,134 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>935000</v>
+        <v>991200</v>
       </c>
       <c r="E47" s="3">
-        <v>874500</v>
+        <v>939100</v>
       </c>
       <c r="F47" s="3">
-        <v>896900</v>
+        <v>878300</v>
       </c>
       <c r="G47" s="3">
-        <v>799800</v>
+        <v>900800</v>
       </c>
       <c r="H47" s="3">
-        <v>811600</v>
+        <v>803300</v>
       </c>
       <c r="I47" s="3">
-        <v>724800</v>
+        <v>815100</v>
       </c>
       <c r="J47" s="3">
+        <v>728000</v>
+      </c>
+      <c r="K47" s="3">
         <v>655400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>486100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>324500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>427300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28900</v>
+        <v>26200</v>
       </c>
       <c r="E48" s="3">
-        <v>32300</v>
+        <v>29000</v>
       </c>
       <c r="F48" s="3">
-        <v>35000</v>
+        <v>32400</v>
       </c>
       <c r="G48" s="3">
-        <v>36800</v>
+        <v>35200</v>
       </c>
       <c r="H48" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="I48" s="3">
-        <v>40400</v>
+        <v>37400</v>
       </c>
       <c r="J48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K48" s="3">
         <v>21900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="E49" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="F49" s="3">
-        <v>17400</v>
+        <v>22500</v>
       </c>
       <c r="G49" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="H49" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K49" s="3">
         <v>18100</v>
       </c>
-      <c r="I49" s="3">
-        <v>18100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>18100</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>16400</v>
       </c>
       <c r="N49" s="3">
         <v>16400</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>563100</v>
+        <v>662400</v>
       </c>
       <c r="E52" s="3">
-        <v>452600</v>
+        <v>565500</v>
       </c>
       <c r="F52" s="3">
-        <v>580500</v>
+        <v>454600</v>
       </c>
       <c r="G52" s="3">
-        <v>933300</v>
+        <v>583000</v>
       </c>
       <c r="H52" s="3">
-        <v>703500</v>
+        <v>937300</v>
       </c>
       <c r="I52" s="3">
-        <v>651600</v>
+        <v>706500</v>
       </c>
       <c r="J52" s="3">
+        <v>654500</v>
+      </c>
+      <c r="K52" s="3">
         <v>578100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>494600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>337600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>379500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2277100</v>
+        <v>2326200</v>
       </c>
       <c r="E54" s="3">
-        <v>2427300</v>
+        <v>2287000</v>
       </c>
       <c r="F54" s="3">
-        <v>2784500</v>
+        <v>2437900</v>
       </c>
       <c r="G54" s="3">
-        <v>2964700</v>
+        <v>2796600</v>
       </c>
       <c r="H54" s="3">
-        <v>2509400</v>
+        <v>2977600</v>
       </c>
       <c r="I54" s="3">
-        <v>2305300</v>
+        <v>2520300</v>
       </c>
       <c r="J54" s="3">
+        <v>2315300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1999200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1666600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1424500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1314200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,60 +2488,64 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26700</v>
+        <v>16900</v>
       </c>
       <c r="E57" s="3">
-        <v>46900</v>
+        <v>26900</v>
       </c>
       <c r="F57" s="3">
-        <v>104100</v>
+        <v>47100</v>
       </c>
       <c r="G57" s="3">
-        <v>364200</v>
+        <v>104600</v>
       </c>
       <c r="H57" s="3">
-        <v>112600</v>
+        <v>365800</v>
       </c>
       <c r="I57" s="3">
-        <v>119100</v>
+        <v>113100</v>
       </c>
       <c r="J57" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K57" s="3">
         <v>137700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>181100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>96400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>178100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="E58" s="3">
-        <v>35700</v>
+        <v>22900</v>
       </c>
       <c r="F58" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="G58" s="3">
-        <v>3800</v>
+        <v>35900</v>
       </c>
       <c r="H58" s="3">
         <v>3800</v>
@@ -2423,57 +2557,63 @@
         <v>3800</v>
       </c>
       <c r="K58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8200</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96600</v>
+        <v>120900</v>
       </c>
       <c r="E59" s="3">
-        <v>151300</v>
+        <v>97000</v>
       </c>
       <c r="F59" s="3">
-        <v>821900</v>
+        <v>152000</v>
       </c>
       <c r="G59" s="3">
-        <v>952600</v>
+        <v>825500</v>
       </c>
       <c r="H59" s="3">
-        <v>884800</v>
+        <v>956700</v>
       </c>
       <c r="I59" s="3">
-        <v>856500</v>
+        <v>888700</v>
       </c>
       <c r="J59" s="3">
+        <v>860200</v>
+      </c>
+      <c r="K59" s="3">
         <v>672500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>577800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>547400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>397900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,46 +2691,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31500</v>
+        <v>31000</v>
       </c>
       <c r="E62" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="F62" s="3">
-        <v>30300</v>
+        <v>31600</v>
       </c>
       <c r="G62" s="3">
-        <v>17000</v>
+        <v>30400</v>
       </c>
       <c r="H62" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="I62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K62" s="3">
         <v>15200</v>
       </c>
-      <c r="J62" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>17700</v>
       </c>
       <c r="N62" s="3">
         <v>17700</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1126600</v>
+        <v>1107100</v>
       </c>
       <c r="E66" s="3">
-        <v>1332100</v>
+        <v>1131500</v>
       </c>
       <c r="F66" s="3">
-        <v>1575400</v>
+        <v>1337900</v>
       </c>
       <c r="G66" s="3">
-        <v>1813100</v>
+        <v>1582300</v>
       </c>
       <c r="H66" s="3">
-        <v>1453600</v>
+        <v>1820900</v>
       </c>
       <c r="I66" s="3">
-        <v>1353000</v>
+        <v>1459900</v>
       </c>
       <c r="J66" s="3">
+        <v>1358800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1098100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>934700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>756900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>711200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>306300</v>
+        <v>399700</v>
       </c>
       <c r="E72" s="3">
-        <v>236800</v>
+        <v>307600</v>
       </c>
       <c r="F72" s="3">
-        <v>347400</v>
+        <v>237800</v>
       </c>
       <c r="G72" s="3">
-        <v>284800</v>
+        <v>348900</v>
       </c>
       <c r="H72" s="3">
-        <v>193900</v>
+        <v>286100</v>
       </c>
       <c r="I72" s="3">
-        <v>93400</v>
+        <v>194700</v>
       </c>
       <c r="J72" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K72" s="3">
         <v>45900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-157000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-248000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1150500</v>
+        <v>1219100</v>
       </c>
       <c r="E76" s="3">
-        <v>1095200</v>
+        <v>1155500</v>
       </c>
       <c r="F76" s="3">
-        <v>1209000</v>
+        <v>1100000</v>
       </c>
       <c r="G76" s="3">
-        <v>1151600</v>
+        <v>1214300</v>
       </c>
       <c r="H76" s="3">
-        <v>1055800</v>
+        <v>1156600</v>
       </c>
       <c r="I76" s="3">
-        <v>952300</v>
+        <v>1060400</v>
       </c>
       <c r="J76" s="3">
+        <v>956500</v>
+      </c>
+      <c r="K76" s="3">
         <v>901100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>731900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>667600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>602900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69500</v>
+        <v>92100</v>
       </c>
       <c r="E81" s="3">
-        <v>63800</v>
+        <v>69800</v>
       </c>
       <c r="F81" s="3">
-        <v>62600</v>
+        <v>64100</v>
       </c>
       <c r="G81" s="3">
+        <v>62800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>91300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>117800</v>
+      </c>
+      <c r="L81" s="3">
         <v>90900</v>
       </c>
-      <c r="H81" s="3">
-        <v>100500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>107000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>117800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>90900</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>84900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>190200</v>
+        <v>120900</v>
       </c>
       <c r="E89" s="3">
-        <v>-88700</v>
+        <v>191100</v>
       </c>
       <c r="F89" s="3">
-        <v>-429700</v>
+        <v>-89100</v>
       </c>
       <c r="G89" s="3">
-        <v>230500</v>
+        <v>-431500</v>
       </c>
       <c r="H89" s="3">
-        <v>94100</v>
+        <v>231500</v>
       </c>
       <c r="I89" s="3">
-        <v>72200</v>
+        <v>94500</v>
       </c>
       <c r="J89" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K89" s="3">
         <v>78800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>157600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E94" s="3">
         <v>7100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-39600</v>
-      </c>
       <c r="F94" s="3">
-        <v>40500</v>
+        <v>-39800</v>
       </c>
       <c r="G94" s="3">
+        <v>40700</v>
+      </c>
+      <c r="H94" s="3">
         <v>4400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-129800</v>
-      </c>
       <c r="I94" s="3">
-        <v>-41100</v>
+        <v>-130400</v>
       </c>
       <c r="J94" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-124600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-156400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-152400</v>
+        <v>-92100</v>
       </c>
       <c r="E100" s="3">
-        <v>-65500</v>
+        <v>-153100</v>
       </c>
       <c r="F100" s="3">
-        <v>123600</v>
+        <v>-65800</v>
       </c>
       <c r="G100" s="3">
-        <v>43400</v>
+        <v>124100</v>
       </c>
       <c r="H100" s="3">
+        <v>43600</v>
+      </c>
+      <c r="I100" s="3">
         <v>10300</v>
       </c>
-      <c r="I100" s="3">
-        <v>88900</v>
-      </c>
       <c r="J100" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K100" s="3">
         <v>67100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2500</v>
       </c>
       <c r="H101" s="3">
         <v>2500</v>
       </c>
       <c r="I101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>45500</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-193400</v>
+        <v>45700</v>
       </c>
       <c r="F102" s="3">
-        <v>-266600</v>
+        <v>-194300</v>
       </c>
       <c r="G102" s="3">
-        <v>280800</v>
+        <v>-267700</v>
       </c>
       <c r="H102" s="3">
-        <v>-23000</v>
+        <v>282100</v>
       </c>
       <c r="I102" s="3">
-        <v>117800</v>
+        <v>-23100</v>
       </c>
       <c r="J102" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K102" s="3">
         <v>20800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>113000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>274000</v>
+        <v>329600</v>
       </c>
       <c r="E8" s="3">
-        <v>276600</v>
+        <v>289100</v>
       </c>
       <c r="F8" s="3">
-        <v>321800</v>
+        <v>279800</v>
       </c>
       <c r="G8" s="3">
-        <v>218400</v>
+        <v>282500</v>
       </c>
       <c r="H8" s="3">
-        <v>243300</v>
+        <v>328600</v>
       </c>
       <c r="I8" s="3">
+        <v>223000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>248400</v>
+      </c>
+      <c r="K8" s="3">
         <v>250800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>228500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>192200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>151700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>149100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>137100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>52900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>38900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>47600</v>
+      </c>
+      <c r="J9" s="3">
         <v>51800</v>
       </c>
-      <c r="E9" s="3">
-        <v>41600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>38100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>46600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>50700</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>46900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>42200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>31700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>36700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>39100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>222200</v>
+        <v>265200</v>
       </c>
       <c r="E10" s="3">
-        <v>235000</v>
+        <v>216600</v>
       </c>
       <c r="F10" s="3">
-        <v>283700</v>
+        <v>226900</v>
       </c>
       <c r="G10" s="3">
-        <v>171800</v>
+        <v>240000</v>
       </c>
       <c r="H10" s="3">
-        <v>192600</v>
+        <v>289700</v>
       </c>
       <c r="I10" s="3">
+        <v>175400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>196600</v>
+      </c>
+      <c r="K10" s="3">
         <v>204000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>188200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>150000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>120100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>112400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>98000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="E12" s="3">
-        <v>12700</v>
+        <v>16600</v>
       </c>
       <c r="F12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>15500</v>
+      </c>
+      <c r="L12" s="3">
         <v>13400</v>
       </c>
-      <c r="G12" s="3">
-        <v>14200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>16500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>13400</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10700</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,29 +983,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>49900</v>
+        <v>69400</v>
       </c>
       <c r="E14" s="3">
-        <v>88000</v>
+        <v>48200</v>
       </c>
       <c r="F14" s="3">
-        <v>121700</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>51000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>89800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>124300</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>168700</v>
+        <v>227300</v>
       </c>
       <c r="E17" s="3">
-        <v>189900</v>
+        <v>196200</v>
       </c>
       <c r="F17" s="3">
-        <v>252200</v>
+        <v>172300</v>
       </c>
       <c r="G17" s="3">
-        <v>152000</v>
+        <v>194000</v>
       </c>
       <c r="H17" s="3">
-        <v>144200</v>
+        <v>257500</v>
       </c>
       <c r="I17" s="3">
+        <v>155200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K17" s="3">
         <v>133600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>107100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>118200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>83000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>83400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>79700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>105300</v>
+        <v>102300</v>
       </c>
       <c r="E18" s="3">
-        <v>86700</v>
+        <v>92900</v>
       </c>
       <c r="F18" s="3">
-        <v>69600</v>
+        <v>107500</v>
       </c>
       <c r="G18" s="3">
-        <v>66500</v>
+        <v>88500</v>
       </c>
       <c r="H18" s="3">
-        <v>99100</v>
+        <v>71100</v>
       </c>
       <c r="I18" s="3">
+        <v>67900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K18" s="3">
         <v>117300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>121400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>74000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>68700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>65700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>57400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1210,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>6700</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
-        <v>8200</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
         <v>5300</v>
       </c>
       <c r="H20" s="3">
-        <v>12300</v>
+        <v>8400</v>
       </c>
       <c r="I20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>35100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>41500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>109300</v>
+        <v>109000</v>
       </c>
       <c r="E23" s="3">
-        <v>91900</v>
+        <v>93200</v>
       </c>
       <c r="F23" s="3">
-        <v>77800</v>
+        <v>111600</v>
       </c>
       <c r="G23" s="3">
-        <v>71700</v>
+        <v>93800</v>
       </c>
       <c r="H23" s="3">
-        <v>111400</v>
+        <v>79500</v>
       </c>
       <c r="I23" s="3">
+        <v>73300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K23" s="3">
         <v>124300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>129000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>88400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>103800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>107200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>76400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18100</v>
+        <v>16500</v>
       </c>
       <c r="E24" s="3">
-        <v>22500</v>
+        <v>15700</v>
       </c>
       <c r="F24" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>23400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>12900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>22100</v>
+      </c>
+      <c r="P24" s="3">
         <v>13600</v>
       </c>
-      <c r="G24" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>21600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>12900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>22100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>13600</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,49 +1488,61 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>91200</v>
+        <v>92500</v>
       </c>
       <c r="E26" s="3">
-        <v>69400</v>
+        <v>77600</v>
       </c>
       <c r="F26" s="3">
-        <v>64200</v>
+        <v>93100</v>
       </c>
       <c r="G26" s="3">
-        <v>63000</v>
+        <v>70800</v>
       </c>
       <c r="H26" s="3">
-        <v>91400</v>
+        <v>65600</v>
       </c>
       <c r="I26" s="3">
+        <v>64400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K26" s="3">
         <v>100900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>107400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>117800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>90900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>85100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>62800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,40 +1550,46 @@
         <v>92100</v>
       </c>
       <c r="E27" s="3">
-        <v>69800</v>
+        <v>77100</v>
       </c>
       <c r="F27" s="3">
-        <v>64100</v>
+        <v>94000</v>
       </c>
       <c r="G27" s="3">
-        <v>62800</v>
+        <v>71300</v>
       </c>
       <c r="H27" s="3">
-        <v>91300</v>
+        <v>65400</v>
       </c>
       <c r="I27" s="3">
+        <v>64200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K27" s="3">
         <v>100900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>107400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>117800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>90900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>84900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>63000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,49 +1770,61 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>-6700</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8200</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
         <v>-5300</v>
       </c>
       <c r="H32" s="3">
-        <v>-12300</v>
+        <v>-8400</v>
       </c>
       <c r="I32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-35100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-41500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1687,40 +1832,46 @@
         <v>92100</v>
       </c>
       <c r="E33" s="3">
-        <v>69800</v>
+        <v>77100</v>
       </c>
       <c r="F33" s="3">
-        <v>64100</v>
+        <v>94000</v>
       </c>
       <c r="G33" s="3">
-        <v>62800</v>
+        <v>71300</v>
       </c>
       <c r="H33" s="3">
-        <v>91300</v>
+        <v>65400</v>
       </c>
       <c r="I33" s="3">
+        <v>64200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K33" s="3">
         <v>100900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>107400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>117800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>90900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>84900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>63000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1911,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1769,86 +1926,98 @@
         <v>92100</v>
       </c>
       <c r="E35" s="3">
-        <v>69800</v>
+        <v>77100</v>
       </c>
       <c r="F35" s="3">
-        <v>64100</v>
+        <v>94000</v>
       </c>
       <c r="G35" s="3">
-        <v>62800</v>
+        <v>71300</v>
       </c>
       <c r="H35" s="3">
-        <v>91300</v>
+        <v>65400</v>
       </c>
       <c r="I35" s="3">
+        <v>64200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K35" s="3">
         <v>100900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>107400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>117800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>90900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>84900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>63000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>169200</v>
+        <v>399300</v>
       </c>
       <c r="E41" s="3">
-        <v>268400</v>
+        <v>410600</v>
       </c>
       <c r="F41" s="3">
-        <v>333500</v>
+        <v>172700</v>
       </c>
       <c r="G41" s="3">
-        <v>355100</v>
+        <v>274100</v>
       </c>
       <c r="H41" s="3">
-        <v>269300</v>
+        <v>340600</v>
       </c>
       <c r="I41" s="3">
+        <v>362700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>275000</v>
+      </c>
+      <c r="K41" s="3">
         <v>218300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>291400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>245900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>231600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>347800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>211800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,49 +2142,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>281600</v>
+        <v>361900</v>
       </c>
       <c r="E43" s="3">
-        <v>294700</v>
+        <v>309800</v>
       </c>
       <c r="F43" s="3">
-        <v>519100</v>
+        <v>287600</v>
       </c>
       <c r="G43" s="3">
-        <v>692400</v>
+        <v>301000</v>
       </c>
       <c r="H43" s="3">
-        <v>611600</v>
+        <v>530000</v>
       </c>
       <c r="I43" s="3">
+        <v>707000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>624500</v>
+      </c>
+      <c r="K43" s="3">
         <v>564300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>525500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>437900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>367300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>352300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>239000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,49 +2236,61 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>173200</v>
+        <v>177100</v>
       </c>
       <c r="E45" s="3">
-        <v>167800</v>
+        <v>163800</v>
       </c>
       <c r="F45" s="3">
-        <v>197500</v>
+        <v>176900</v>
       </c>
       <c r="G45" s="3">
-        <v>212500</v>
+        <v>171400</v>
       </c>
       <c r="H45" s="3">
-        <v>300900</v>
+        <v>201600</v>
       </c>
       <c r="I45" s="3">
+        <v>217000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K45" s="3">
         <v>153200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>48800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>30200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>44900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>20500</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,131 +2330,155 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>991200</v>
+        <v>759900</v>
       </c>
       <c r="E47" s="3">
-        <v>939100</v>
+        <v>823200</v>
       </c>
       <c r="F47" s="3">
-        <v>878300</v>
+        <v>1012100</v>
       </c>
       <c r="G47" s="3">
-        <v>900800</v>
+        <v>958900</v>
       </c>
       <c r="H47" s="3">
-        <v>803300</v>
+        <v>896900</v>
       </c>
       <c r="I47" s="3">
+        <v>919900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>820300</v>
+      </c>
+      <c r="K47" s="3">
         <v>815100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>728000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>655400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>486100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>324500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>427300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26200</v>
+        <v>22500</v>
       </c>
       <c r="E48" s="3">
-        <v>29000</v>
+        <v>23200</v>
       </c>
       <c r="F48" s="3">
-        <v>32400</v>
+        <v>26700</v>
       </c>
       <c r="G48" s="3">
-        <v>35200</v>
+        <v>29600</v>
       </c>
       <c r="H48" s="3">
-        <v>36900</v>
+        <v>33100</v>
       </c>
       <c r="I48" s="3">
+        <v>35900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K48" s="3">
         <v>37400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>40500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>21900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="E49" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="F49" s="3">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="G49" s="3">
-        <v>17500</v>
+        <v>23000</v>
       </c>
       <c r="H49" s="3">
-        <v>17500</v>
+        <v>23000</v>
       </c>
       <c r="I49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K49" s="3">
         <v>18200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>18200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>18100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>16100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>662400</v>
+        <v>581900</v>
       </c>
       <c r="E52" s="3">
-        <v>565500</v>
+        <v>567900</v>
       </c>
       <c r="F52" s="3">
-        <v>454600</v>
+        <v>676400</v>
       </c>
       <c r="G52" s="3">
-        <v>583000</v>
+        <v>577500</v>
       </c>
       <c r="H52" s="3">
-        <v>937300</v>
+        <v>464200</v>
       </c>
       <c r="I52" s="3">
+        <v>595300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>957100</v>
+      </c>
+      <c r="K52" s="3">
         <v>706500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>654500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>578100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>494600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>337600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>379500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2326200</v>
+        <v>2326000</v>
       </c>
       <c r="E54" s="3">
-        <v>2287000</v>
+        <v>2321800</v>
       </c>
       <c r="F54" s="3">
-        <v>2437900</v>
+        <v>2375400</v>
       </c>
       <c r="G54" s="3">
-        <v>2796600</v>
+        <v>2335400</v>
       </c>
       <c r="H54" s="3">
-        <v>2977600</v>
+        <v>2489400</v>
       </c>
       <c r="I54" s="3">
+        <v>2855700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3040500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2520300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2315300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1999200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1666600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1424500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1314200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,131 +2748,151 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16900</v>
+        <v>14700</v>
       </c>
       <c r="E57" s="3">
-        <v>26900</v>
+        <v>16100</v>
       </c>
       <c r="F57" s="3">
-        <v>47100</v>
+        <v>17300</v>
       </c>
       <c r="G57" s="3">
-        <v>104600</v>
+        <v>27400</v>
       </c>
       <c r="H57" s="3">
-        <v>365800</v>
+        <v>48100</v>
       </c>
       <c r="I57" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>373500</v>
+      </c>
+      <c r="K57" s="3">
         <v>113100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>119600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>137700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>181100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>96400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>178100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>22900</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>35900</v>
+        <v>23400</v>
       </c>
       <c r="G58" s="3">
-        <v>35900</v>
+        <v>23400</v>
       </c>
       <c r="H58" s="3">
-        <v>3800</v>
+        <v>36700</v>
       </c>
       <c r="I58" s="3">
-        <v>3800</v>
+        <v>36700</v>
       </c>
       <c r="J58" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K58" s="3">
         <v>3800</v>
       </c>
       <c r="L58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8200</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>120900</v>
+        <v>191400</v>
       </c>
       <c r="E59" s="3">
-        <v>97000</v>
+        <v>145000</v>
       </c>
       <c r="F59" s="3">
-        <v>152000</v>
+        <v>123500</v>
       </c>
       <c r="G59" s="3">
-        <v>825500</v>
+        <v>99100</v>
       </c>
       <c r="H59" s="3">
-        <v>956700</v>
+        <v>155200</v>
       </c>
       <c r="I59" s="3">
+        <v>842900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>976900</v>
+      </c>
+      <c r="K59" s="3">
         <v>888700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>860200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>672500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>577800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>547400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>397900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2932,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,49 +2979,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>31700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>32300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I62" s="3">
         <v>31000</v>
       </c>
-      <c r="E62" s="3">
-        <v>31600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>31600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>30400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>17100</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K62" s="3">
         <v>16800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>17300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>17700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1107100</v>
+        <v>972600</v>
       </c>
       <c r="E66" s="3">
-        <v>1131500</v>
+        <v>1017000</v>
       </c>
       <c r="F66" s="3">
-        <v>1337900</v>
+        <v>1130500</v>
       </c>
       <c r="G66" s="3">
-        <v>1582300</v>
+        <v>1155400</v>
       </c>
       <c r="H66" s="3">
-        <v>1820900</v>
+        <v>1366200</v>
       </c>
       <c r="I66" s="3">
+        <v>1615700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1859400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1459900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1358800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1098100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>934700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>756900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>711200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>399700</v>
+        <v>527700</v>
       </c>
       <c r="E72" s="3">
-        <v>307600</v>
+        <v>485200</v>
       </c>
       <c r="F72" s="3">
-        <v>237800</v>
+        <v>408100</v>
       </c>
       <c r="G72" s="3">
-        <v>348900</v>
+        <v>314100</v>
       </c>
       <c r="H72" s="3">
-        <v>286100</v>
+        <v>242900</v>
       </c>
       <c r="I72" s="3">
+        <v>356300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K72" s="3">
         <v>194700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>93800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>45900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-66100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-157000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-248000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1219100</v>
+        <v>1353400</v>
       </c>
       <c r="E76" s="3">
-        <v>1155500</v>
+        <v>1304800</v>
       </c>
       <c r="F76" s="3">
-        <v>1100000</v>
+        <v>1244900</v>
       </c>
       <c r="G76" s="3">
-        <v>1214300</v>
+        <v>1180000</v>
       </c>
       <c r="H76" s="3">
-        <v>1156600</v>
+        <v>1123200</v>
       </c>
       <c r="I76" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1181100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1060400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>956500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>901100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>731900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>667600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>602900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3703,66 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3381,40 +3770,46 @@
         <v>92100</v>
       </c>
       <c r="E81" s="3">
-        <v>69800</v>
+        <v>77100</v>
       </c>
       <c r="F81" s="3">
-        <v>64100</v>
+        <v>94000</v>
       </c>
       <c r="G81" s="3">
-        <v>62800</v>
+        <v>71300</v>
       </c>
       <c r="H81" s="3">
-        <v>91300</v>
+        <v>65400</v>
       </c>
       <c r="I81" s="3">
+        <v>64200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K81" s="3">
         <v>100900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>107400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>117800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>90900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>84900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>63000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>120900</v>
+        <v>45700</v>
       </c>
       <c r="E89" s="3">
-        <v>191100</v>
+        <v>116800</v>
       </c>
       <c r="F89" s="3">
-        <v>-89100</v>
+        <v>123400</v>
       </c>
       <c r="G89" s="3">
-        <v>-431500</v>
+        <v>195100</v>
       </c>
       <c r="H89" s="3">
-        <v>231500</v>
+        <v>-91000</v>
       </c>
       <c r="I89" s="3">
+        <v>-440700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>236400</v>
+      </c>
+      <c r="K89" s="3">
         <v>94500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>72600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>78800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>157600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>12600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26900</v>
+        <v>86800</v>
       </c>
       <c r="E94" s="3">
-        <v>7100</v>
+        <v>223300</v>
       </c>
       <c r="F94" s="3">
-        <v>-39800</v>
+        <v>-27400</v>
       </c>
       <c r="G94" s="3">
-        <v>40700</v>
+        <v>7300</v>
       </c>
       <c r="H94" s="3">
-        <v>4400</v>
+        <v>-40600</v>
       </c>
       <c r="I94" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-130400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-41200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-124600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-156400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>100200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-32500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4564,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-92100</v>
+        <v>-135600</v>
       </c>
       <c r="E100" s="3">
-        <v>-153100</v>
+        <v>-164700</v>
       </c>
       <c r="F100" s="3">
-        <v>-65800</v>
+        <v>-94100</v>
       </c>
       <c r="G100" s="3">
-        <v>124100</v>
+        <v>-156300</v>
       </c>
       <c r="H100" s="3">
-        <v>43600</v>
+        <v>-67200</v>
       </c>
       <c r="I100" s="3">
+        <v>126700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K100" s="3">
         <v>10300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>89300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>67100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>36900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-15400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-9200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4300</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="I101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>6900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
-        <v>45700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-194300</v>
-      </c>
       <c r="G102" s="3">
-        <v>-267700</v>
+        <v>46600</v>
       </c>
       <c r="H102" s="3">
-        <v>282100</v>
+        <v>-198400</v>
       </c>
       <c r="I102" s="3">
+        <v>-273400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>288000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>118300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>20800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>43300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>113000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-35000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>329600</v>
+        <v>325300</v>
       </c>
       <c r="E8" s="3">
-        <v>289100</v>
+        <v>285300</v>
       </c>
       <c r="F8" s="3">
-        <v>279800</v>
+        <v>276100</v>
       </c>
       <c r="G8" s="3">
-        <v>282500</v>
+        <v>278800</v>
       </c>
       <c r="H8" s="3">
-        <v>328600</v>
+        <v>324300</v>
       </c>
       <c r="I8" s="3">
-        <v>223000</v>
+        <v>220100</v>
       </c>
       <c r="J8" s="3">
-        <v>248400</v>
+        <v>245200</v>
       </c>
       <c r="K8" s="3">
         <v>250800</v>
@@ -788,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>64400</v>
+        <v>63600</v>
       </c>
       <c r="E9" s="3">
-        <v>72500</v>
+        <v>71600</v>
       </c>
       <c r="F9" s="3">
-        <v>52900</v>
+        <v>52200</v>
       </c>
       <c r="G9" s="3">
-        <v>42500</v>
+        <v>41900</v>
       </c>
       <c r="H9" s="3">
-        <v>38900</v>
+        <v>38400</v>
       </c>
       <c r="I9" s="3">
-        <v>47600</v>
+        <v>47000</v>
       </c>
       <c r="J9" s="3">
-        <v>51800</v>
+        <v>51100</v>
       </c>
       <c r="K9" s="3">
         <v>46900</v>
@@ -835,25 +835,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>265200</v>
+        <v>261700</v>
       </c>
       <c r="E10" s="3">
-        <v>216600</v>
+        <v>213700</v>
       </c>
       <c r="F10" s="3">
-        <v>226900</v>
+        <v>224000</v>
       </c>
       <c r="G10" s="3">
-        <v>240000</v>
+        <v>236800</v>
       </c>
       <c r="H10" s="3">
-        <v>289700</v>
+        <v>285900</v>
       </c>
       <c r="I10" s="3">
-        <v>175400</v>
+        <v>173200</v>
       </c>
       <c r="J10" s="3">
-        <v>196600</v>
+        <v>194100</v>
       </c>
       <c r="K10" s="3">
         <v>204000</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="E12" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="F12" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="G12" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="H12" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="I12" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="J12" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="K12" s="3">
         <v>15500</v>
@@ -995,19 +995,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>69400</v>
+        <v>68500</v>
       </c>
       <c r="E14" s="3">
-        <v>48200</v>
+        <v>47500</v>
       </c>
       <c r="F14" s="3">
-        <v>51000</v>
+        <v>50300</v>
       </c>
       <c r="G14" s="3">
-        <v>89800</v>
+        <v>88700</v>
       </c>
       <c r="H14" s="3">
-        <v>124300</v>
+        <v>122700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1105,25 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>227300</v>
+        <v>224400</v>
       </c>
       <c r="E17" s="3">
-        <v>196200</v>
+        <v>193600</v>
       </c>
       <c r="F17" s="3">
-        <v>172300</v>
+        <v>170000</v>
       </c>
       <c r="G17" s="3">
-        <v>194000</v>
+        <v>191400</v>
       </c>
       <c r="H17" s="3">
-        <v>257500</v>
+        <v>254100</v>
       </c>
       <c r="I17" s="3">
-        <v>155200</v>
+        <v>153200</v>
       </c>
       <c r="J17" s="3">
-        <v>147200</v>
+        <v>145300</v>
       </c>
       <c r="K17" s="3">
         <v>133600</v>
@@ -1152,25 +1152,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>102300</v>
+        <v>101000</v>
       </c>
       <c r="E18" s="3">
-        <v>92900</v>
+        <v>91700</v>
       </c>
       <c r="F18" s="3">
-        <v>107500</v>
+        <v>106100</v>
       </c>
       <c r="G18" s="3">
-        <v>88500</v>
+        <v>87300</v>
       </c>
       <c r="H18" s="3">
-        <v>71100</v>
+        <v>70200</v>
       </c>
       <c r="I18" s="3">
-        <v>67900</v>
+        <v>67000</v>
       </c>
       <c r="J18" s="3">
-        <v>101200</v>
+        <v>99900</v>
       </c>
       <c r="K18" s="3">
         <v>117300</v>
@@ -1218,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1230,13 +1230,13 @@
         <v>5300</v>
       </c>
       <c r="H20" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J20" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="K20" s="3">
         <v>7000</v>
@@ -1359,25 +1359,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>109000</v>
+        <v>107500</v>
       </c>
       <c r="E23" s="3">
-        <v>93200</v>
+        <v>92000</v>
       </c>
       <c r="F23" s="3">
-        <v>111600</v>
+        <v>110100</v>
       </c>
       <c r="G23" s="3">
-        <v>93800</v>
+        <v>92600</v>
       </c>
       <c r="H23" s="3">
-        <v>79500</v>
+        <v>78500</v>
       </c>
       <c r="I23" s="3">
-        <v>73300</v>
+        <v>72300</v>
       </c>
       <c r="J23" s="3">
-        <v>113800</v>
+        <v>112300</v>
       </c>
       <c r="K23" s="3">
         <v>124300</v>
@@ -1406,25 +1406,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="E24" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="F24" s="3">
-        <v>18500</v>
+        <v>18200</v>
       </c>
       <c r="G24" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="H24" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="I24" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J24" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="K24" s="3">
         <v>23400</v>
@@ -1500,25 +1500,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>92500</v>
+        <v>91300</v>
       </c>
       <c r="E26" s="3">
-        <v>77600</v>
+        <v>76600</v>
       </c>
       <c r="F26" s="3">
-        <v>93100</v>
+        <v>91900</v>
       </c>
       <c r="G26" s="3">
-        <v>70800</v>
+        <v>69900</v>
       </c>
       <c r="H26" s="3">
-        <v>65600</v>
+        <v>64700</v>
       </c>
       <c r="I26" s="3">
-        <v>64400</v>
+        <v>63500</v>
       </c>
       <c r="J26" s="3">
-        <v>93400</v>
+        <v>92200</v>
       </c>
       <c r="K26" s="3">
         <v>100900</v>
@@ -1547,25 +1547,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>92800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>70300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>64600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J27" s="3">
         <v>92100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>77100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>94000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>71300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>65400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>93300</v>
       </c>
       <c r="K27" s="3">
         <v>100900</v>
@@ -1782,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1794,13 +1794,13 @@
         <v>-5300</v>
       </c>
       <c r="H32" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="J32" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="K32" s="3">
         <v>-7000</v>
@@ -1829,25 +1829,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>92800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>70300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>64600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J33" s="3">
         <v>92100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>77100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>94000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>71300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>65400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>93300</v>
       </c>
       <c r="K33" s="3">
         <v>100900</v>
@@ -1923,25 +1923,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>92800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>70300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>64600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J35" s="3">
         <v>92100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>77100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>94000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>71300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>65400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>93300</v>
       </c>
       <c r="K35" s="3">
         <v>100900</v>
@@ -2060,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>399300</v>
+        <v>394200</v>
       </c>
       <c r="E41" s="3">
-        <v>410600</v>
+        <v>405300</v>
       </c>
       <c r="F41" s="3">
-        <v>172700</v>
+        <v>170500</v>
       </c>
       <c r="G41" s="3">
-        <v>274100</v>
+        <v>270500</v>
       </c>
       <c r="H41" s="3">
-        <v>340600</v>
+        <v>336100</v>
       </c>
       <c r="I41" s="3">
-        <v>362700</v>
+        <v>357900</v>
       </c>
       <c r="J41" s="3">
-        <v>275000</v>
+        <v>271400</v>
       </c>
       <c r="K41" s="3">
         <v>218300</v>
@@ -2154,25 +2154,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>361900</v>
+        <v>357200</v>
       </c>
       <c r="E43" s="3">
-        <v>309800</v>
+        <v>305700</v>
       </c>
       <c r="F43" s="3">
-        <v>287600</v>
+        <v>283800</v>
       </c>
       <c r="G43" s="3">
-        <v>301000</v>
+        <v>297100</v>
       </c>
       <c r="H43" s="3">
-        <v>530000</v>
+        <v>523100</v>
       </c>
       <c r="I43" s="3">
-        <v>707000</v>
+        <v>697800</v>
       </c>
       <c r="J43" s="3">
-        <v>624500</v>
+        <v>616400</v>
       </c>
       <c r="K43" s="3">
         <v>564300</v>
@@ -2248,25 +2248,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>177100</v>
+        <v>174800</v>
       </c>
       <c r="E45" s="3">
-        <v>163800</v>
+        <v>161700</v>
       </c>
       <c r="F45" s="3">
-        <v>176900</v>
+        <v>174600</v>
       </c>
       <c r="G45" s="3">
-        <v>171400</v>
+        <v>169100</v>
       </c>
       <c r="H45" s="3">
-        <v>201600</v>
+        <v>199000</v>
       </c>
       <c r="I45" s="3">
-        <v>217000</v>
+        <v>214200</v>
       </c>
       <c r="J45" s="3">
-        <v>307200</v>
+        <v>303200</v>
       </c>
       <c r="K45" s="3">
         <v>153200</v>
@@ -2342,25 +2342,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>759900</v>
+        <v>750000</v>
       </c>
       <c r="E47" s="3">
-        <v>823200</v>
+        <v>812500</v>
       </c>
       <c r="F47" s="3">
-        <v>1012100</v>
+        <v>998900</v>
       </c>
       <c r="G47" s="3">
-        <v>958900</v>
+        <v>946400</v>
       </c>
       <c r="H47" s="3">
-        <v>896900</v>
+        <v>885200</v>
       </c>
       <c r="I47" s="3">
-        <v>919900</v>
+        <v>907900</v>
       </c>
       <c r="J47" s="3">
-        <v>820300</v>
+        <v>809600</v>
       </c>
       <c r="K47" s="3">
         <v>815100</v>
@@ -2389,25 +2389,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="E48" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="F48" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="G48" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="H48" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="I48" s="3">
-        <v>35900</v>
+        <v>35400</v>
       </c>
       <c r="J48" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="K48" s="3">
         <v>37400</v>
@@ -2436,25 +2436,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="E49" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="F49" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="G49" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="H49" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="I49" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="J49" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="K49" s="3">
         <v>18200</v>
@@ -2577,25 +2577,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>581900</v>
+        <v>574300</v>
       </c>
       <c r="E52" s="3">
-        <v>567900</v>
+        <v>560500</v>
       </c>
       <c r="F52" s="3">
-        <v>676400</v>
+        <v>667600</v>
       </c>
       <c r="G52" s="3">
-        <v>577500</v>
+        <v>569900</v>
       </c>
       <c r="H52" s="3">
-        <v>464200</v>
+        <v>458200</v>
       </c>
       <c r="I52" s="3">
-        <v>595300</v>
+        <v>587600</v>
       </c>
       <c r="J52" s="3">
-        <v>957100</v>
+        <v>944700</v>
       </c>
       <c r="K52" s="3">
         <v>706500</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2326000</v>
+        <v>2295700</v>
       </c>
       <c r="E54" s="3">
-        <v>2321800</v>
+        <v>2291600</v>
       </c>
       <c r="F54" s="3">
-        <v>2375400</v>
+        <v>2344500</v>
       </c>
       <c r="G54" s="3">
-        <v>2335400</v>
+        <v>2305000</v>
       </c>
       <c r="H54" s="3">
-        <v>2489400</v>
+        <v>2457000</v>
       </c>
       <c r="I54" s="3">
-        <v>2855700</v>
+        <v>2818500</v>
       </c>
       <c r="J54" s="3">
-        <v>3040500</v>
+        <v>3000900</v>
       </c>
       <c r="K54" s="3">
         <v>2520300</v>
@@ -2756,25 +2756,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="E57" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="F57" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G57" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="H57" s="3">
-        <v>48100</v>
+        <v>47500</v>
       </c>
       <c r="I57" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="J57" s="3">
-        <v>373500</v>
+        <v>368600</v>
       </c>
       <c r="K57" s="3">
         <v>113100</v>
@@ -2809,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="G58" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="H58" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="I58" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="J58" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K58" s="3">
         <v>3800</v>
@@ -2850,25 +2850,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>191400</v>
+        <v>188900</v>
       </c>
       <c r="E59" s="3">
-        <v>145000</v>
+        <v>143200</v>
       </c>
       <c r="F59" s="3">
-        <v>123500</v>
+        <v>121900</v>
       </c>
       <c r="G59" s="3">
-        <v>99100</v>
+        <v>97800</v>
       </c>
       <c r="H59" s="3">
-        <v>155200</v>
+        <v>153200</v>
       </c>
       <c r="I59" s="3">
-        <v>842900</v>
+        <v>832000</v>
       </c>
       <c r="J59" s="3">
-        <v>976900</v>
+        <v>964200</v>
       </c>
       <c r="K59" s="3">
         <v>888700</v>
@@ -2991,25 +2991,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="E62" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="F62" s="3">
-        <v>31700</v>
+        <v>31200</v>
       </c>
       <c r="G62" s="3">
-        <v>32300</v>
+        <v>31800</v>
       </c>
       <c r="H62" s="3">
-        <v>32300</v>
+        <v>31900</v>
       </c>
       <c r="I62" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="J62" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="K62" s="3">
         <v>16800</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>972600</v>
+        <v>959900</v>
       </c>
       <c r="E66" s="3">
-        <v>1017000</v>
+        <v>1003800</v>
       </c>
       <c r="F66" s="3">
-        <v>1130500</v>
+        <v>1115800</v>
       </c>
       <c r="G66" s="3">
-        <v>1155400</v>
+        <v>1140400</v>
       </c>
       <c r="H66" s="3">
-        <v>1366200</v>
+        <v>1348400</v>
       </c>
       <c r="I66" s="3">
-        <v>1615700</v>
+        <v>1594700</v>
       </c>
       <c r="J66" s="3">
-        <v>1859400</v>
+        <v>1835200</v>
       </c>
       <c r="K66" s="3">
         <v>1459900</v>
@@ -3433,25 +3433,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>527700</v>
+        <v>520900</v>
       </c>
       <c r="E72" s="3">
-        <v>485200</v>
+        <v>478900</v>
       </c>
       <c r="F72" s="3">
-        <v>408100</v>
+        <v>402800</v>
       </c>
       <c r="G72" s="3">
-        <v>314100</v>
+        <v>310000</v>
       </c>
       <c r="H72" s="3">
-        <v>242900</v>
+        <v>239700</v>
       </c>
       <c r="I72" s="3">
-        <v>356300</v>
+        <v>351700</v>
       </c>
       <c r="J72" s="3">
-        <v>292100</v>
+        <v>288300</v>
       </c>
       <c r="K72" s="3">
         <v>194700</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1353400</v>
+        <v>1335800</v>
       </c>
       <c r="E76" s="3">
-        <v>1304800</v>
+        <v>1287800</v>
       </c>
       <c r="F76" s="3">
-        <v>1244900</v>
+        <v>1228700</v>
       </c>
       <c r="G76" s="3">
-        <v>1180000</v>
+        <v>1164600</v>
       </c>
       <c r="H76" s="3">
-        <v>1123200</v>
+        <v>1108600</v>
       </c>
       <c r="I76" s="3">
-        <v>1240000</v>
+        <v>1223800</v>
       </c>
       <c r="J76" s="3">
-        <v>1181100</v>
+        <v>1165700</v>
       </c>
       <c r="K76" s="3">
         <v>1060400</v>
@@ -3767,25 +3767,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>92800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>70300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>64600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J81" s="3">
         <v>92100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>77100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>94000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>71300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>65400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>93300</v>
       </c>
       <c r="K81" s="3">
         <v>100900</v>
@@ -4115,25 +4115,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45700</v>
+        <v>45100</v>
       </c>
       <c r="E89" s="3">
-        <v>116800</v>
+        <v>115200</v>
       </c>
       <c r="F89" s="3">
-        <v>123400</v>
+        <v>121800</v>
       </c>
       <c r="G89" s="3">
-        <v>195100</v>
+        <v>192600</v>
       </c>
       <c r="H89" s="3">
-        <v>-91000</v>
+        <v>-89800</v>
       </c>
       <c r="I89" s="3">
-        <v>-440700</v>
+        <v>-434900</v>
       </c>
       <c r="J89" s="3">
-        <v>236400</v>
+        <v>233400</v>
       </c>
       <c r="K89" s="3">
         <v>94500</v>
@@ -4322,25 +4322,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>86800</v>
+        <v>85700</v>
       </c>
       <c r="E94" s="3">
-        <v>223300</v>
+        <v>220400</v>
       </c>
       <c r="F94" s="3">
-        <v>-27400</v>
+        <v>-27100</v>
       </c>
       <c r="G94" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H94" s="3">
-        <v>-40600</v>
+        <v>-40100</v>
       </c>
       <c r="I94" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="J94" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K94" s="3">
         <v>-130400</v>
@@ -4576,25 +4576,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-135600</v>
+        <v>-133900</v>
       </c>
       <c r="E100" s="3">
-        <v>-164700</v>
+        <v>-162500</v>
       </c>
       <c r="F100" s="3">
-        <v>-94100</v>
+        <v>-92800</v>
       </c>
       <c r="G100" s="3">
-        <v>-156300</v>
+        <v>-154300</v>
       </c>
       <c r="H100" s="3">
-        <v>-67200</v>
+        <v>-66300</v>
       </c>
       <c r="I100" s="3">
-        <v>126700</v>
+        <v>125100</v>
       </c>
       <c r="J100" s="3">
-        <v>44500</v>
+        <v>43900</v>
       </c>
       <c r="K100" s="3">
         <v>10300</v>
@@ -4629,7 +4629,7 @@
         <v>-4700</v>
       </c>
       <c r="F101" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="G101" s="3">
         <v>600</v>
@@ -4673,22 +4673,22 @@
         <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>170700</v>
+        <v>168400</v>
       </c>
       <c r="F102" s="3">
         <v>-2400</v>
       </c>
       <c r="G102" s="3">
-        <v>46600</v>
+        <v>46000</v>
       </c>
       <c r="H102" s="3">
-        <v>-198400</v>
+        <v>-195800</v>
       </c>
       <c r="I102" s="3">
-        <v>-273400</v>
+        <v>-269800</v>
       </c>
       <c r="J102" s="3">
-        <v>288000</v>
+        <v>284300</v>
       </c>
       <c r="K102" s="3">
         <v>-23100</v>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>325300</v>
+        <v>395300</v>
       </c>
       <c r="E8" s="3">
-        <v>285300</v>
+        <v>373300</v>
       </c>
       <c r="F8" s="3">
-        <v>276100</v>
+        <v>330800</v>
       </c>
       <c r="G8" s="3">
-        <v>278800</v>
+        <v>290100</v>
       </c>
       <c r="H8" s="3">
-        <v>324300</v>
+        <v>280800</v>
       </c>
       <c r="I8" s="3">
+        <v>283500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>329800</v>
+      </c>
+      <c r="K8" s="3">
         <v>220100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>245200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>250800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>228500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>192200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>151700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>149100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>137100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>63600</v>
+        <v>72000</v>
       </c>
       <c r="E9" s="3">
-        <v>71600</v>
+        <v>71200</v>
       </c>
       <c r="F9" s="3">
-        <v>52200</v>
+        <v>64700</v>
       </c>
       <c r="G9" s="3">
-        <v>41900</v>
+        <v>72800</v>
       </c>
       <c r="H9" s="3">
-        <v>38400</v>
+        <v>53100</v>
       </c>
       <c r="I9" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K9" s="3">
         <v>47000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>51100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>46900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>40300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>42200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>31700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>36700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>39100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>261700</v>
+        <v>323400</v>
       </c>
       <c r="E10" s="3">
-        <v>213700</v>
+        <v>302000</v>
       </c>
       <c r="F10" s="3">
-        <v>224000</v>
+        <v>266100</v>
       </c>
       <c r="G10" s="3">
-        <v>236800</v>
+        <v>217300</v>
       </c>
       <c r="H10" s="3">
-        <v>285900</v>
+        <v>227700</v>
       </c>
       <c r="I10" s="3">
+        <v>240800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>290700</v>
+      </c>
+      <c r="K10" s="3">
         <v>173200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>194100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>204000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>188200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>150000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>120100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>112400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>98000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14400</v>
+        <v>16400</v>
       </c>
       <c r="E12" s="3">
         <v>16400</v>
       </c>
       <c r="F12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>16600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>15500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13400</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10700</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,35 +1023,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>68500</v>
+        <v>85300</v>
       </c>
       <c r="E14" s="3">
-        <v>47500</v>
+        <v>61200</v>
       </c>
       <c r="F14" s="3">
-        <v>50300</v>
+        <v>69600</v>
       </c>
       <c r="G14" s="3">
-        <v>88700</v>
+        <v>48300</v>
       </c>
       <c r="H14" s="3">
-        <v>122700</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>51100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>90100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>124800</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>224400</v>
+        <v>281100</v>
       </c>
       <c r="E17" s="3">
-        <v>193600</v>
+        <v>262900</v>
       </c>
       <c r="F17" s="3">
-        <v>170000</v>
+        <v>228100</v>
       </c>
       <c r="G17" s="3">
-        <v>191400</v>
+        <v>196900</v>
       </c>
       <c r="H17" s="3">
-        <v>254100</v>
+        <v>172900</v>
       </c>
       <c r="I17" s="3">
+        <v>194600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>258400</v>
+      </c>
+      <c r="K17" s="3">
         <v>153200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>145300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>133600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>107100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>118200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>83000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>83400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>79700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>101000</v>
+        <v>114300</v>
       </c>
       <c r="E18" s="3">
-        <v>91700</v>
+        <v>110300</v>
       </c>
       <c r="F18" s="3">
-        <v>106100</v>
+        <v>102700</v>
       </c>
       <c r="G18" s="3">
-        <v>87300</v>
+        <v>93200</v>
       </c>
       <c r="H18" s="3">
-        <v>70200</v>
+        <v>107900</v>
       </c>
       <c r="I18" s="3">
+        <v>88800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K18" s="3">
         <v>67000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>99900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>117300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>121400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>74000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>68700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>65700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>57400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1278,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6600</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="H20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>12400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>14400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>35100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>41500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1380,14 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1433,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>107500</v>
+        <v>116600</v>
       </c>
       <c r="E23" s="3">
-        <v>92000</v>
+        <v>114400</v>
       </c>
       <c r="F23" s="3">
-        <v>110100</v>
+        <v>109300</v>
       </c>
       <c r="G23" s="3">
-        <v>92600</v>
+        <v>93600</v>
       </c>
       <c r="H23" s="3">
-        <v>78500</v>
+        <v>112000</v>
       </c>
       <c r="I23" s="3">
+        <v>94200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K23" s="3">
         <v>72300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>112300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>124300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>129000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>88400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>103800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>107200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>76400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16300</v>
+        <v>17600</v>
       </c>
       <c r="E24" s="3">
-        <v>15500</v>
+        <v>17200</v>
       </c>
       <c r="F24" s="3">
-        <v>18200</v>
+        <v>16500</v>
       </c>
       <c r="G24" s="3">
-        <v>22700</v>
+        <v>15700</v>
       </c>
       <c r="H24" s="3">
-        <v>13700</v>
+        <v>18500</v>
       </c>
       <c r="I24" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K24" s="3">
         <v>8800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>20100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>23400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>21600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-29500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>22100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>13600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>91300</v>
+        <v>99000</v>
       </c>
       <c r="E26" s="3">
-        <v>76600</v>
+        <v>97100</v>
       </c>
       <c r="F26" s="3">
-        <v>91900</v>
+        <v>92800</v>
       </c>
       <c r="G26" s="3">
-        <v>69900</v>
+        <v>77900</v>
       </c>
       <c r="H26" s="3">
-        <v>64700</v>
+        <v>93500</v>
       </c>
       <c r="I26" s="3">
+        <v>71100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K26" s="3">
         <v>63500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>92200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>107400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>117800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>90900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>85100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>62800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>77300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>63300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>92100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>107400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>117800</v>
+      </c>
+      <c r="P27" s="3">
         <v>90900</v>
       </c>
-      <c r="E27" s="3">
-        <v>76100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>92800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>70300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>64600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>63300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>92100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>107400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>117800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>90900</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>84900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>63000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6600</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-12400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-14400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-35100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-41500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>77300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>63300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>92100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>100900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>107400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>117800</v>
+      </c>
+      <c r="P33" s="3">
         <v>90900</v>
       </c>
-      <c r="E33" s="3">
-        <v>76100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>92800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>70300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>64600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>63300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>92100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>107400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>117800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>90900</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>84900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>63000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>77300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>63300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>92100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>107400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>117800</v>
+      </c>
+      <c r="P35" s="3">
         <v>90900</v>
       </c>
-      <c r="E35" s="3">
-        <v>76100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>92800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>70300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>64600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>63300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>92100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>107400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>117800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>90900</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>84900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>63000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>394200</v>
+        <v>524400</v>
       </c>
       <c r="E41" s="3">
-        <v>405300</v>
+        <v>438700</v>
       </c>
       <c r="F41" s="3">
-        <v>170500</v>
+        <v>400800</v>
       </c>
       <c r="G41" s="3">
-        <v>270500</v>
+        <v>412100</v>
       </c>
       <c r="H41" s="3">
-        <v>336100</v>
+        <v>173300</v>
       </c>
       <c r="I41" s="3">
+        <v>275100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K41" s="3">
         <v>357900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>271400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>218300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>291400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>245900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>231600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>347800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>211800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2328,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>357200</v>
+        <v>401900</v>
       </c>
       <c r="E43" s="3">
-        <v>305700</v>
+        <v>393300</v>
       </c>
       <c r="F43" s="3">
-        <v>283800</v>
+        <v>363200</v>
       </c>
       <c r="G43" s="3">
-        <v>297100</v>
+        <v>310800</v>
       </c>
       <c r="H43" s="3">
-        <v>523100</v>
+        <v>288600</v>
       </c>
       <c r="I43" s="3">
+        <v>302000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>531900</v>
+      </c>
+      <c r="K43" s="3">
         <v>697800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>616400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>564300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>525500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>437900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>367300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>352300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>239000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,55 +2434,67 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>174800</v>
+        <v>244000</v>
       </c>
       <c r="E45" s="3">
-        <v>161700</v>
+        <v>207300</v>
       </c>
       <c r="F45" s="3">
-        <v>174600</v>
+        <v>177700</v>
       </c>
       <c r="G45" s="3">
-        <v>169100</v>
+        <v>164400</v>
       </c>
       <c r="H45" s="3">
-        <v>199000</v>
+        <v>177500</v>
       </c>
       <c r="I45" s="3">
+        <v>172000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>202300</v>
+      </c>
+      <c r="K45" s="3">
         <v>214200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>303200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>153200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>48800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>30200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>44900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>20500</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,149 +2540,173 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>750000</v>
+        <v>665500</v>
       </c>
       <c r="E47" s="3">
-        <v>812500</v>
+        <v>645600</v>
       </c>
       <c r="F47" s="3">
-        <v>998900</v>
+        <v>762600</v>
       </c>
       <c r="G47" s="3">
-        <v>946400</v>
+        <v>826100</v>
       </c>
       <c r="H47" s="3">
-        <v>885200</v>
+        <v>1015700</v>
       </c>
       <c r="I47" s="3">
+        <v>962300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>900000</v>
+      </c>
+      <c r="K47" s="3">
         <v>907900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>809600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>815100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>728000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>655400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>486100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>324500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>427300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22200</v>
+        <v>23200</v>
       </c>
       <c r="E48" s="3">
-        <v>22900</v>
+        <v>20000</v>
       </c>
       <c r="F48" s="3">
-        <v>26400</v>
+        <v>22600</v>
       </c>
       <c r="G48" s="3">
-        <v>29200</v>
+        <v>23300</v>
       </c>
       <c r="H48" s="3">
-        <v>32700</v>
+        <v>26800</v>
       </c>
       <c r="I48" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K48" s="3">
         <v>35400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>37200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>37400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>40500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>21900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>16300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>23400</v>
+      </c>
+      <c r="H49" s="3">
         <v>23000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>23000</v>
       </c>
-      <c r="F49" s="3">
-        <v>22700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>22700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K49" s="3">
         <v>17700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>18200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>18200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>18100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>574300</v>
+        <v>664600</v>
       </c>
       <c r="E52" s="3">
-        <v>560500</v>
+        <v>651400</v>
       </c>
       <c r="F52" s="3">
-        <v>667600</v>
+        <v>583900</v>
       </c>
       <c r="G52" s="3">
         <v>569900</v>
       </c>
       <c r="H52" s="3">
-        <v>458200</v>
+        <v>678800</v>
       </c>
       <c r="I52" s="3">
+        <v>579500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>465800</v>
+      </c>
+      <c r="K52" s="3">
         <v>587600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>944700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>706500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>654500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>578100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>494600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>337600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>379500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2295700</v>
+        <v>2547000</v>
       </c>
       <c r="E54" s="3">
-        <v>2291600</v>
+        <v>2379600</v>
       </c>
       <c r="F54" s="3">
-        <v>2344500</v>
+        <v>2334200</v>
       </c>
       <c r="G54" s="3">
-        <v>2305000</v>
+        <v>2330000</v>
       </c>
       <c r="H54" s="3">
-        <v>2457000</v>
+        <v>2383800</v>
       </c>
       <c r="I54" s="3">
+        <v>2343600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2498200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2818500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3000900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2520300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2315300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1999200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1666600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1424500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1314200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,81 +3010,89 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14500</v>
+        <v>13100</v>
       </c>
       <c r="E57" s="3">
-        <v>15900</v>
+        <v>14100</v>
       </c>
       <c r="F57" s="3">
-        <v>17100</v>
+        <v>14800</v>
       </c>
       <c r="G57" s="3">
-        <v>27100</v>
+        <v>16200</v>
       </c>
       <c r="H57" s="3">
-        <v>47500</v>
+        <v>17300</v>
       </c>
       <c r="I57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K57" s="3">
         <v>105400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>368600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>113100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>119600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>137700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>181100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>96400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>178100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>23100</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K58" s="3">
         <v>36200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>36200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3800</v>
       </c>
       <c r="L58" s="3">
         <v>3800</v>
@@ -2833,66 +3101,78 @@
         <v>3800</v>
       </c>
       <c r="N58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>8200</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>188900</v>
+        <v>150600</v>
       </c>
       <c r="E59" s="3">
-        <v>143200</v>
+        <v>153800</v>
       </c>
       <c r="F59" s="3">
-        <v>121900</v>
+        <v>192100</v>
       </c>
       <c r="G59" s="3">
-        <v>97800</v>
+        <v>145500</v>
       </c>
       <c r="H59" s="3">
-        <v>153200</v>
+        <v>123900</v>
       </c>
       <c r="I59" s="3">
+        <v>99400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K59" s="3">
         <v>832000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>964200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>888700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>860200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>672500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>577800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>547400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>397900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3218,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,55 +3271,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15500</v>
+        <v>17700</v>
       </c>
       <c r="E62" s="3">
-        <v>15900</v>
+        <v>18400</v>
       </c>
       <c r="F62" s="3">
-        <v>31200</v>
+        <v>15800</v>
       </c>
       <c r="G62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H62" s="3">
         <v>31800</v>
       </c>
-      <c r="H62" s="3">
-        <v>31900</v>
-      </c>
       <c r="I62" s="3">
+        <v>32400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K62" s="3">
         <v>30600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>17300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>16800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>17300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>17700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>959900</v>
+        <v>985000</v>
       </c>
       <c r="E66" s="3">
-        <v>1003800</v>
+        <v>921400</v>
       </c>
       <c r="F66" s="3">
-        <v>1115800</v>
+        <v>976000</v>
       </c>
       <c r="G66" s="3">
-        <v>1140400</v>
+        <v>1020600</v>
       </c>
       <c r="H66" s="3">
-        <v>1348400</v>
+        <v>1134500</v>
       </c>
       <c r="I66" s="3">
+        <v>1159500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1594700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1835200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1459900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1358800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1098100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>934700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>756900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>711200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>520900</v>
+        <v>727300</v>
       </c>
       <c r="E72" s="3">
-        <v>478900</v>
+        <v>627700</v>
       </c>
       <c r="F72" s="3">
-        <v>402800</v>
+        <v>529600</v>
       </c>
       <c r="G72" s="3">
-        <v>310000</v>
+        <v>486900</v>
       </c>
       <c r="H72" s="3">
-        <v>239700</v>
+        <v>409600</v>
       </c>
       <c r="I72" s="3">
+        <v>315200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K72" s="3">
         <v>351700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>288300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>194700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>93800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>45900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-66100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-157000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-248000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1335800</v>
+        <v>1562000</v>
       </c>
       <c r="E76" s="3">
-        <v>1287800</v>
+        <v>1458200</v>
       </c>
       <c r="F76" s="3">
-        <v>1228700</v>
+        <v>1358100</v>
       </c>
       <c r="G76" s="3">
-        <v>1164600</v>
+        <v>1309400</v>
       </c>
       <c r="H76" s="3">
-        <v>1108600</v>
+        <v>1249200</v>
       </c>
       <c r="I76" s="3">
+        <v>1184100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1127200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1223800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1165700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1060400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>956500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>901100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>731900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>667600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>602900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>77300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>63300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>92100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>100900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>107400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>117800</v>
+      </c>
+      <c r="P81" s="3">
         <v>90900</v>
       </c>
-      <c r="E81" s="3">
-        <v>76100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>92800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>70300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>64600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>63300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>92100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>107400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>117800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>90900</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>84900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>63000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45100</v>
+        <v>21400</v>
       </c>
       <c r="E89" s="3">
-        <v>115200</v>
+        <v>-2900</v>
       </c>
       <c r="F89" s="3">
-        <v>121800</v>
+        <v>45900</v>
       </c>
       <c r="G89" s="3">
-        <v>192600</v>
+        <v>117200</v>
       </c>
       <c r="H89" s="3">
-        <v>-89800</v>
+        <v>123900</v>
       </c>
       <c r="I89" s="3">
+        <v>195800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-434900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>233400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>94500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>72600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>78800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>157600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>21300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>12600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>85700</v>
+        <v>9900</v>
       </c>
       <c r="E94" s="3">
-        <v>220400</v>
+        <v>175200</v>
       </c>
       <c r="F94" s="3">
-        <v>-27100</v>
+        <v>87200</v>
       </c>
       <c r="G94" s="3">
-        <v>7200</v>
+        <v>224100</v>
       </c>
       <c r="H94" s="3">
-        <v>-40100</v>
+        <v>-27500</v>
       </c>
       <c r="I94" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K94" s="3">
         <v>41000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-130400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-41200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-124600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-156400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>100200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5056,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-133900</v>
+        <v>51400</v>
       </c>
       <c r="E100" s="3">
-        <v>-162500</v>
+        <v>-71300</v>
       </c>
       <c r="F100" s="3">
-        <v>-92800</v>
+        <v>-136100</v>
       </c>
       <c r="G100" s="3">
-        <v>-154300</v>
+        <v>-165300</v>
       </c>
       <c r="H100" s="3">
-        <v>-66300</v>
+        <v>-94400</v>
       </c>
       <c r="I100" s="3">
+        <v>-156900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K100" s="3">
         <v>125100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>43900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>10300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>89300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>67100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>36900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-15400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>6900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
-        <v>168400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G102" s="3">
-        <v>46000</v>
+        <v>171300</v>
       </c>
       <c r="H102" s="3">
-        <v>-195800</v>
+        <v>-2500</v>
       </c>
       <c r="I102" s="3">
+        <v>46800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-199100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-269800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>284300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-23100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>118300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>20800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>43300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>113000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>395300</v>
+        <v>398400</v>
       </c>
       <c r="E8" s="3">
-        <v>373300</v>
+        <v>376100</v>
       </c>
       <c r="F8" s="3">
-        <v>330800</v>
+        <v>333300</v>
       </c>
       <c r="G8" s="3">
-        <v>290100</v>
+        <v>292300</v>
       </c>
       <c r="H8" s="3">
-        <v>280800</v>
+        <v>282900</v>
       </c>
       <c r="I8" s="3">
-        <v>283500</v>
+        <v>285600</v>
       </c>
       <c r="J8" s="3">
-        <v>329800</v>
+        <v>332300</v>
       </c>
       <c r="K8" s="3">
         <v>220100</v>
@@ -802,25 +802,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72000</v>
+        <v>72500</v>
       </c>
       <c r="E9" s="3">
-        <v>71200</v>
+        <v>71800</v>
       </c>
       <c r="F9" s="3">
-        <v>64700</v>
+        <v>65200</v>
       </c>
       <c r="G9" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="H9" s="3">
-        <v>53100</v>
+        <v>53500</v>
       </c>
       <c r="I9" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="J9" s="3">
-        <v>39100</v>
+        <v>39400</v>
       </c>
       <c r="K9" s="3">
         <v>47000</v>
@@ -855,25 +855,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>323400</v>
+        <v>325900</v>
       </c>
       <c r="E10" s="3">
-        <v>302000</v>
+        <v>304300</v>
       </c>
       <c r="F10" s="3">
-        <v>266100</v>
+        <v>268200</v>
       </c>
       <c r="G10" s="3">
-        <v>217300</v>
+        <v>219000</v>
       </c>
       <c r="H10" s="3">
-        <v>227700</v>
+        <v>229400</v>
       </c>
       <c r="I10" s="3">
-        <v>240800</v>
+        <v>242700</v>
       </c>
       <c r="J10" s="3">
-        <v>290700</v>
+        <v>292900</v>
       </c>
       <c r="K10" s="3">
         <v>173200</v>
@@ -929,25 +929,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="E12" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="F12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H12" s="3">
         <v>14700</v>
       </c>
-      <c r="G12" s="3">
-        <v>16600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>14600</v>
-      </c>
       <c r="I12" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="J12" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K12" s="3">
         <v>14300</v>
@@ -1035,25 +1035,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>85300</v>
+        <v>86000</v>
       </c>
       <c r="E14" s="3">
-        <v>61200</v>
+        <v>61700</v>
       </c>
       <c r="F14" s="3">
-        <v>69600</v>
+        <v>70200</v>
       </c>
       <c r="G14" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="H14" s="3">
-        <v>51100</v>
+        <v>51500</v>
       </c>
       <c r="I14" s="3">
-        <v>90100</v>
+        <v>90800</v>
       </c>
       <c r="J14" s="3">
-        <v>124800</v>
+        <v>125700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1159,25 +1159,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>281100</v>
+        <v>283200</v>
       </c>
       <c r="E17" s="3">
-        <v>262900</v>
+        <v>264900</v>
       </c>
       <c r="F17" s="3">
-        <v>228100</v>
+        <v>229900</v>
       </c>
       <c r="G17" s="3">
-        <v>196900</v>
+        <v>198400</v>
       </c>
       <c r="H17" s="3">
-        <v>172900</v>
+        <v>174200</v>
       </c>
       <c r="I17" s="3">
-        <v>194600</v>
+        <v>196100</v>
       </c>
       <c r="J17" s="3">
-        <v>258400</v>
+        <v>260400</v>
       </c>
       <c r="K17" s="3">
         <v>153200</v>
@@ -1212,25 +1212,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>114300</v>
+        <v>115100</v>
       </c>
       <c r="E18" s="3">
-        <v>110300</v>
+        <v>111200</v>
       </c>
       <c r="F18" s="3">
-        <v>102700</v>
+        <v>103400</v>
       </c>
       <c r="G18" s="3">
-        <v>93200</v>
+        <v>94000</v>
       </c>
       <c r="H18" s="3">
-        <v>107900</v>
+        <v>108700</v>
       </c>
       <c r="I18" s="3">
-        <v>88800</v>
+        <v>89500</v>
       </c>
       <c r="J18" s="3">
-        <v>71400</v>
+        <v>71900</v>
       </c>
       <c r="K18" s="3">
         <v>67000</v>
@@ -1289,7 +1289,7 @@
         <v>2300</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F20" s="3">
         <v>6700</v>
@@ -1298,13 +1298,13 @@
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I20" s="3">
         <v>5400</v>
       </c>
       <c r="J20" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="K20" s="3">
         <v>5300</v>
@@ -1445,25 +1445,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>116600</v>
+        <v>117500</v>
       </c>
       <c r="E23" s="3">
-        <v>114400</v>
+        <v>115200</v>
       </c>
       <c r="F23" s="3">
-        <v>109300</v>
+        <v>110200</v>
       </c>
       <c r="G23" s="3">
-        <v>93600</v>
+        <v>94300</v>
       </c>
       <c r="H23" s="3">
-        <v>112000</v>
+        <v>112900</v>
       </c>
       <c r="I23" s="3">
-        <v>94200</v>
+        <v>94900</v>
       </c>
       <c r="J23" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="K23" s="3">
         <v>72300</v>
@@ -1498,25 +1498,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="E24" s="3">
-        <v>17200</v>
+        <v>17400</v>
       </c>
       <c r="F24" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="G24" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="H24" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="I24" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="J24" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="K24" s="3">
         <v>8800</v>
@@ -1604,25 +1604,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99000</v>
+        <v>99800</v>
       </c>
       <c r="E26" s="3">
-        <v>97100</v>
+        <v>97900</v>
       </c>
       <c r="F26" s="3">
-        <v>92800</v>
+        <v>93500</v>
       </c>
       <c r="G26" s="3">
-        <v>77900</v>
+        <v>78400</v>
       </c>
       <c r="H26" s="3">
-        <v>93500</v>
+        <v>94200</v>
       </c>
       <c r="I26" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="J26" s="3">
-        <v>65800</v>
+        <v>66300</v>
       </c>
       <c r="K26" s="3">
         <v>63500</v>
@@ -1657,25 +1657,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>99600</v>
+        <v>100400</v>
       </c>
       <c r="E27" s="3">
-        <v>98100</v>
+        <v>98800</v>
       </c>
       <c r="F27" s="3">
-        <v>92400</v>
+        <v>93100</v>
       </c>
       <c r="G27" s="3">
-        <v>77300</v>
+        <v>77900</v>
       </c>
       <c r="H27" s="3">
-        <v>94400</v>
+        <v>95100</v>
       </c>
       <c r="I27" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="J27" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="K27" s="3">
         <v>63300</v>
@@ -1925,7 +1925,7 @@
         <v>-2300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="F32" s="3">
         <v>-6700</v>
@@ -1934,13 +1934,13 @@
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I32" s="3">
         <v>-5400</v>
       </c>
       <c r="J32" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="K32" s="3">
         <v>-5300</v>
@@ -1975,25 +1975,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>99600</v>
+        <v>100400</v>
       </c>
       <c r="E33" s="3">
-        <v>98100</v>
+        <v>98800</v>
       </c>
       <c r="F33" s="3">
-        <v>92400</v>
+        <v>93100</v>
       </c>
       <c r="G33" s="3">
-        <v>77300</v>
+        <v>77900</v>
       </c>
       <c r="H33" s="3">
-        <v>94400</v>
+        <v>95100</v>
       </c>
       <c r="I33" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="J33" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="K33" s="3">
         <v>63300</v>
@@ -2081,25 +2081,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>99600</v>
+        <v>100400</v>
       </c>
       <c r="E35" s="3">
-        <v>98100</v>
+        <v>98800</v>
       </c>
       <c r="F35" s="3">
-        <v>92400</v>
+        <v>93100</v>
       </c>
       <c r="G35" s="3">
-        <v>77300</v>
+        <v>77900</v>
       </c>
       <c r="H35" s="3">
-        <v>94400</v>
+        <v>95100</v>
       </c>
       <c r="I35" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="J35" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="K35" s="3">
         <v>63300</v>
@@ -2234,25 +2234,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>524400</v>
+        <v>528500</v>
       </c>
       <c r="E41" s="3">
-        <v>438700</v>
+        <v>442000</v>
       </c>
       <c r="F41" s="3">
-        <v>400800</v>
+        <v>403800</v>
       </c>
       <c r="G41" s="3">
-        <v>412100</v>
+        <v>415300</v>
       </c>
       <c r="H41" s="3">
-        <v>173300</v>
+        <v>174700</v>
       </c>
       <c r="I41" s="3">
-        <v>275100</v>
+        <v>277200</v>
       </c>
       <c r="J41" s="3">
-        <v>341800</v>
+        <v>344400</v>
       </c>
       <c r="K41" s="3">
         <v>357900</v>
@@ -2340,25 +2340,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>401900</v>
+        <v>404900</v>
       </c>
       <c r="E43" s="3">
-        <v>393300</v>
+        <v>396300</v>
       </c>
       <c r="F43" s="3">
-        <v>363200</v>
+        <v>366000</v>
       </c>
       <c r="G43" s="3">
-        <v>310800</v>
+        <v>313200</v>
       </c>
       <c r="H43" s="3">
-        <v>288600</v>
+        <v>290800</v>
       </c>
       <c r="I43" s="3">
-        <v>302000</v>
+        <v>304300</v>
       </c>
       <c r="J43" s="3">
-        <v>531900</v>
+        <v>536000</v>
       </c>
       <c r="K43" s="3">
         <v>697800</v>
@@ -2446,25 +2446,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>244000</v>
+        <v>245900</v>
       </c>
       <c r="E45" s="3">
-        <v>207300</v>
+        <v>208900</v>
       </c>
       <c r="F45" s="3">
-        <v>177700</v>
+        <v>179100</v>
       </c>
       <c r="G45" s="3">
-        <v>164400</v>
+        <v>165600</v>
       </c>
       <c r="H45" s="3">
-        <v>177500</v>
+        <v>178900</v>
       </c>
       <c r="I45" s="3">
-        <v>172000</v>
+        <v>173300</v>
       </c>
       <c r="J45" s="3">
-        <v>202300</v>
+        <v>203900</v>
       </c>
       <c r="K45" s="3">
         <v>214200</v>
@@ -2552,25 +2552,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>665500</v>
+        <v>670600</v>
       </c>
       <c r="E47" s="3">
-        <v>645600</v>
+        <v>650500</v>
       </c>
       <c r="F47" s="3">
-        <v>762600</v>
+        <v>768400</v>
       </c>
       <c r="G47" s="3">
-        <v>826100</v>
+        <v>832400</v>
       </c>
       <c r="H47" s="3">
-        <v>1015700</v>
+        <v>1023500</v>
       </c>
       <c r="I47" s="3">
-        <v>962300</v>
+        <v>969700</v>
       </c>
       <c r="J47" s="3">
-        <v>900000</v>
+        <v>906900</v>
       </c>
       <c r="K47" s="3">
         <v>907900</v>
@@ -2605,25 +2605,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="E48" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="F48" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="G48" s="3">
-        <v>23300</v>
+        <v>23500</v>
       </c>
       <c r="H48" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="I48" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="J48" s="3">
-        <v>33200</v>
+        <v>33500</v>
       </c>
       <c r="K48" s="3">
         <v>35400</v>
@@ -2658,25 +2658,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="E49" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="F49" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="G49" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="H49" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="I49" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="J49" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="K49" s="3">
         <v>17700</v>
@@ -2817,25 +2817,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>664600</v>
+        <v>669700</v>
       </c>
       <c r="E52" s="3">
-        <v>651400</v>
+        <v>656400</v>
       </c>
       <c r="F52" s="3">
+        <v>588400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>574200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>684000</v>
+      </c>
+      <c r="I52" s="3">
         <v>583900</v>
       </c>
-      <c r="G52" s="3">
-        <v>569900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>678800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>579500</v>
-      </c>
       <c r="J52" s="3">
-        <v>465800</v>
+        <v>469400</v>
       </c>
       <c r="K52" s="3">
         <v>587600</v>
@@ -2923,25 +2923,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2547000</v>
+        <v>2566500</v>
       </c>
       <c r="E54" s="3">
-        <v>2379600</v>
+        <v>2397800</v>
       </c>
       <c r="F54" s="3">
-        <v>2334200</v>
+        <v>2352100</v>
       </c>
       <c r="G54" s="3">
-        <v>2330000</v>
+        <v>2347800</v>
       </c>
       <c r="H54" s="3">
-        <v>2383800</v>
+        <v>2402000</v>
       </c>
       <c r="I54" s="3">
-        <v>2343600</v>
+        <v>2361600</v>
       </c>
       <c r="J54" s="3">
-        <v>2498200</v>
+        <v>2517300</v>
       </c>
       <c r="K54" s="3">
         <v>2818500</v>
@@ -3018,25 +3018,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E57" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="F57" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="G57" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H57" s="3">
-        <v>17300</v>
+        <v>17500</v>
       </c>
       <c r="I57" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="J57" s="3">
-        <v>48200</v>
+        <v>48600</v>
       </c>
       <c r="K57" s="3">
         <v>105400</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="I58" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="J58" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="K58" s="3">
         <v>36200</v>
@@ -3124,25 +3124,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150600</v>
+        <v>151800</v>
       </c>
       <c r="E59" s="3">
-        <v>153800</v>
+        <v>155000</v>
       </c>
       <c r="F59" s="3">
-        <v>192100</v>
+        <v>193500</v>
       </c>
       <c r="G59" s="3">
-        <v>145500</v>
+        <v>146700</v>
       </c>
       <c r="H59" s="3">
-        <v>123900</v>
+        <v>124900</v>
       </c>
       <c r="I59" s="3">
-        <v>99400</v>
+        <v>100200</v>
       </c>
       <c r="J59" s="3">
-        <v>155800</v>
+        <v>156900</v>
       </c>
       <c r="K59" s="3">
         <v>832000</v>
@@ -3283,25 +3283,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="E62" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="F62" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="G62" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H62" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="I62" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="J62" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="K62" s="3">
         <v>30600</v>
@@ -3495,25 +3495,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>985000</v>
+        <v>992500</v>
       </c>
       <c r="E66" s="3">
-        <v>921400</v>
+        <v>928400</v>
       </c>
       <c r="F66" s="3">
-        <v>976000</v>
+        <v>983500</v>
       </c>
       <c r="G66" s="3">
-        <v>1020600</v>
+        <v>1028400</v>
       </c>
       <c r="H66" s="3">
-        <v>1134500</v>
+        <v>1143200</v>
       </c>
       <c r="I66" s="3">
-        <v>1159500</v>
+        <v>1168400</v>
       </c>
       <c r="J66" s="3">
-        <v>1371000</v>
+        <v>1381500</v>
       </c>
       <c r="K66" s="3">
         <v>1594700</v>
@@ -3781,25 +3781,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>727300</v>
+        <v>732900</v>
       </c>
       <c r="E72" s="3">
-        <v>627700</v>
+        <v>632500</v>
       </c>
       <c r="F72" s="3">
-        <v>529600</v>
+        <v>533700</v>
       </c>
       <c r="G72" s="3">
-        <v>486900</v>
+        <v>490600</v>
       </c>
       <c r="H72" s="3">
-        <v>409600</v>
+        <v>412700</v>
       </c>
       <c r="I72" s="3">
-        <v>315200</v>
+        <v>317600</v>
       </c>
       <c r="J72" s="3">
-        <v>243700</v>
+        <v>245600</v>
       </c>
       <c r="K72" s="3">
         <v>351700</v>
@@ -3993,25 +3993,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1562000</v>
+        <v>1574000</v>
       </c>
       <c r="E76" s="3">
-        <v>1458200</v>
+        <v>1469400</v>
       </c>
       <c r="F76" s="3">
-        <v>1358100</v>
+        <v>1368600</v>
       </c>
       <c r="G76" s="3">
-        <v>1309400</v>
+        <v>1319400</v>
       </c>
       <c r="H76" s="3">
-        <v>1249200</v>
+        <v>1258800</v>
       </c>
       <c r="I76" s="3">
-        <v>1184100</v>
+        <v>1193200</v>
       </c>
       <c r="J76" s="3">
-        <v>1127200</v>
+        <v>1135800</v>
       </c>
       <c r="K76" s="3">
         <v>1223800</v>
@@ -4157,25 +4157,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>99600</v>
+        <v>100400</v>
       </c>
       <c r="E81" s="3">
-        <v>98100</v>
+        <v>98800</v>
       </c>
       <c r="F81" s="3">
-        <v>92400</v>
+        <v>93100</v>
       </c>
       <c r="G81" s="3">
-        <v>77300</v>
+        <v>77900</v>
       </c>
       <c r="H81" s="3">
-        <v>94400</v>
+        <v>95100</v>
       </c>
       <c r="I81" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="J81" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="K81" s="3">
         <v>63300</v>
@@ -4549,25 +4549,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="E89" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F89" s="3">
-        <v>45900</v>
+        <v>46200</v>
       </c>
       <c r="G89" s="3">
-        <v>117200</v>
+        <v>118100</v>
       </c>
       <c r="H89" s="3">
-        <v>123900</v>
+        <v>124800</v>
       </c>
       <c r="I89" s="3">
-        <v>195800</v>
+        <v>197300</v>
       </c>
       <c r="J89" s="3">
-        <v>-91300</v>
+        <v>-92000</v>
       </c>
       <c r="K89" s="3">
         <v>-434900</v>
@@ -4785,22 +4785,22 @@
         <v>9900</v>
       </c>
       <c r="E94" s="3">
-        <v>175200</v>
+        <v>176500</v>
       </c>
       <c r="F94" s="3">
-        <v>87200</v>
+        <v>87800</v>
       </c>
       <c r="G94" s="3">
-        <v>224100</v>
+        <v>225800</v>
       </c>
       <c r="H94" s="3">
-        <v>-27500</v>
+        <v>-27700</v>
       </c>
       <c r="I94" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="J94" s="3">
-        <v>-40800</v>
+        <v>-41100</v>
       </c>
       <c r="K94" s="3">
         <v>41000</v>
@@ -5068,25 +5068,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="E100" s="3">
-        <v>-71300</v>
+        <v>-71800</v>
       </c>
       <c r="F100" s="3">
-        <v>-136100</v>
+        <v>-137200</v>
       </c>
       <c r="G100" s="3">
-        <v>-165300</v>
+        <v>-166500</v>
       </c>
       <c r="H100" s="3">
-        <v>-94400</v>
+        <v>-95100</v>
       </c>
       <c r="I100" s="3">
-        <v>-156900</v>
+        <v>-158100</v>
       </c>
       <c r="J100" s="3">
-        <v>-67400</v>
+        <v>-68000</v>
       </c>
       <c r="K100" s="3">
         <v>125100</v>
@@ -5130,7 +5130,7 @@
         <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H101" s="3">
         <v>-4400</v>
@@ -5174,25 +5174,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="E102" s="3">
-        <v>98100</v>
+        <v>98900</v>
       </c>
       <c r="F102" s="3">
         <v>-1600</v>
       </c>
       <c r="G102" s="3">
-        <v>171300</v>
+        <v>172600</v>
       </c>
       <c r="H102" s="3">
         <v>-2500</v>
       </c>
       <c r="I102" s="3">
-        <v>46800</v>
+        <v>47200</v>
       </c>
       <c r="J102" s="3">
-        <v>-199100</v>
+        <v>-200600</v>
       </c>
       <c r="K102" s="3">
         <v>-269800</v>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>398400</v>
+        <v>360700</v>
       </c>
       <c r="E8" s="3">
-        <v>376100</v>
+        <v>372100</v>
       </c>
       <c r="F8" s="3">
-        <v>333300</v>
+        <v>351300</v>
       </c>
       <c r="G8" s="3">
-        <v>292300</v>
+        <v>311400</v>
       </c>
       <c r="H8" s="3">
-        <v>282900</v>
+        <v>273100</v>
       </c>
       <c r="I8" s="3">
-        <v>285600</v>
+        <v>264300</v>
       </c>
       <c r="J8" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K8" s="3">
         <v>332300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>220100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>245200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>250800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>228500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>192200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>151700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>149100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>137100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72500</v>
+        <v>75800</v>
       </c>
       <c r="E9" s="3">
-        <v>71800</v>
+        <v>67700</v>
       </c>
       <c r="F9" s="3">
-        <v>65200</v>
+        <v>67000</v>
       </c>
       <c r="G9" s="3">
-        <v>73300</v>
+        <v>60900</v>
       </c>
       <c r="H9" s="3">
-        <v>53500</v>
+        <v>68500</v>
       </c>
       <c r="I9" s="3">
-        <v>43000</v>
+        <v>49900</v>
       </c>
       <c r="J9" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K9" s="3">
         <v>39400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>39100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>325900</v>
+        <v>284900</v>
       </c>
       <c r="E10" s="3">
-        <v>304300</v>
+        <v>304400</v>
       </c>
       <c r="F10" s="3">
-        <v>268200</v>
+        <v>284300</v>
       </c>
       <c r="G10" s="3">
-        <v>219000</v>
+        <v>250500</v>
       </c>
       <c r="H10" s="3">
-        <v>229400</v>
+        <v>204500</v>
       </c>
       <c r="I10" s="3">
-        <v>242700</v>
+        <v>214300</v>
       </c>
       <c r="J10" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K10" s="3">
         <v>292900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>173200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>194100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>188200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>150000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>120100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>112400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>98000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16500</v>
+        <v>19400</v>
       </c>
       <c r="E12" s="3">
-        <v>16500</v>
+        <v>15400</v>
       </c>
       <c r="F12" s="3">
-        <v>14800</v>
+        <v>15400</v>
       </c>
       <c r="G12" s="3">
-        <v>16800</v>
+        <v>13800</v>
       </c>
       <c r="H12" s="3">
-        <v>14700</v>
+        <v>15700</v>
       </c>
       <c r="I12" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="J12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K12" s="3">
         <v>13800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13400</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3">
         <v>10900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10700</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,38 +1045,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86000</v>
+        <v>85800</v>
       </c>
       <c r="E14" s="3">
-        <v>61700</v>
+        <v>80300</v>
       </c>
       <c r="F14" s="3">
-        <v>70200</v>
+        <v>57600</v>
       </c>
       <c r="G14" s="3">
-        <v>48700</v>
+        <v>65600</v>
       </c>
       <c r="H14" s="3">
-        <v>51500</v>
+        <v>45500</v>
       </c>
       <c r="I14" s="3">
-        <v>90800</v>
+        <v>48100</v>
       </c>
       <c r="J14" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K14" s="3">
         <v>125700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>283200</v>
+        <v>283600</v>
       </c>
       <c r="E17" s="3">
-        <v>264900</v>
+        <v>264500</v>
       </c>
       <c r="F17" s="3">
-        <v>229900</v>
+        <v>247500</v>
       </c>
       <c r="G17" s="3">
-        <v>198400</v>
+        <v>214700</v>
       </c>
       <c r="H17" s="3">
-        <v>174200</v>
+        <v>185300</v>
       </c>
       <c r="I17" s="3">
-        <v>196100</v>
+        <v>162700</v>
       </c>
       <c r="J17" s="3">
+        <v>183200</v>
+      </c>
+      <c r="K17" s="3">
         <v>260400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>153200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>133600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>83400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>79700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>115100</v>
+        <v>77100</v>
       </c>
       <c r="E18" s="3">
-        <v>111200</v>
+        <v>107500</v>
       </c>
       <c r="F18" s="3">
-        <v>103400</v>
+        <v>103800</v>
       </c>
       <c r="G18" s="3">
-        <v>94000</v>
+        <v>96600</v>
       </c>
       <c r="H18" s="3">
-        <v>108700</v>
+        <v>87800</v>
       </c>
       <c r="I18" s="3">
-        <v>89500</v>
+        <v>101500</v>
       </c>
       <c r="J18" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K18" s="3">
         <v>71900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>67000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>121400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>65700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2300</v>
+        <v>5800</v>
       </c>
       <c r="E20" s="3">
-        <v>4100</v>
+        <v>2200</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>4200</v>
-      </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="J20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K20" s="3">
         <v>8500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>35100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>41500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>117500</v>
+        <v>82900</v>
       </c>
       <c r="E23" s="3">
-        <v>115200</v>
+        <v>109700</v>
       </c>
       <c r="F23" s="3">
-        <v>110200</v>
+        <v>107600</v>
       </c>
       <c r="G23" s="3">
-        <v>94300</v>
+        <v>102900</v>
       </c>
       <c r="H23" s="3">
-        <v>112900</v>
+        <v>88100</v>
       </c>
       <c r="I23" s="3">
-        <v>94900</v>
+        <v>105400</v>
       </c>
       <c r="J23" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K23" s="3">
         <v>80400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>112300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>124300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>129000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>103800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>107200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>76400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17700</v>
+        <v>-12800</v>
       </c>
       <c r="E24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I24" s="3">
         <v>17400</v>
       </c>
-      <c r="F24" s="3">
-        <v>16700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>15800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>23300</v>
-      </c>
       <c r="J24" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K24" s="3">
         <v>14100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-29500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99800</v>
+        <v>95700</v>
       </c>
       <c r="E26" s="3">
-        <v>97900</v>
+        <v>93200</v>
       </c>
       <c r="F26" s="3">
-        <v>93500</v>
+        <v>91400</v>
       </c>
       <c r="G26" s="3">
-        <v>78400</v>
+        <v>87300</v>
       </c>
       <c r="H26" s="3">
-        <v>94200</v>
+        <v>73300</v>
       </c>
       <c r="I26" s="3">
-        <v>71600</v>
+        <v>88000</v>
       </c>
       <c r="J26" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K26" s="3">
         <v>66300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>92200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>117800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>90900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>85100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>62800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100400</v>
+        <v>96600</v>
       </c>
       <c r="E27" s="3">
-        <v>98800</v>
+        <v>93800</v>
       </c>
       <c r="F27" s="3">
-        <v>93100</v>
+        <v>92300</v>
       </c>
       <c r="G27" s="3">
-        <v>77900</v>
+        <v>87000</v>
       </c>
       <c r="H27" s="3">
-        <v>95100</v>
+        <v>72800</v>
       </c>
       <c r="I27" s="3">
-        <v>72100</v>
+        <v>88800</v>
       </c>
       <c r="J27" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K27" s="3">
         <v>66200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>117800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>90900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>84900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>63000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2300</v>
+        <v>-5800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4100</v>
+        <v>-2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="J32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-41500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100400</v>
+        <v>96600</v>
       </c>
       <c r="E33" s="3">
-        <v>98800</v>
+        <v>93800</v>
       </c>
       <c r="F33" s="3">
-        <v>93100</v>
+        <v>92300</v>
       </c>
       <c r="G33" s="3">
-        <v>77900</v>
+        <v>87000</v>
       </c>
       <c r="H33" s="3">
-        <v>95100</v>
+        <v>72800</v>
       </c>
       <c r="I33" s="3">
-        <v>72100</v>
+        <v>88800</v>
       </c>
       <c r="J33" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K33" s="3">
         <v>66200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>63300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>92100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>117800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>90900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>84900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>63000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100400</v>
+        <v>96600</v>
       </c>
       <c r="E35" s="3">
-        <v>98800</v>
+        <v>93800</v>
       </c>
       <c r="F35" s="3">
-        <v>93100</v>
+        <v>92300</v>
       </c>
       <c r="G35" s="3">
-        <v>77900</v>
+        <v>87000</v>
       </c>
       <c r="H35" s="3">
-        <v>95100</v>
+        <v>72800</v>
       </c>
       <c r="I35" s="3">
-        <v>72100</v>
+        <v>88800</v>
       </c>
       <c r="J35" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K35" s="3">
         <v>66200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>63300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>92100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>117800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>90900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>84900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>63000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>528500</v>
+        <v>651100</v>
       </c>
       <c r="E41" s="3">
-        <v>442000</v>
+        <v>493600</v>
       </c>
       <c r="F41" s="3">
-        <v>403800</v>
+        <v>412900</v>
       </c>
       <c r="G41" s="3">
-        <v>415300</v>
+        <v>377200</v>
       </c>
       <c r="H41" s="3">
-        <v>174700</v>
+        <v>387900</v>
       </c>
       <c r="I41" s="3">
-        <v>277200</v>
+        <v>163200</v>
       </c>
       <c r="J41" s="3">
+        <v>258900</v>
+      </c>
+      <c r="K41" s="3">
         <v>344400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>357900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>271400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>291400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>245900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>231600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>347800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>211800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>404900</v>
+        <v>415900</v>
       </c>
       <c r="E43" s="3">
-        <v>396300</v>
+        <v>378300</v>
       </c>
       <c r="F43" s="3">
-        <v>366000</v>
+        <v>370200</v>
       </c>
       <c r="G43" s="3">
-        <v>313200</v>
+        <v>341800</v>
       </c>
       <c r="H43" s="3">
-        <v>290800</v>
+        <v>292600</v>
       </c>
       <c r="I43" s="3">
-        <v>304300</v>
+        <v>271600</v>
       </c>
       <c r="J43" s="3">
+        <v>284300</v>
+      </c>
+      <c r="K43" s="3">
         <v>536000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>697800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>616400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>564300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>525500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>437900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>367300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>352300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>239000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,61 +2535,67 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>245900</v>
+        <v>279900</v>
       </c>
       <c r="E45" s="3">
-        <v>208900</v>
+        <v>229700</v>
       </c>
       <c r="F45" s="3">
-        <v>179100</v>
+        <v>195100</v>
       </c>
       <c r="G45" s="3">
-        <v>165600</v>
+        <v>167300</v>
       </c>
       <c r="H45" s="3">
-        <v>178900</v>
+        <v>154700</v>
       </c>
       <c r="I45" s="3">
-        <v>173300</v>
+        <v>167100</v>
       </c>
       <c r="J45" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K45" s="3">
         <v>203900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>214200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>303200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>153200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20500</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>670600</v>
+        <v>612800</v>
       </c>
       <c r="E47" s="3">
-        <v>650500</v>
+        <v>626400</v>
       </c>
       <c r="F47" s="3">
-        <v>768400</v>
+        <v>607700</v>
       </c>
       <c r="G47" s="3">
-        <v>832400</v>
+        <v>717800</v>
       </c>
       <c r="H47" s="3">
-        <v>1023500</v>
+        <v>777500</v>
       </c>
       <c r="I47" s="3">
-        <v>969700</v>
+        <v>956000</v>
       </c>
       <c r="J47" s="3">
+        <v>905700</v>
+      </c>
+      <c r="K47" s="3">
         <v>906900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>907900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>809600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>815100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>728000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>655400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>486100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>324500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>427300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="E48" s="3">
-        <v>20200</v>
+        <v>21800</v>
       </c>
       <c r="F48" s="3">
-        <v>22800</v>
+        <v>18800</v>
       </c>
       <c r="G48" s="3">
-        <v>23500</v>
+        <v>21300</v>
       </c>
       <c r="H48" s="3">
-        <v>27000</v>
+        <v>21900</v>
       </c>
       <c r="I48" s="3">
-        <v>29900</v>
+        <v>25300</v>
       </c>
       <c r="J48" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K48" s="3">
         <v>33500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23600</v>
+        <v>22000</v>
       </c>
       <c r="E49" s="3">
-        <v>23600</v>
+        <v>22000</v>
       </c>
       <c r="F49" s="3">
-        <v>23600</v>
+        <v>22000</v>
       </c>
       <c r="G49" s="3">
-        <v>23600</v>
+        <v>22000</v>
       </c>
       <c r="H49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K49" s="3">
         <v>23200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>23200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>23200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>17700</v>
       </c>
       <c r="L49" s="3">
         <v>17700</v>
       </c>
       <c r="M49" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="N49" s="3">
         <v>18200</v>
       </c>
       <c r="O49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="P49" s="3">
         <v>18100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>16400</v>
       </c>
       <c r="S49" s="3">
         <v>16400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>669700</v>
+        <v>667400</v>
       </c>
       <c r="E52" s="3">
-        <v>656400</v>
+        <v>625500</v>
       </c>
       <c r="F52" s="3">
-        <v>588400</v>
+        <v>613100</v>
       </c>
       <c r="G52" s="3">
-        <v>574200</v>
+        <v>549600</v>
       </c>
       <c r="H52" s="3">
-        <v>684000</v>
+        <v>536400</v>
       </c>
       <c r="I52" s="3">
-        <v>583900</v>
+        <v>638900</v>
       </c>
       <c r="J52" s="3">
+        <v>545400</v>
+      </c>
+      <c r="K52" s="3">
         <v>469400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>587600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>944700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>706500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>654500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>578100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>494600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>337600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>379500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2566500</v>
+        <v>2672900</v>
       </c>
       <c r="E54" s="3">
-        <v>2397800</v>
+        <v>2397300</v>
       </c>
       <c r="F54" s="3">
-        <v>2352100</v>
+        <v>2239700</v>
       </c>
       <c r="G54" s="3">
-        <v>2347800</v>
+        <v>2197000</v>
       </c>
       <c r="H54" s="3">
-        <v>2402000</v>
+        <v>2193000</v>
       </c>
       <c r="I54" s="3">
-        <v>2361600</v>
+        <v>2243700</v>
       </c>
       <c r="J54" s="3">
+        <v>2205900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2517300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2818500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3000900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2520300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2315300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1999200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1666600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1424500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1314200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="E57" s="3">
-        <v>14200</v>
+        <v>12400</v>
       </c>
       <c r="F57" s="3">
-        <v>14900</v>
+        <v>13300</v>
       </c>
       <c r="G57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I57" s="3">
         <v>16300</v>
       </c>
-      <c r="H57" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>27700</v>
-      </c>
       <c r="J57" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K57" s="3">
         <v>48600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>105400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>368600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>119600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>137700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>181100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>96400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>178100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3079,23 +3212,23 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>23700</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>23700</v>
+        <v>22100</v>
       </c>
       <c r="J58" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K58" s="3">
         <v>37100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3800</v>
       </c>
       <c r="M58" s="3">
         <v>3800</v>
@@ -3107,72 +3240,78 @@
         <v>3800</v>
       </c>
       <c r="P58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8200</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>151800</v>
+        <v>166200</v>
       </c>
       <c r="E59" s="3">
-        <v>155000</v>
+        <v>141800</v>
       </c>
       <c r="F59" s="3">
-        <v>193500</v>
+        <v>144800</v>
       </c>
       <c r="G59" s="3">
-        <v>146700</v>
+        <v>180800</v>
       </c>
       <c r="H59" s="3">
-        <v>124900</v>
+        <v>137000</v>
       </c>
       <c r="I59" s="3">
-        <v>100200</v>
+        <v>116600</v>
       </c>
       <c r="J59" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K59" s="3">
         <v>156900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>832000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>964200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>888700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>860200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>672500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>577800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>547400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>397900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17800</v>
+        <v>20300</v>
       </c>
       <c r="E62" s="3">
-        <v>18500</v>
+        <v>16600</v>
       </c>
       <c r="F62" s="3">
-        <v>15900</v>
+        <v>17300</v>
       </c>
       <c r="G62" s="3">
-        <v>16300</v>
+        <v>14900</v>
       </c>
       <c r="H62" s="3">
-        <v>32000</v>
+        <v>15300</v>
       </c>
       <c r="I62" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K62" s="3">
         <v>32600</v>
       </c>
-      <c r="J62" s="3">
-        <v>32600</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17300</v>
-      </c>
-      <c r="R62" s="3">
-        <v>17700</v>
       </c>
       <c r="S62" s="3">
         <v>17700</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>992500</v>
+        <v>1102700</v>
       </c>
       <c r="E66" s="3">
-        <v>928400</v>
+        <v>927100</v>
       </c>
       <c r="F66" s="3">
-        <v>983500</v>
+        <v>867200</v>
       </c>
       <c r="G66" s="3">
-        <v>1028400</v>
+        <v>918700</v>
       </c>
       <c r="H66" s="3">
-        <v>1143200</v>
+        <v>960600</v>
       </c>
       <c r="I66" s="3">
-        <v>1168400</v>
+        <v>1067800</v>
       </c>
       <c r="J66" s="3">
+        <v>1091300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1381500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1594700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1835200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1459900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1358800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1098100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>934700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>756900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>711200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>732900</v>
+        <v>781200</v>
       </c>
       <c r="E72" s="3">
-        <v>632500</v>
+        <v>684600</v>
       </c>
       <c r="F72" s="3">
-        <v>533700</v>
+        <v>590800</v>
       </c>
       <c r="G72" s="3">
-        <v>490600</v>
+        <v>498500</v>
       </c>
       <c r="H72" s="3">
-        <v>412700</v>
+        <v>458300</v>
       </c>
       <c r="I72" s="3">
-        <v>317600</v>
+        <v>385500</v>
       </c>
       <c r="J72" s="3">
+        <v>296700</v>
+      </c>
+      <c r="K72" s="3">
         <v>245600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>351700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>288300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>194700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>93800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-248000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1574000</v>
+        <v>1570200</v>
       </c>
       <c r="E76" s="3">
-        <v>1469400</v>
+        <v>1470200</v>
       </c>
       <c r="F76" s="3">
-        <v>1368600</v>
+        <v>1372500</v>
       </c>
       <c r="G76" s="3">
-        <v>1319400</v>
+        <v>1278300</v>
       </c>
       <c r="H76" s="3">
-        <v>1258800</v>
+        <v>1232400</v>
       </c>
       <c r="I76" s="3">
-        <v>1193200</v>
+        <v>1175800</v>
       </c>
       <c r="J76" s="3">
+        <v>1114500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1135800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1223800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1165700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1060400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>956500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>901100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>731900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>667600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>602900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100400</v>
+        <v>96600</v>
       </c>
       <c r="E81" s="3">
-        <v>98800</v>
+        <v>93800</v>
       </c>
       <c r="F81" s="3">
-        <v>93100</v>
+        <v>92300</v>
       </c>
       <c r="G81" s="3">
-        <v>77900</v>
+        <v>87000</v>
       </c>
       <c r="H81" s="3">
-        <v>95100</v>
+        <v>72800</v>
       </c>
       <c r="I81" s="3">
-        <v>72100</v>
+        <v>88800</v>
       </c>
       <c r="J81" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K81" s="3">
         <v>66200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>63300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>92100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>117800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>90900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>84900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>63000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21600</v>
+        <v>32300</v>
       </c>
       <c r="E89" s="3">
-        <v>-3000</v>
+        <v>20200</v>
       </c>
       <c r="F89" s="3">
-        <v>46200</v>
+        <v>-2800</v>
       </c>
       <c r="G89" s="3">
-        <v>118100</v>
+        <v>43200</v>
       </c>
       <c r="H89" s="3">
-        <v>124800</v>
+        <v>110300</v>
       </c>
       <c r="I89" s="3">
-        <v>197300</v>
+        <v>116600</v>
       </c>
       <c r="J89" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-92000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-434900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>233400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>94500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>157600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9900</v>
+        <v>37800</v>
       </c>
       <c r="E94" s="3">
-        <v>176500</v>
+        <v>9300</v>
       </c>
       <c r="F94" s="3">
-        <v>87800</v>
+        <v>164900</v>
       </c>
       <c r="G94" s="3">
-        <v>225800</v>
+        <v>82000</v>
       </c>
       <c r="H94" s="3">
-        <v>-27700</v>
+        <v>210900</v>
       </c>
       <c r="I94" s="3">
-        <v>7400</v>
+        <v>-25900</v>
       </c>
       <c r="J94" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-41100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>41000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-130400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-124600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-156400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>51800</v>
+        <v>111500</v>
       </c>
       <c r="E100" s="3">
-        <v>-71800</v>
+        <v>48400</v>
       </c>
       <c r="F100" s="3">
-        <v>-137200</v>
+        <v>-67100</v>
       </c>
       <c r="G100" s="3">
-        <v>-166500</v>
+        <v>-128100</v>
       </c>
       <c r="H100" s="3">
-        <v>-95100</v>
+        <v>-155500</v>
       </c>
       <c r="I100" s="3">
-        <v>-158100</v>
+        <v>-88800</v>
       </c>
       <c r="J100" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-68000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>125100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>43900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>89300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>67100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>36900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>-2700</v>
       </c>
       <c r="G101" s="3">
-        <v>-4800</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>84000</v>
+        <v>180700</v>
       </c>
       <c r="E102" s="3">
-        <v>98900</v>
+        <v>78500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1600</v>
+        <v>92400</v>
       </c>
       <c r="G102" s="3">
-        <v>172600</v>
+        <v>-1500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2500</v>
+        <v>161200</v>
       </c>
       <c r="I102" s="3">
-        <v>47200</v>
+        <v>-2300</v>
       </c>
       <c r="J102" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-269800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>284300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>118300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>113000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-35000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>360700</v>
+        <v>389300</v>
       </c>
       <c r="E8" s="3">
-        <v>372100</v>
+        <v>357300</v>
       </c>
       <c r="F8" s="3">
-        <v>351300</v>
+        <v>357500</v>
       </c>
       <c r="G8" s="3">
-        <v>311400</v>
+        <v>368700</v>
       </c>
       <c r="H8" s="3">
-        <v>273100</v>
+        <v>348200</v>
       </c>
       <c r="I8" s="3">
+        <v>308500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K8" s="3">
         <v>264300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>266800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>332300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>220100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>245200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>250800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>228500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>192200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>151700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>149100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>137100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>75800</v>
+        <v>77300</v>
       </c>
       <c r="E9" s="3">
-        <v>67700</v>
+        <v>72700</v>
       </c>
       <c r="F9" s="3">
-        <v>67000</v>
+        <v>75100</v>
       </c>
       <c r="G9" s="3">
-        <v>60900</v>
+        <v>67100</v>
       </c>
       <c r="H9" s="3">
-        <v>68500</v>
+        <v>66400</v>
       </c>
       <c r="I9" s="3">
+        <v>60300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K9" s="3">
         <v>49900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>39400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>47000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>51100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>46900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>40300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>42200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>31700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>36700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>39100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>284900</v>
+        <v>312000</v>
       </c>
       <c r="E10" s="3">
-        <v>304400</v>
+        <v>284600</v>
       </c>
       <c r="F10" s="3">
-        <v>284300</v>
+        <v>282400</v>
       </c>
       <c r="G10" s="3">
-        <v>250500</v>
+        <v>301600</v>
       </c>
       <c r="H10" s="3">
-        <v>204500</v>
+        <v>281700</v>
       </c>
       <c r="I10" s="3">
+        <v>248200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>202700</v>
+      </c>
+      <c r="K10" s="3">
         <v>214300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>226700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>292900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>173200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>194100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>204000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>188200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>150000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>120100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>112400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>98000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19400</v>
+        <v>16900</v>
       </c>
       <c r="E12" s="3">
-        <v>15400</v>
+        <v>16400</v>
       </c>
       <c r="F12" s="3">
-        <v>15400</v>
+        <v>19300</v>
       </c>
       <c r="G12" s="3">
-        <v>13800</v>
+        <v>15300</v>
       </c>
       <c r="H12" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="I12" s="3">
         <v>13700</v>
       </c>
       <c r="J12" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L12" s="3">
         <v>12300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>16700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>15500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13400</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>10700</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,44 +1082,50 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>85800</v>
+        <v>114900</v>
       </c>
       <c r="E14" s="3">
-        <v>80300</v>
+        <v>96200</v>
       </c>
       <c r="F14" s="3">
-        <v>57600</v>
+        <v>85100</v>
       </c>
       <c r="G14" s="3">
-        <v>65600</v>
+        <v>79600</v>
       </c>
       <c r="H14" s="3">
-        <v>45500</v>
+        <v>57100</v>
       </c>
       <c r="I14" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K14" s="3">
         <v>48100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>84800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>125700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>283600</v>
+        <v>293400</v>
       </c>
       <c r="E17" s="3">
-        <v>264500</v>
+        <v>272300</v>
       </c>
       <c r="F17" s="3">
-        <v>247500</v>
+        <v>281000</v>
       </c>
       <c r="G17" s="3">
-        <v>214700</v>
+        <v>262200</v>
       </c>
       <c r="H17" s="3">
-        <v>185300</v>
+        <v>245200</v>
       </c>
       <c r="I17" s="3">
+        <v>212800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>183600</v>
+      </c>
+      <c r="K17" s="3">
         <v>162700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>183200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>260400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>153200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>145300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>133600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>107100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>118200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>83000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>83400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>79700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>77100</v>
+        <v>95900</v>
       </c>
       <c r="E18" s="3">
-        <v>107500</v>
+        <v>85000</v>
       </c>
       <c r="F18" s="3">
-        <v>103800</v>
+        <v>76400</v>
       </c>
       <c r="G18" s="3">
-        <v>96600</v>
+        <v>106600</v>
       </c>
       <c r="H18" s="3">
-        <v>87800</v>
+        <v>102900</v>
       </c>
       <c r="I18" s="3">
+        <v>95800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K18" s="3">
         <v>101500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>83600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>71900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>67000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>99900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>117300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>121400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>74000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>68700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>65700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>57400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1379,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="E20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>12400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>35100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>41500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>19000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>82900</v>
+        <v>102700</v>
       </c>
       <c r="E23" s="3">
-        <v>109700</v>
+        <v>92400</v>
       </c>
       <c r="F23" s="3">
-        <v>107600</v>
+        <v>82200</v>
       </c>
       <c r="G23" s="3">
-        <v>102900</v>
+        <v>108700</v>
       </c>
       <c r="H23" s="3">
-        <v>88100</v>
+        <v>106700</v>
       </c>
       <c r="I23" s="3">
+        <v>102000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K23" s="3">
         <v>105400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>88600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>80400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>72300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>112300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>124300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>129000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>88400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>103800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>107200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>76400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12800</v>
+        <v>17300</v>
       </c>
       <c r="E24" s="3">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="F24" s="3">
-        <v>16200</v>
+        <v>-12700</v>
       </c>
       <c r="G24" s="3">
-        <v>15600</v>
+        <v>16400</v>
       </c>
       <c r="H24" s="3">
-        <v>14800</v>
+        <v>16100</v>
       </c>
       <c r="I24" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K24" s="3">
         <v>17400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>21700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>8800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>20100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>23400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>21600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>12900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>22100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>13600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>95700</v>
+        <v>85500</v>
       </c>
       <c r="E26" s="3">
-        <v>93200</v>
+        <v>78000</v>
       </c>
       <c r="F26" s="3">
-        <v>91400</v>
+        <v>94900</v>
       </c>
       <c r="G26" s="3">
-        <v>87300</v>
+        <v>92400</v>
       </c>
       <c r="H26" s="3">
-        <v>73300</v>
+        <v>90600</v>
       </c>
       <c r="I26" s="3">
+        <v>86600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K26" s="3">
         <v>88000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>66900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>66300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>63500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>92200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>107400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>117800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>90900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>85100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>62800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96600</v>
+        <v>84900</v>
       </c>
       <c r="E27" s="3">
-        <v>93800</v>
+        <v>78100</v>
       </c>
       <c r="F27" s="3">
-        <v>92300</v>
+        <v>95800</v>
       </c>
       <c r="G27" s="3">
-        <v>87000</v>
+        <v>92900</v>
       </c>
       <c r="H27" s="3">
-        <v>72800</v>
+        <v>91500</v>
       </c>
       <c r="I27" s="3">
+        <v>86200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K27" s="3">
         <v>88800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>67300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>66200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>63300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>92100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>107400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>117800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>90900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>84900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>63000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5800</v>
+        <v>-6800</v>
       </c>
       <c r="E32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-12400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-35100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-41500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-19000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96600</v>
+        <v>84900</v>
       </c>
       <c r="E33" s="3">
-        <v>93800</v>
+        <v>78100</v>
       </c>
       <c r="F33" s="3">
-        <v>92300</v>
+        <v>95800</v>
       </c>
       <c r="G33" s="3">
-        <v>87000</v>
+        <v>92900</v>
       </c>
       <c r="H33" s="3">
-        <v>72800</v>
+        <v>91500</v>
       </c>
       <c r="I33" s="3">
+        <v>86200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K33" s="3">
         <v>88800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>67300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>66200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>63300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>92100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>107400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>117800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>90900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>84900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>63000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96600</v>
+        <v>84900</v>
       </c>
       <c r="E35" s="3">
-        <v>93800</v>
+        <v>78100</v>
       </c>
       <c r="F35" s="3">
-        <v>92300</v>
+        <v>95800</v>
       </c>
       <c r="G35" s="3">
-        <v>87000</v>
+        <v>92900</v>
       </c>
       <c r="H35" s="3">
-        <v>72800</v>
+        <v>91500</v>
       </c>
       <c r="I35" s="3">
+        <v>86200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K35" s="3">
         <v>88800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>67300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>66200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>63300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>92100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>107400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>117800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>90900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>84900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>63000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>651100</v>
+        <v>624600</v>
       </c>
       <c r="E41" s="3">
-        <v>493600</v>
+        <v>528800</v>
       </c>
       <c r="F41" s="3">
-        <v>412900</v>
+        <v>645200</v>
       </c>
       <c r="G41" s="3">
-        <v>377200</v>
+        <v>489200</v>
       </c>
       <c r="H41" s="3">
-        <v>387900</v>
+        <v>409200</v>
       </c>
       <c r="I41" s="3">
+        <v>373800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>384400</v>
+      </c>
+      <c r="K41" s="3">
         <v>163200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>258900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>344400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>357900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>271400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>218300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>291400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>245900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>231600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>347800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>211800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2606,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>415900</v>
+        <v>489400</v>
       </c>
       <c r="E43" s="3">
-        <v>378300</v>
+        <v>435700</v>
       </c>
       <c r="F43" s="3">
-        <v>370200</v>
+        <v>412200</v>
       </c>
       <c r="G43" s="3">
-        <v>341800</v>
+        <v>374800</v>
       </c>
       <c r="H43" s="3">
-        <v>292600</v>
+        <v>366800</v>
       </c>
       <c r="I43" s="3">
+        <v>338700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>289900</v>
+      </c>
+      <c r="K43" s="3">
         <v>271600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>284300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>536000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>697800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>616400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>564300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>525500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>437900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>367300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>352300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>239000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,64 +2730,76 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279900</v>
+        <v>395100</v>
       </c>
       <c r="E45" s="3">
-        <v>229700</v>
+        <v>336200</v>
       </c>
       <c r="F45" s="3">
-        <v>195100</v>
+        <v>277400</v>
       </c>
       <c r="G45" s="3">
-        <v>167300</v>
+        <v>227600</v>
       </c>
       <c r="H45" s="3">
-        <v>154700</v>
+        <v>193300</v>
       </c>
       <c r="I45" s="3">
+        <v>165800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>153300</v>
+      </c>
+      <c r="K45" s="3">
         <v>167100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>161900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>203900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>214200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>303200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>153200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>48800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>30200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>44900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>20500</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2854,200 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>612800</v>
+        <v>650700</v>
       </c>
       <c r="E47" s="3">
-        <v>626400</v>
+        <v>891600</v>
       </c>
       <c r="F47" s="3">
-        <v>607700</v>
+        <v>607200</v>
       </c>
       <c r="G47" s="3">
-        <v>717800</v>
+        <v>620700</v>
       </c>
       <c r="H47" s="3">
-        <v>777500</v>
+        <v>602200</v>
       </c>
       <c r="I47" s="3">
+        <v>711300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>770500</v>
+      </c>
+      <c r="K47" s="3">
         <v>956000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>905700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>906900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>907900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>809600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>815100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>728000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>655400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>486100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>324500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>427300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23800</v>
+        <v>19900</v>
       </c>
       <c r="E48" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="F48" s="3">
-        <v>18800</v>
+        <v>23600</v>
       </c>
       <c r="G48" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="H48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K48" s="3">
+        <v>25300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>28000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>33500</v>
+      </c>
+      <c r="N48" s="3">
+        <v>35400</v>
+      </c>
+      <c r="O48" s="3">
+        <v>37200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>37400</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="R48" s="3">
         <v>21900</v>
       </c>
-      <c r="I48" s="3">
-        <v>25300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>28000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>33500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>35400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>37200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>37400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>40500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>21900</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>19000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>18400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>16300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="E49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="F49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="G49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="H49" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="I49" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K49" s="3">
         <v>21700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>21700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>23200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>18200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>18200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>18100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>16700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>16100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>16400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>667400</v>
+        <v>666800</v>
       </c>
       <c r="E52" s="3">
-        <v>625500</v>
+        <v>596500</v>
       </c>
       <c r="F52" s="3">
-        <v>613100</v>
+        <v>661400</v>
       </c>
       <c r="G52" s="3">
-        <v>549600</v>
+        <v>619900</v>
       </c>
       <c r="H52" s="3">
-        <v>536400</v>
+        <v>607600</v>
       </c>
       <c r="I52" s="3">
+        <v>544700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K52" s="3">
         <v>638900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>545400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>469400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>587600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>944700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>706500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>654500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>578100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>494600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>337600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>379500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2672900</v>
+        <v>2868300</v>
       </c>
       <c r="E54" s="3">
-        <v>2397300</v>
+        <v>2833000</v>
       </c>
       <c r="F54" s="3">
-        <v>2239700</v>
+        <v>2648800</v>
       </c>
       <c r="G54" s="3">
-        <v>2197000</v>
+        <v>2375700</v>
       </c>
       <c r="H54" s="3">
-        <v>2193000</v>
+        <v>2219500</v>
       </c>
       <c r="I54" s="3">
+        <v>2177200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2173200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2243700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2205900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2517300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2818500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3000900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2520300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2315300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1999200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1666600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1424500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1314200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3402,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>12400</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F57" s="3">
-        <v>13300</v>
+        <v>11900</v>
       </c>
       <c r="G57" s="3">
-        <v>13900</v>
+        <v>12300</v>
       </c>
       <c r="H57" s="3">
-        <v>15200</v>
+        <v>13100</v>
       </c>
       <c r="I57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K57" s="3">
         <v>16300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>25900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>48600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>105400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>368600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>113100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>119600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>137700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>181100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>96400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>178100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3215,26 +3483,26 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>22100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>22100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>37100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>36200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3800</v>
       </c>
       <c r="O58" s="3">
         <v>3800</v>
@@ -3243,75 +3511,87 @@
         <v>3800</v>
       </c>
       <c r="Q58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>8200</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166200</v>
+        <v>183000</v>
       </c>
       <c r="E59" s="3">
-        <v>141800</v>
+        <v>251800</v>
       </c>
       <c r="F59" s="3">
-        <v>144800</v>
+        <v>164700</v>
       </c>
       <c r="G59" s="3">
-        <v>180800</v>
+        <v>140500</v>
       </c>
       <c r="H59" s="3">
-        <v>137000</v>
+        <v>143500</v>
       </c>
       <c r="I59" s="3">
+        <v>179100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K59" s="3">
         <v>116600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>93600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>156900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>832000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>964200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>888700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>860200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>672500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>577800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>547400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>397900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,64 +3708,76 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20300</v>
+        <v>25400</v>
       </c>
       <c r="E62" s="3">
-        <v>16600</v>
+        <v>22700</v>
       </c>
       <c r="F62" s="3">
+        <v>20100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>29900</v>
+      </c>
+      <c r="L62" s="3">
+        <v>30500</v>
+      </c>
+      <c r="M62" s="3">
+        <v>32600</v>
+      </c>
+      <c r="N62" s="3">
+        <v>30600</v>
+      </c>
+      <c r="O62" s="3">
         <v>17300</v>
       </c>
-      <c r="G62" s="3">
-        <v>14900</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="P62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="Q62" s="3">
         <v>15300</v>
       </c>
-      <c r="I62" s="3">
-        <v>29900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>30500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>32600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>30600</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="R62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T62" s="3">
         <v>17300</v>
       </c>
-      <c r="N62" s="3">
-        <v>16800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>15300</v>
-      </c>
-      <c r="P62" s="3">
-        <v>15200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>5600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>17300</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>17700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1102700</v>
+        <v>1211100</v>
       </c>
       <c r="E66" s="3">
-        <v>927100</v>
+        <v>1259700</v>
       </c>
       <c r="F66" s="3">
-        <v>867200</v>
+        <v>1092800</v>
       </c>
       <c r="G66" s="3">
         <v>918700</v>
       </c>
       <c r="H66" s="3">
-        <v>960600</v>
+        <v>859400</v>
       </c>
       <c r="I66" s="3">
+        <v>910400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>952000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1067800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1091300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1381500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1594700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1835200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1459900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1358800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1098100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>934700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>756900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>711200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>781200</v>
+        <v>882700</v>
       </c>
       <c r="E72" s="3">
-        <v>684600</v>
+        <v>797800</v>
       </c>
       <c r="F72" s="3">
-        <v>590800</v>
+        <v>774200</v>
       </c>
       <c r="G72" s="3">
-        <v>498500</v>
+        <v>678400</v>
       </c>
       <c r="H72" s="3">
-        <v>458300</v>
+        <v>585500</v>
       </c>
       <c r="I72" s="3">
+        <v>494000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>454100</v>
+      </c>
+      <c r="K72" s="3">
         <v>385500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>296700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>245600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>351700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>288300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>194700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>93800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>45900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-66100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-157000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-248000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1570200</v>
+        <v>1657100</v>
       </c>
       <c r="E76" s="3">
-        <v>1470200</v>
+        <v>1573200</v>
       </c>
       <c r="F76" s="3">
-        <v>1372500</v>
+        <v>1556000</v>
       </c>
       <c r="G76" s="3">
-        <v>1278300</v>
+        <v>1456900</v>
       </c>
       <c r="H76" s="3">
-        <v>1232400</v>
+        <v>1360100</v>
       </c>
       <c r="I76" s="3">
+        <v>1266800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1221300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1175800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1114500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1135800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1223800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1165700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1060400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>956500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>901100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>731900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>667600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>602900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96600</v>
+        <v>84900</v>
       </c>
       <c r="E81" s="3">
-        <v>93800</v>
+        <v>78100</v>
       </c>
       <c r="F81" s="3">
-        <v>92300</v>
+        <v>95800</v>
       </c>
       <c r="G81" s="3">
-        <v>87000</v>
+        <v>92900</v>
       </c>
       <c r="H81" s="3">
-        <v>72800</v>
+        <v>91500</v>
       </c>
       <c r="I81" s="3">
+        <v>86200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K81" s="3">
         <v>88800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>67300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>66200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>63300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>92100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>107400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>117800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>90900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>84900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>63000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>32300</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>20200</v>
+        <v>-97200</v>
       </c>
       <c r="F89" s="3">
-        <v>-2800</v>
+        <v>32000</v>
       </c>
       <c r="G89" s="3">
-        <v>43200</v>
+        <v>20000</v>
       </c>
       <c r="H89" s="3">
-        <v>110300</v>
+        <v>40100</v>
       </c>
       <c r="I89" s="3">
+        <v>-279500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K89" s="3">
         <v>116600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>184300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-92000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-434900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>233400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>94500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>72600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>78800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>157600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>21300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>12600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>37800</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>9300</v>
+        <v>-545900</v>
       </c>
       <c r="F94" s="3">
-        <v>164900</v>
+        <v>37400</v>
       </c>
       <c r="G94" s="3">
-        <v>82000</v>
+        <v>9200</v>
       </c>
       <c r="H94" s="3">
-        <v>210900</v>
+        <v>244700</v>
       </c>
       <c r="I94" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>209000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-25900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-41100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>41000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>4400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-130400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-41200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-124600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-156400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>100200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-32500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>111500</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>48400</v>
+        <v>93600</v>
       </c>
       <c r="F100" s="3">
-        <v>-67100</v>
+        <v>110400</v>
       </c>
       <c r="G100" s="3">
-        <v>-128100</v>
+        <v>48000</v>
       </c>
       <c r="H100" s="3">
-        <v>-155500</v>
+        <v>-193400</v>
       </c>
       <c r="I100" s="3">
+        <v>324500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-88800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-147700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-68000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>125100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>43900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>89300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>67100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>36900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-15400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-9200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-4500</v>
+        <v>-1300</v>
       </c>
       <c r="I101" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>6900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>180700</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>78500</v>
+        <v>-548200</v>
       </c>
       <c r="F102" s="3">
-        <v>92400</v>
+        <v>179000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1500</v>
+        <v>77800</v>
       </c>
       <c r="H102" s="3">
-        <v>161200</v>
+        <v>90100</v>
       </c>
       <c r="I102" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>159700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>44100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-269800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>284300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-23100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>118300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>20800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>43300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>113000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-35000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>389300</v>
+        <v>371100</v>
       </c>
       <c r="E8" s="3">
-        <v>357300</v>
+        <v>340600</v>
       </c>
       <c r="F8" s="3">
-        <v>357500</v>
+        <v>340800</v>
       </c>
       <c r="G8" s="3">
-        <v>368700</v>
+        <v>351500</v>
       </c>
       <c r="H8" s="3">
-        <v>348200</v>
+        <v>331900</v>
       </c>
       <c r="I8" s="3">
-        <v>308500</v>
+        <v>294100</v>
       </c>
       <c r="J8" s="3">
-        <v>270600</v>
+        <v>257900</v>
       </c>
       <c r="K8" s="3">
         <v>264300</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>77300</v>
+        <v>73700</v>
       </c>
       <c r="E9" s="3">
-        <v>72700</v>
+        <v>69300</v>
       </c>
       <c r="F9" s="3">
-        <v>75100</v>
+        <v>71600</v>
       </c>
       <c r="G9" s="3">
-        <v>67100</v>
+        <v>64000</v>
       </c>
       <c r="H9" s="3">
-        <v>66400</v>
+        <v>63300</v>
       </c>
       <c r="I9" s="3">
-        <v>60300</v>
+        <v>57500</v>
       </c>
       <c r="J9" s="3">
-        <v>67900</v>
+        <v>64700</v>
       </c>
       <c r="K9" s="3">
         <v>49900</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>312000</v>
+        <v>297400</v>
       </c>
       <c r="E10" s="3">
-        <v>284600</v>
+        <v>271300</v>
       </c>
       <c r="F10" s="3">
-        <v>282400</v>
+        <v>269200</v>
       </c>
       <c r="G10" s="3">
-        <v>301600</v>
+        <v>287500</v>
       </c>
       <c r="H10" s="3">
-        <v>281700</v>
+        <v>268500</v>
       </c>
       <c r="I10" s="3">
-        <v>248200</v>
+        <v>236600</v>
       </c>
       <c r="J10" s="3">
-        <v>202700</v>
+        <v>193200</v>
       </c>
       <c r="K10" s="3">
         <v>214300</v>
@@ -970,25 +970,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="E12" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="F12" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="G12" s="3">
-        <v>15300</v>
+        <v>14500</v>
       </c>
       <c r="H12" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="I12" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="J12" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="K12" s="3">
         <v>13700</v>
@@ -1094,25 +1094,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>114900</v>
+        <v>109600</v>
       </c>
       <c r="E14" s="3">
-        <v>96200</v>
+        <v>91700</v>
       </c>
       <c r="F14" s="3">
-        <v>85100</v>
+        <v>81100</v>
       </c>
       <c r="G14" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="H14" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="I14" s="3">
-        <v>65000</v>
+        <v>61900</v>
       </c>
       <c r="J14" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="K14" s="3">
         <v>48100</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>293400</v>
+        <v>279700</v>
       </c>
       <c r="E17" s="3">
-        <v>272300</v>
+        <v>259600</v>
       </c>
       <c r="F17" s="3">
-        <v>281000</v>
+        <v>267900</v>
       </c>
       <c r="G17" s="3">
-        <v>262200</v>
+        <v>249900</v>
       </c>
       <c r="H17" s="3">
-        <v>245200</v>
+        <v>233800</v>
       </c>
       <c r="I17" s="3">
-        <v>212800</v>
+        <v>202800</v>
       </c>
       <c r="J17" s="3">
-        <v>183600</v>
+        <v>175000</v>
       </c>
       <c r="K17" s="3">
         <v>162700</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>95900</v>
+        <v>91400</v>
       </c>
       <c r="E18" s="3">
-        <v>85000</v>
+        <v>81000</v>
       </c>
       <c r="F18" s="3">
-        <v>76400</v>
+        <v>72900</v>
       </c>
       <c r="G18" s="3">
-        <v>106600</v>
+        <v>101600</v>
       </c>
       <c r="H18" s="3">
-        <v>102900</v>
+        <v>98100</v>
       </c>
       <c r="I18" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="J18" s="3">
-        <v>87000</v>
+        <v>82900</v>
       </c>
       <c r="K18" s="3">
         <v>101500</v>
@@ -1387,22 +1387,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="E20" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I20" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>102700</v>
+        <v>97900</v>
       </c>
       <c r="E23" s="3">
-        <v>92400</v>
+        <v>88100</v>
       </c>
       <c r="F23" s="3">
-        <v>82200</v>
+        <v>78300</v>
       </c>
       <c r="G23" s="3">
-        <v>108700</v>
+        <v>103700</v>
       </c>
       <c r="H23" s="3">
-        <v>106700</v>
+        <v>101700</v>
       </c>
       <c r="I23" s="3">
-        <v>102000</v>
+        <v>97200</v>
       </c>
       <c r="J23" s="3">
-        <v>87300</v>
+        <v>83200</v>
       </c>
       <c r="K23" s="3">
         <v>105400</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="E24" s="3">
-        <v>14400</v>
+        <v>13700</v>
       </c>
       <c r="F24" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="G24" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="H24" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="I24" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="J24" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="K24" s="3">
         <v>17400</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="E26" s="3">
-        <v>78000</v>
+        <v>74400</v>
       </c>
       <c r="F26" s="3">
-        <v>94900</v>
+        <v>90400</v>
       </c>
       <c r="G26" s="3">
-        <v>92400</v>
+        <v>88000</v>
       </c>
       <c r="H26" s="3">
-        <v>90600</v>
+        <v>86400</v>
       </c>
       <c r="I26" s="3">
-        <v>86600</v>
+        <v>82500</v>
       </c>
       <c r="J26" s="3">
-        <v>72600</v>
+        <v>69200</v>
       </c>
       <c r="K26" s="3">
         <v>88000</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="E27" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="F27" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="G27" s="3">
-        <v>92900</v>
+        <v>88600</v>
       </c>
       <c r="H27" s="3">
-        <v>91500</v>
+        <v>87200</v>
       </c>
       <c r="I27" s="3">
-        <v>86200</v>
+        <v>82200</v>
       </c>
       <c r="J27" s="3">
-        <v>72100</v>
+        <v>68800</v>
       </c>
       <c r="K27" s="3">
         <v>88800</v>
@@ -2131,22 +2131,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="E32" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="I32" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="E33" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="F33" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="G33" s="3">
-        <v>92900</v>
+        <v>88600</v>
       </c>
       <c r="H33" s="3">
-        <v>91500</v>
+        <v>87200</v>
       </c>
       <c r="I33" s="3">
-        <v>86200</v>
+        <v>82200</v>
       </c>
       <c r="J33" s="3">
-        <v>72100</v>
+        <v>68800</v>
       </c>
       <c r="K33" s="3">
         <v>88800</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="E35" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="F35" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="G35" s="3">
-        <v>92900</v>
+        <v>88600</v>
       </c>
       <c r="H35" s="3">
-        <v>91500</v>
+        <v>87200</v>
       </c>
       <c r="I35" s="3">
-        <v>86200</v>
+        <v>82200</v>
       </c>
       <c r="J35" s="3">
-        <v>72100</v>
+        <v>68800</v>
       </c>
       <c r="K35" s="3">
         <v>88800</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>624600</v>
+        <v>595400</v>
       </c>
       <c r="E41" s="3">
-        <v>528800</v>
+        <v>504000</v>
       </c>
       <c r="F41" s="3">
-        <v>645200</v>
+        <v>615000</v>
       </c>
       <c r="G41" s="3">
-        <v>489200</v>
+        <v>466300</v>
       </c>
       <c r="H41" s="3">
-        <v>409200</v>
+        <v>390000</v>
       </c>
       <c r="I41" s="3">
-        <v>373800</v>
+        <v>356300</v>
       </c>
       <c r="J41" s="3">
-        <v>384400</v>
+        <v>366400</v>
       </c>
       <c r="K41" s="3">
         <v>163200</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>489400</v>
+        <v>466500</v>
       </c>
       <c r="E43" s="3">
-        <v>435700</v>
+        <v>415300</v>
       </c>
       <c r="F43" s="3">
-        <v>412200</v>
+        <v>392900</v>
       </c>
       <c r="G43" s="3">
-        <v>374800</v>
+        <v>357300</v>
       </c>
       <c r="H43" s="3">
-        <v>366800</v>
+        <v>349700</v>
       </c>
       <c r="I43" s="3">
-        <v>338700</v>
+        <v>322900</v>
       </c>
       <c r="J43" s="3">
-        <v>289900</v>
+        <v>276400</v>
       </c>
       <c r="K43" s="3">
         <v>271600</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>395100</v>
+        <v>376600</v>
       </c>
       <c r="E45" s="3">
-        <v>336200</v>
+        <v>320500</v>
       </c>
       <c r="F45" s="3">
-        <v>277400</v>
+        <v>264400</v>
       </c>
       <c r="G45" s="3">
-        <v>227600</v>
+        <v>216900</v>
       </c>
       <c r="H45" s="3">
-        <v>193300</v>
+        <v>184300</v>
       </c>
       <c r="I45" s="3">
-        <v>165800</v>
+        <v>158000</v>
       </c>
       <c r="J45" s="3">
-        <v>153300</v>
+        <v>146200</v>
       </c>
       <c r="K45" s="3">
         <v>167100</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>650700</v>
+        <v>620300</v>
       </c>
       <c r="E47" s="3">
-        <v>891600</v>
+        <v>849900</v>
       </c>
       <c r="F47" s="3">
-        <v>607200</v>
+        <v>578800</v>
       </c>
       <c r="G47" s="3">
-        <v>620700</v>
+        <v>591700</v>
       </c>
       <c r="H47" s="3">
-        <v>602200</v>
+        <v>574000</v>
       </c>
       <c r="I47" s="3">
-        <v>711300</v>
+        <v>678000</v>
       </c>
       <c r="J47" s="3">
-        <v>770500</v>
+        <v>734500</v>
       </c>
       <c r="K47" s="3">
         <v>956000</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19900</v>
+        <v>18900</v>
       </c>
       <c r="E48" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="F48" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="G48" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="H48" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="I48" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="J48" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="K48" s="3">
         <v>25300</v>
@@ -2990,25 +2990,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="E49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="F49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="G49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="H49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="I49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="J49" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="K49" s="3">
         <v>21700</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>666800</v>
+        <v>635600</v>
       </c>
       <c r="E52" s="3">
-        <v>596500</v>
+        <v>568600</v>
       </c>
       <c r="F52" s="3">
-        <v>661400</v>
+        <v>630500</v>
       </c>
       <c r="G52" s="3">
-        <v>619900</v>
+        <v>590900</v>
       </c>
       <c r="H52" s="3">
-        <v>607600</v>
+        <v>579100</v>
       </c>
       <c r="I52" s="3">
-        <v>544700</v>
+        <v>519200</v>
       </c>
       <c r="J52" s="3">
-        <v>531500</v>
+        <v>506700</v>
       </c>
       <c r="K52" s="3">
         <v>638900</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2868300</v>
+        <v>2734100</v>
       </c>
       <c r="E54" s="3">
-        <v>2833000</v>
+        <v>2700500</v>
       </c>
       <c r="F54" s="3">
-        <v>2648800</v>
+        <v>2524900</v>
       </c>
       <c r="G54" s="3">
-        <v>2375700</v>
+        <v>2264600</v>
       </c>
       <c r="H54" s="3">
-        <v>2219500</v>
+        <v>2115700</v>
       </c>
       <c r="I54" s="3">
-        <v>2177200</v>
+        <v>2075400</v>
       </c>
       <c r="J54" s="3">
-        <v>2173200</v>
+        <v>2071600</v>
       </c>
       <c r="K54" s="3">
         <v>2243700</v>
@@ -3416,19 +3416,19 @@
         <v>8</v>
       </c>
       <c r="F57" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="G57" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="H57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I57" s="3">
         <v>13100</v>
       </c>
-      <c r="I57" s="3">
-        <v>13800</v>
-      </c>
       <c r="J57" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="K57" s="3">
         <v>16300</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>183000</v>
+        <v>174400</v>
       </c>
       <c r="E59" s="3">
-        <v>251800</v>
+        <v>240000</v>
       </c>
       <c r="F59" s="3">
-        <v>164700</v>
+        <v>157000</v>
       </c>
       <c r="G59" s="3">
-        <v>140500</v>
+        <v>133900</v>
       </c>
       <c r="H59" s="3">
-        <v>143500</v>
+        <v>136800</v>
       </c>
       <c r="I59" s="3">
-        <v>179100</v>
+        <v>170800</v>
       </c>
       <c r="J59" s="3">
-        <v>135800</v>
+        <v>129400</v>
       </c>
       <c r="K59" s="3">
         <v>116600</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="E62" s="3">
-        <v>22700</v>
+        <v>21600</v>
       </c>
       <c r="F62" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="G62" s="3">
-        <v>16500</v>
+        <v>15700</v>
       </c>
       <c r="H62" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="I62" s="3">
-        <v>14700</v>
+        <v>14100</v>
       </c>
       <c r="J62" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="K62" s="3">
         <v>29900</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1211100</v>
+        <v>1154500</v>
       </c>
       <c r="E66" s="3">
-        <v>1259700</v>
+        <v>1200800</v>
       </c>
       <c r="F66" s="3">
-        <v>1092800</v>
+        <v>1041700</v>
       </c>
       <c r="G66" s="3">
-        <v>918700</v>
+        <v>875800</v>
       </c>
       <c r="H66" s="3">
-        <v>859400</v>
+        <v>819200</v>
       </c>
       <c r="I66" s="3">
-        <v>910400</v>
+        <v>867800</v>
       </c>
       <c r="J66" s="3">
-        <v>952000</v>
+        <v>907400</v>
       </c>
       <c r="K66" s="3">
         <v>1067800</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>882700</v>
+        <v>841400</v>
       </c>
       <c r="E72" s="3">
-        <v>797800</v>
+        <v>760500</v>
       </c>
       <c r="F72" s="3">
-        <v>774200</v>
+        <v>737900</v>
       </c>
       <c r="G72" s="3">
-        <v>678400</v>
+        <v>646700</v>
       </c>
       <c r="H72" s="3">
-        <v>585500</v>
+        <v>558100</v>
       </c>
       <c r="I72" s="3">
-        <v>494000</v>
+        <v>470900</v>
       </c>
       <c r="J72" s="3">
-        <v>454100</v>
+        <v>432900</v>
       </c>
       <c r="K72" s="3">
         <v>385500</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1657100</v>
+        <v>1579600</v>
       </c>
       <c r="E76" s="3">
-        <v>1573200</v>
+        <v>1499600</v>
       </c>
       <c r="F76" s="3">
-        <v>1556000</v>
+        <v>1483200</v>
       </c>
       <c r="G76" s="3">
-        <v>1456900</v>
+        <v>1388800</v>
       </c>
       <c r="H76" s="3">
-        <v>1360100</v>
+        <v>1296500</v>
       </c>
       <c r="I76" s="3">
-        <v>1266800</v>
+        <v>1207600</v>
       </c>
       <c r="J76" s="3">
-        <v>1221300</v>
+        <v>1164200</v>
       </c>
       <c r="K76" s="3">
         <v>1175800</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="E81" s="3">
-        <v>78100</v>
+        <v>74400</v>
       </c>
       <c r="F81" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="G81" s="3">
-        <v>92900</v>
+        <v>88600</v>
       </c>
       <c r="H81" s="3">
-        <v>91500</v>
+        <v>87200</v>
       </c>
       <c r="I81" s="3">
-        <v>86200</v>
+        <v>82200</v>
       </c>
       <c r="J81" s="3">
-        <v>72100</v>
+        <v>68800</v>
       </c>
       <c r="K81" s="3">
         <v>88800</v>
@@ -5198,26 +5198,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-45000</v>
       </c>
       <c r="E89" s="3">
-        <v>-97200</v>
+        <v>-4900</v>
       </c>
       <c r="F89" s="3">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="G89" s="3">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="H89" s="3">
-        <v>40100</v>
+        <v>-2600</v>
       </c>
       <c r="I89" s="3">
-        <v>-279500</v>
+        <v>40800</v>
       </c>
       <c r="J89" s="3">
-        <v>109300</v>
+        <v>104200</v>
       </c>
       <c r="K89" s="3">
         <v>116600</v>
@@ -5470,26 +5470,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>270400</v>
       </c>
       <c r="E94" s="3">
-        <v>-545900</v>
+        <v>-242600</v>
       </c>
       <c r="F94" s="3">
-        <v>37400</v>
+        <v>35700</v>
       </c>
       <c r="G94" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="H94" s="3">
-        <v>244700</v>
+        <v>155800</v>
       </c>
       <c r="I94" s="3">
-        <v>-70800</v>
+        <v>77500</v>
       </c>
       <c r="J94" s="3">
-        <v>209000</v>
+        <v>199200</v>
       </c>
       <c r="K94" s="3">
         <v>-25900</v>
@@ -5804,26 +5804,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-96700</v>
       </c>
       <c r="E100" s="3">
-        <v>93600</v>
+        <v>55900</v>
       </c>
       <c r="F100" s="3">
-        <v>110400</v>
+        <v>105300</v>
       </c>
       <c r="G100" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="H100" s="3">
-        <v>-193400</v>
+        <v>-63400</v>
       </c>
       <c r="I100" s="3">
-        <v>324500</v>
+        <v>-121000</v>
       </c>
       <c r="J100" s="3">
-        <v>-154100</v>
+        <v>-146900</v>
       </c>
       <c r="K100" s="3">
         <v>-88800</v>
@@ -5866,11 +5866,11 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>4500</v>
       </c>
       <c r="E101" s="3">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="F101" s="3">
         <v>-800</v>
@@ -5879,13 +5879,13 @@
         <v>600</v>
       </c>
       <c r="H101" s="3">
-        <v>-1300</v>
+        <v>-2500</v>
       </c>
       <c r="I101" s="3">
-        <v>8900</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="K101" s="3">
         <v>-4100</v>
@@ -5928,26 +5928,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>133200</v>
       </c>
       <c r="E102" s="3">
-        <v>-548200</v>
+        <v>-192000</v>
       </c>
       <c r="F102" s="3">
-        <v>179000</v>
+        <v>170600</v>
       </c>
       <c r="G102" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="H102" s="3">
-        <v>90100</v>
+        <v>87300</v>
       </c>
       <c r="I102" s="3">
-        <v>-16900</v>
+        <v>-1400</v>
       </c>
       <c r="J102" s="3">
-        <v>159700</v>
+        <v>152300</v>
       </c>
       <c r="K102" s="3">
         <v>-2300</v>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>371100</v>
+        <v>426800</v>
       </c>
       <c r="E8" s="3">
-        <v>340600</v>
+        <v>382900</v>
       </c>
       <c r="F8" s="3">
-        <v>340800</v>
+        <v>351400</v>
       </c>
       <c r="G8" s="3">
-        <v>351500</v>
+        <v>351600</v>
       </c>
       <c r="H8" s="3">
-        <v>331900</v>
+        <v>362700</v>
       </c>
       <c r="I8" s="3">
-        <v>294100</v>
+        <v>342400</v>
       </c>
       <c r="J8" s="3">
+        <v>303500</v>
+      </c>
+      <c r="K8" s="3">
         <v>257900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>264300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>266800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>332300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>220100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>245200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>250800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>228500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>192200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>151700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>149100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>137100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>73700</v>
+        <v>71100</v>
       </c>
       <c r="E9" s="3">
-        <v>69300</v>
+        <v>76100</v>
       </c>
       <c r="F9" s="3">
-        <v>71600</v>
+        <v>71500</v>
       </c>
       <c r="G9" s="3">
-        <v>64000</v>
+        <v>73900</v>
       </c>
       <c r="H9" s="3">
-        <v>63300</v>
+        <v>66000</v>
       </c>
       <c r="I9" s="3">
-        <v>57500</v>
+        <v>65300</v>
       </c>
       <c r="J9" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K9" s="3">
         <v>64700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>39100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>297400</v>
+        <v>355700</v>
       </c>
       <c r="E10" s="3">
-        <v>271300</v>
+        <v>306800</v>
       </c>
       <c r="F10" s="3">
-        <v>269200</v>
+        <v>279900</v>
       </c>
       <c r="G10" s="3">
-        <v>287500</v>
+        <v>277700</v>
       </c>
       <c r="H10" s="3">
-        <v>268500</v>
+        <v>296700</v>
       </c>
       <c r="I10" s="3">
-        <v>236600</v>
+        <v>277100</v>
       </c>
       <c r="J10" s="3">
+        <v>244100</v>
+      </c>
+      <c r="K10" s="3">
         <v>193200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>214300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>226700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>292900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>173200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>194100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>204000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>188200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>150000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>120100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>112400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>98000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F12" s="3">
         <v>16100</v>
       </c>
-      <c r="E12" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>18400</v>
-      </c>
       <c r="G12" s="3">
-        <v>14500</v>
+        <v>18900</v>
       </c>
       <c r="H12" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="I12" s="3">
-        <v>13100</v>
+        <v>15000</v>
       </c>
       <c r="J12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K12" s="3">
         <v>14800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13400</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3">
         <v>10900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10700</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,47 +1105,50 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>109600</v>
+        <v>116800</v>
       </c>
       <c r="E14" s="3">
-        <v>91700</v>
+        <v>113000</v>
       </c>
       <c r="F14" s="3">
-        <v>81100</v>
+        <v>94600</v>
       </c>
       <c r="G14" s="3">
-        <v>75900</v>
+        <v>83700</v>
       </c>
       <c r="H14" s="3">
-        <v>54400</v>
+        <v>78300</v>
       </c>
       <c r="I14" s="3">
-        <v>61900</v>
+        <v>56200</v>
       </c>
       <c r="J14" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K14" s="3">
         <v>43000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>48100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>84800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>125700</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>279700</v>
+        <v>332000</v>
       </c>
       <c r="E17" s="3">
-        <v>259600</v>
+        <v>288600</v>
       </c>
       <c r="F17" s="3">
-        <v>267900</v>
+        <v>267800</v>
       </c>
       <c r="G17" s="3">
-        <v>249900</v>
+        <v>276400</v>
       </c>
       <c r="H17" s="3">
-        <v>233800</v>
+        <v>257800</v>
       </c>
       <c r="I17" s="3">
-        <v>202800</v>
+        <v>241200</v>
       </c>
       <c r="J17" s="3">
+        <v>209300</v>
+      </c>
+      <c r="K17" s="3">
         <v>175000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>183200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>260400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>153200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>145300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>133600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>107100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>83000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>83400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>79700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>91400</v>
+        <v>94800</v>
       </c>
       <c r="E18" s="3">
-        <v>81000</v>
+        <v>94300</v>
       </c>
       <c r="F18" s="3">
-        <v>72900</v>
+        <v>83600</v>
       </c>
       <c r="G18" s="3">
-        <v>101600</v>
+        <v>75200</v>
       </c>
       <c r="H18" s="3">
-        <v>98100</v>
+        <v>104800</v>
       </c>
       <c r="I18" s="3">
-        <v>91300</v>
+        <v>101200</v>
       </c>
       <c r="J18" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K18" s="3">
         <v>82900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>101500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>83600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>71900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>67000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>99900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>121400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>57400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1414,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6500</v>
+        <v>8400</v>
       </c>
       <c r="E20" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>7300</v>
       </c>
       <c r="G20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>3600</v>
-      </c>
       <c r="I20" s="3">
-        <v>5900</v>
+        <v>3700</v>
       </c>
       <c r="J20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>35100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>41500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97900</v>
+        <v>103200</v>
       </c>
       <c r="E23" s="3">
-        <v>88100</v>
+        <v>101100</v>
       </c>
       <c r="F23" s="3">
-        <v>78300</v>
+        <v>90900</v>
       </c>
       <c r="G23" s="3">
-        <v>103700</v>
+        <v>80800</v>
       </c>
       <c r="H23" s="3">
-        <v>101700</v>
+        <v>106900</v>
       </c>
       <c r="I23" s="3">
-        <v>97200</v>
+        <v>104900</v>
       </c>
       <c r="J23" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K23" s="3">
         <v>83200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>105400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>88600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>112300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>124300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>129000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>88400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>103800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>107200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>76400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="E24" s="3">
-        <v>13700</v>
+        <v>17000</v>
       </c>
       <c r="F24" s="3">
-        <v>-12100</v>
+        <v>14200</v>
       </c>
       <c r="G24" s="3">
-        <v>15600</v>
+        <v>-12500</v>
       </c>
       <c r="H24" s="3">
-        <v>15300</v>
+        <v>16100</v>
       </c>
       <c r="I24" s="3">
-        <v>14700</v>
+        <v>15800</v>
       </c>
       <c r="J24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-29500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>81500</v>
+        <v>87000</v>
       </c>
       <c r="E26" s="3">
-        <v>74400</v>
+        <v>84000</v>
       </c>
       <c r="F26" s="3">
-        <v>90400</v>
+        <v>76700</v>
       </c>
       <c r="G26" s="3">
+        <v>93300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>90800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>89100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>69200</v>
+      </c>
+      <c r="L26" s="3">
         <v>88000</v>
       </c>
-      <c r="H26" s="3">
-        <v>86400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>82500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>69200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>88000</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>66300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>92200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>117800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>90900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>85100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>62800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>80900</v>
+        <v>86000</v>
       </c>
       <c r="E27" s="3">
-        <v>74400</v>
+        <v>83500</v>
       </c>
       <c r="F27" s="3">
-        <v>91300</v>
+        <v>76800</v>
       </c>
       <c r="G27" s="3">
-        <v>88600</v>
+        <v>94200</v>
       </c>
       <c r="H27" s="3">
-        <v>87200</v>
+        <v>91400</v>
       </c>
       <c r="I27" s="3">
-        <v>82200</v>
+        <v>90000</v>
       </c>
       <c r="J27" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K27" s="3">
         <v>68800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>88800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>66200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>63300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>92100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>117800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>90900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>84900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>63000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6500</v>
+        <v>-8400</v>
       </c>
       <c r="E32" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-7300</v>
       </c>
       <c r="G32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-5900</v>
+        <v>-3700</v>
       </c>
       <c r="J32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-35100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-41500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>80900</v>
+        <v>86000</v>
       </c>
       <c r="E33" s="3">
-        <v>74400</v>
+        <v>83500</v>
       </c>
       <c r="F33" s="3">
-        <v>91300</v>
+        <v>76800</v>
       </c>
       <c r="G33" s="3">
-        <v>88600</v>
+        <v>94200</v>
       </c>
       <c r="H33" s="3">
-        <v>87200</v>
+        <v>91400</v>
       </c>
       <c r="I33" s="3">
-        <v>82200</v>
+        <v>90000</v>
       </c>
       <c r="J33" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K33" s="3">
         <v>68800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>88800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>66200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>63300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>92100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>117800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>90900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>84900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>63000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>80900</v>
+        <v>86000</v>
       </c>
       <c r="E35" s="3">
-        <v>74400</v>
+        <v>83500</v>
       </c>
       <c r="F35" s="3">
-        <v>91300</v>
+        <v>76800</v>
       </c>
       <c r="G35" s="3">
-        <v>88600</v>
+        <v>94200</v>
       </c>
       <c r="H35" s="3">
-        <v>87200</v>
+        <v>91400</v>
       </c>
       <c r="I35" s="3">
-        <v>82200</v>
+        <v>90000</v>
       </c>
       <c r="J35" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K35" s="3">
         <v>68800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>88800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>66200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>63300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>92100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>117800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>90900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>84900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>63000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>595400</v>
+        <v>436900</v>
       </c>
       <c r="E41" s="3">
-        <v>504000</v>
+        <v>614300</v>
       </c>
       <c r="F41" s="3">
-        <v>615000</v>
+        <v>520000</v>
       </c>
       <c r="G41" s="3">
-        <v>466300</v>
+        <v>634500</v>
       </c>
       <c r="H41" s="3">
-        <v>390000</v>
+        <v>481100</v>
       </c>
       <c r="I41" s="3">
-        <v>356300</v>
+        <v>402400</v>
       </c>
       <c r="J41" s="3">
+        <v>367600</v>
+      </c>
+      <c r="K41" s="3">
         <v>366400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>258900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>344400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>357900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>271400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>218300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>291400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>245900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>231600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>347800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>211800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2702,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>466500</v>
+        <v>530300</v>
       </c>
       <c r="E43" s="3">
-        <v>415300</v>
+        <v>481300</v>
       </c>
       <c r="F43" s="3">
-        <v>392900</v>
+        <v>428500</v>
       </c>
       <c r="G43" s="3">
-        <v>357300</v>
+        <v>405400</v>
       </c>
       <c r="H43" s="3">
-        <v>349700</v>
+        <v>368700</v>
       </c>
       <c r="I43" s="3">
-        <v>322900</v>
+        <v>360800</v>
       </c>
       <c r="J43" s="3">
+        <v>333200</v>
+      </c>
+      <c r="K43" s="3">
         <v>276400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>271600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>284300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>536000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>697800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>616400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>564300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>525500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>437900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>367300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>352300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>239000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,70 +2832,76 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>376600</v>
+        <v>413800</v>
       </c>
       <c r="E45" s="3">
-        <v>320500</v>
+        <v>388600</v>
       </c>
       <c r="F45" s="3">
-        <v>264400</v>
+        <v>330600</v>
       </c>
       <c r="G45" s="3">
-        <v>216900</v>
+        <v>272800</v>
       </c>
       <c r="H45" s="3">
-        <v>184300</v>
+        <v>223800</v>
       </c>
       <c r="I45" s="3">
-        <v>158000</v>
+        <v>190100</v>
       </c>
       <c r="J45" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K45" s="3">
         <v>146200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>161900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>203900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>214200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>303200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>153200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20500</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,194 +2962,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>620300</v>
+        <v>852200</v>
       </c>
       <c r="E47" s="3">
-        <v>849900</v>
+        <v>640000</v>
       </c>
       <c r="F47" s="3">
-        <v>578800</v>
+        <v>876900</v>
       </c>
       <c r="G47" s="3">
-        <v>591700</v>
+        <v>597200</v>
       </c>
       <c r="H47" s="3">
-        <v>574000</v>
+        <v>610500</v>
       </c>
       <c r="I47" s="3">
-        <v>678000</v>
+        <v>592200</v>
       </c>
       <c r="J47" s="3">
+        <v>699500</v>
+      </c>
+      <c r="K47" s="3">
         <v>734500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>956000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>905700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>906900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>907900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>809600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>815100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>728000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>655400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>486100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>324500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>427300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18900</v>
+        <v>47800</v>
       </c>
       <c r="E48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H48" s="3">
         <v>21300</v>
       </c>
-      <c r="F48" s="3">
-        <v>22500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>20600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>17800</v>
-      </c>
       <c r="I48" s="3">
-        <v>20100</v>
+        <v>18400</v>
       </c>
       <c r="J48" s="3">
         <v>20700</v>
       </c>
       <c r="K48" s="3">
+        <v>20700</v>
+      </c>
+      <c r="L48" s="3">
         <v>25300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K49" s="3">
         <v>20800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>20800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>20800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>20800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>20800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>20800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>21700</v>
       </c>
       <c r="L49" s="3">
         <v>21700</v>
       </c>
       <c r="M49" s="3">
+        <v>21700</v>
+      </c>
+      <c r="N49" s="3">
         <v>23200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>17700</v>
       </c>
       <c r="O49" s="3">
         <v>17700</v>
       </c>
       <c r="P49" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="Q49" s="3">
         <v>18200</v>
       </c>
       <c r="R49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="S49" s="3">
         <v>18100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>16700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>16100</v>
-      </c>
-      <c r="U49" s="3">
-        <v>16400</v>
       </c>
       <c r="V49" s="3">
         <v>16400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>635600</v>
+        <v>705300</v>
       </c>
       <c r="E52" s="3">
-        <v>568600</v>
+        <v>655800</v>
       </c>
       <c r="F52" s="3">
-        <v>630500</v>
+        <v>586700</v>
       </c>
       <c r="G52" s="3">
-        <v>590900</v>
+        <v>650500</v>
       </c>
       <c r="H52" s="3">
-        <v>579100</v>
+        <v>609700</v>
       </c>
       <c r="I52" s="3">
-        <v>519200</v>
+        <v>597500</v>
       </c>
       <c r="J52" s="3">
+        <v>535700</v>
+      </c>
+      <c r="K52" s="3">
         <v>506700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>638900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>545400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>469400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>587600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>944700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>706500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>654500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>578100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>494600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>337600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>379500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2734100</v>
+        <v>3007800</v>
       </c>
       <c r="E54" s="3">
-        <v>2700500</v>
+        <v>2821000</v>
       </c>
       <c r="F54" s="3">
-        <v>2524900</v>
+        <v>2786200</v>
       </c>
       <c r="G54" s="3">
-        <v>2264600</v>
+        <v>2605100</v>
       </c>
       <c r="H54" s="3">
-        <v>2115700</v>
+        <v>2336500</v>
       </c>
       <c r="I54" s="3">
-        <v>2075400</v>
+        <v>2182900</v>
       </c>
       <c r="J54" s="3">
+        <v>2141300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2071600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2243700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2205900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2517300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2818500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3000900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2520300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2315300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1999200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1666600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1424500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1314200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,97 +3546,100 @@
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
-        <v>11300</v>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G57" s="3">
         <v>11700</v>
       </c>
       <c r="H57" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="I57" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="J57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K57" s="3">
         <v>14400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>105400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>368600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>113100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>119600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>137700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>181100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>96400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>178100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>22100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>22100</v>
       </c>
       <c r="M58" s="3">
+        <v>22100</v>
+      </c>
+      <c r="N58" s="3">
         <v>37100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>36200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3800</v>
       </c>
       <c r="P58" s="3">
         <v>3800</v>
@@ -3517,81 +3651,87 @@
         <v>3800</v>
       </c>
       <c r="S58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8200</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>174400</v>
+        <v>210900</v>
       </c>
       <c r="E59" s="3">
-        <v>240000</v>
+        <v>179900</v>
       </c>
       <c r="F59" s="3">
-        <v>157000</v>
+        <v>247600</v>
       </c>
       <c r="G59" s="3">
-        <v>133900</v>
+        <v>162000</v>
       </c>
       <c r="H59" s="3">
-        <v>136800</v>
+        <v>138200</v>
       </c>
       <c r="I59" s="3">
-        <v>170800</v>
+        <v>141100</v>
       </c>
       <c r="J59" s="3">
+        <v>176200</v>
+      </c>
+      <c r="K59" s="3">
         <v>129400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>116600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>832000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>964200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>888700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>860200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>672500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>577800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>547400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>397900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,70 +3857,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24200</v>
+        <v>29900</v>
       </c>
       <c r="E62" s="3">
-        <v>21600</v>
+        <v>24900</v>
       </c>
       <c r="F62" s="3">
-        <v>19200</v>
+        <v>22300</v>
       </c>
       <c r="G62" s="3">
-        <v>15700</v>
+        <v>19800</v>
       </c>
       <c r="H62" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="I62" s="3">
-        <v>14100</v>
+        <v>16800</v>
       </c>
       <c r="J62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K62" s="3">
         <v>14400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17300</v>
-      </c>
-      <c r="U62" s="3">
-        <v>17700</v>
       </c>
       <c r="V62" s="3">
         <v>17700</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1154500</v>
+        <v>1292200</v>
       </c>
       <c r="E66" s="3">
-        <v>1200800</v>
+        <v>1191200</v>
       </c>
       <c r="F66" s="3">
-        <v>1041700</v>
+        <v>1238900</v>
       </c>
       <c r="G66" s="3">
-        <v>875800</v>
+        <v>1074800</v>
       </c>
       <c r="H66" s="3">
-        <v>819200</v>
+        <v>903600</v>
       </c>
       <c r="I66" s="3">
-        <v>867800</v>
+        <v>845200</v>
       </c>
       <c r="J66" s="3">
+        <v>895400</v>
+      </c>
+      <c r="K66" s="3">
         <v>907400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1067800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1091300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1381500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1594700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1835200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1459900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1358800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1098100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>934700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>756900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>711200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>841400</v>
+        <v>954200</v>
       </c>
       <c r="E72" s="3">
-        <v>760500</v>
+        <v>868100</v>
       </c>
       <c r="F72" s="3">
-        <v>737900</v>
+        <v>784700</v>
       </c>
       <c r="G72" s="3">
-        <v>646700</v>
+        <v>761400</v>
       </c>
       <c r="H72" s="3">
-        <v>558100</v>
+        <v>667200</v>
       </c>
       <c r="I72" s="3">
-        <v>470900</v>
+        <v>575800</v>
       </c>
       <c r="J72" s="3">
+        <v>485800</v>
+      </c>
+      <c r="K72" s="3">
         <v>432900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>385500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>296700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>245600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>351700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>288300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>194700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>93800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-66100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-157000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-248000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1579600</v>
+        <v>1715500</v>
       </c>
       <c r="E76" s="3">
-        <v>1499600</v>
+        <v>1629800</v>
       </c>
       <c r="F76" s="3">
-        <v>1483200</v>
+        <v>1547300</v>
       </c>
       <c r="G76" s="3">
-        <v>1388800</v>
+        <v>1530300</v>
       </c>
       <c r="H76" s="3">
-        <v>1296500</v>
+        <v>1432900</v>
       </c>
       <c r="I76" s="3">
-        <v>1207600</v>
+        <v>1337700</v>
       </c>
       <c r="J76" s="3">
+        <v>1245900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1164200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1175800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1114500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1135800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1223800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1165700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1060400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>956500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>901100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>731900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>667600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>602900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>80900</v>
+        <v>86000</v>
       </c>
       <c r="E81" s="3">
-        <v>74400</v>
+        <v>83500</v>
       </c>
       <c r="F81" s="3">
-        <v>91300</v>
+        <v>76800</v>
       </c>
       <c r="G81" s="3">
-        <v>88600</v>
+        <v>94200</v>
       </c>
       <c r="H81" s="3">
-        <v>87200</v>
+        <v>91400</v>
       </c>
       <c r="I81" s="3">
-        <v>82200</v>
+        <v>90000</v>
       </c>
       <c r="J81" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K81" s="3">
         <v>68800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>88800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>66200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>63300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>92100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>117800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>90900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>84900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>63000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-45000</v>
+        <v>46800</v>
       </c>
       <c r="E89" s="3">
-        <v>-4900</v>
+        <v>-46400</v>
       </c>
       <c r="F89" s="3">
-        <v>30500</v>
+        <v>-5000</v>
       </c>
       <c r="G89" s="3">
-        <v>19000</v>
+        <v>31500</v>
       </c>
       <c r="H89" s="3">
-        <v>-2600</v>
+        <v>19700</v>
       </c>
       <c r="I89" s="3">
-        <v>40800</v>
+        <v>-2700</v>
       </c>
       <c r="J89" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K89" s="3">
         <v>104200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>116600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>184300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-92000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-434900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>233400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>94500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>157600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>270400</v>
+        <v>-183900</v>
       </c>
       <c r="E94" s="3">
-        <v>-242600</v>
+        <v>279000</v>
       </c>
       <c r="F94" s="3">
-        <v>35700</v>
+        <v>-250400</v>
       </c>
       <c r="G94" s="3">
-        <v>8800</v>
+        <v>36800</v>
       </c>
       <c r="H94" s="3">
-        <v>155800</v>
+        <v>9100</v>
       </c>
       <c r="I94" s="3">
-        <v>77500</v>
+        <v>160700</v>
       </c>
       <c r="J94" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K94" s="3">
         <v>199200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>41000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-130400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-124600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-156400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>100200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-96700</v>
+        <v>-8100</v>
       </c>
       <c r="E100" s="3">
-        <v>55900</v>
+        <v>-99800</v>
       </c>
       <c r="F100" s="3">
-        <v>105300</v>
+        <v>57600</v>
       </c>
       <c r="G100" s="3">
-        <v>45700</v>
+        <v>108600</v>
       </c>
       <c r="H100" s="3">
-        <v>-63400</v>
+        <v>47200</v>
       </c>
       <c r="I100" s="3">
-        <v>-121000</v>
+        <v>-65400</v>
       </c>
       <c r="J100" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-146900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-88800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-147700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-68000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>125100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>43900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>89300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>67100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4500</v>
+        <v>2600</v>
       </c>
       <c r="E101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I101" s="3">
-        <v>1300</v>
+        <v>-2600</v>
       </c>
       <c r="J101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>133200</v>
+        <v>-142600</v>
       </c>
       <c r="E102" s="3">
-        <v>-192000</v>
+        <v>137400</v>
       </c>
       <c r="F102" s="3">
-        <v>170600</v>
+        <v>-198100</v>
       </c>
       <c r="G102" s="3">
-        <v>74100</v>
+        <v>176100</v>
       </c>
       <c r="H102" s="3">
-        <v>87300</v>
+        <v>76500</v>
       </c>
       <c r="I102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>152300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-269800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>284300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>118300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>43300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>113000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-35000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,321 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>426800</v>
+        <v>433600</v>
       </c>
       <c r="E8" s="3">
-        <v>382900</v>
+        <v>433600</v>
       </c>
       <c r="F8" s="3">
-        <v>351400</v>
+        <v>422400</v>
       </c>
       <c r="G8" s="3">
-        <v>351600</v>
+        <v>379000</v>
       </c>
       <c r="H8" s="3">
-        <v>362700</v>
+        <v>347800</v>
       </c>
       <c r="I8" s="3">
+        <v>348000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>358900</v>
+      </c>
+      <c r="K8" s="3">
         <v>342400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>303500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>257900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>264300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>266800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>332300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>220100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>245200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>250800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>228500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>192200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>151700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>149100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>137100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71100</v>
+        <v>72800</v>
       </c>
       <c r="E9" s="3">
-        <v>76100</v>
+        <v>73400</v>
       </c>
       <c r="F9" s="3">
-        <v>71500</v>
+        <v>70400</v>
       </c>
       <c r="G9" s="3">
-        <v>73900</v>
+        <v>75300</v>
       </c>
       <c r="H9" s="3">
-        <v>66000</v>
+        <v>70700</v>
       </c>
       <c r="I9" s="3">
+        <v>73100</v>
+      </c>
+      <c r="J9" s="3">
         <v>65300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
+        <v>65300</v>
+      </c>
+      <c r="L9" s="3">
         <v>59300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>64700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>49900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>40100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>39400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>47000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>51100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>46900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>40300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>42200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>31700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>36700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>39100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>355700</v>
+        <v>360800</v>
       </c>
       <c r="E10" s="3">
-        <v>306800</v>
+        <v>360200</v>
       </c>
       <c r="F10" s="3">
-        <v>279900</v>
+        <v>352000</v>
       </c>
       <c r="G10" s="3">
-        <v>277700</v>
+        <v>303700</v>
       </c>
       <c r="H10" s="3">
-        <v>296700</v>
+        <v>277100</v>
       </c>
       <c r="I10" s="3">
+        <v>274900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>293600</v>
+      </c>
+      <c r="K10" s="3">
         <v>277100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>244100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>193200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>214300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>226700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>292900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>173200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>194100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>204000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>188200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>150000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>120100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>112400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>98000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="E12" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="N12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="P12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="R12" s="3">
         <v>16700</v>
       </c>
-      <c r="F12" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>13500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>14800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>13700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>12300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>13800</v>
-      </c>
-      <c r="O12" s="3">
-        <v>14300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>16700</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>15500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>13400</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>10900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>10700</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,53 +1141,59 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>116800</v>
+        <v>139400</v>
       </c>
       <c r="E14" s="3">
-        <v>113000</v>
+        <v>133000</v>
       </c>
       <c r="F14" s="3">
-        <v>94600</v>
+        <v>115600</v>
       </c>
       <c r="G14" s="3">
-        <v>83700</v>
+        <v>111900</v>
       </c>
       <c r="H14" s="3">
-        <v>78300</v>
+        <v>93700</v>
       </c>
       <c r="I14" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K14" s="3">
         <v>56200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>63900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>43000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>48100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>84800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>125700</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1173,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>332000</v>
+        <v>328100</v>
       </c>
       <c r="E17" s="3">
-        <v>288600</v>
+        <v>345900</v>
       </c>
       <c r="F17" s="3">
-        <v>267800</v>
+        <v>328600</v>
       </c>
       <c r="G17" s="3">
-        <v>276400</v>
+        <v>285600</v>
       </c>
       <c r="H17" s="3">
-        <v>257800</v>
+        <v>265100</v>
       </c>
       <c r="I17" s="3">
+        <v>273600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K17" s="3">
         <v>241200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>209300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>175000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>162700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>183200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>260400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>153200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>145300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>133600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>107100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>118200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>83000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>83400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>79700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>94800</v>
+        <v>105500</v>
       </c>
       <c r="E18" s="3">
-        <v>94300</v>
+        <v>87700</v>
       </c>
       <c r="F18" s="3">
+        <v>93800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>93300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>82700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>74400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>101200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>94200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>82900</v>
+      </c>
+      <c r="N18" s="3">
+        <v>101500</v>
+      </c>
+      <c r="O18" s="3">
         <v>83600</v>
       </c>
-      <c r="G18" s="3">
-        <v>75200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>104800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>101200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>94200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>82900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>101500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>83600</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>71900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>67000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>99900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>117300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>121400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>74000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>68700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>65700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>57400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1480,81 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8400</v>
+        <v>11800</v>
       </c>
       <c r="E20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G20" s="3">
         <v>6700</v>
       </c>
-      <c r="F20" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>12400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>7600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>14400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>35100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>41500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>19000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1618,14 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,138 +1689,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103200</v>
+        <v>117300</v>
       </c>
       <c r="E23" s="3">
-        <v>101100</v>
+        <v>96800</v>
       </c>
       <c r="F23" s="3">
-        <v>90900</v>
+        <v>102100</v>
       </c>
       <c r="G23" s="3">
-        <v>80800</v>
+        <v>100000</v>
       </c>
       <c r="H23" s="3">
-        <v>106900</v>
+        <v>90000</v>
       </c>
       <c r="I23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K23" s="3">
         <v>104900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>100300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>83200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>105400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>88600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>80400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>72300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>112300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>124300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>129000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>88400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>103800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>107200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>76400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16200</v>
+        <v>19200</v>
       </c>
       <c r="E24" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="F24" s="3">
-        <v>14200</v>
+        <v>16000</v>
       </c>
       <c r="G24" s="3">
-        <v>-12500</v>
+        <v>16800</v>
       </c>
       <c r="H24" s="3">
-        <v>16100</v>
+        <v>14000</v>
       </c>
       <c r="I24" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K24" s="3">
         <v>15800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>17400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>21700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>14100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>20100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>23400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>21600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-29500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>12900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>22100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>13600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87000</v>
+        <v>98100</v>
       </c>
       <c r="E26" s="3">
-        <v>84000</v>
+        <v>79100</v>
       </c>
       <c r="F26" s="3">
-        <v>76700</v>
+        <v>86100</v>
       </c>
       <c r="G26" s="3">
-        <v>93300</v>
+        <v>83200</v>
       </c>
       <c r="H26" s="3">
-        <v>90800</v>
+        <v>75900</v>
       </c>
       <c r="I26" s="3">
+        <v>92400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K26" s="3">
         <v>89100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>85100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>69200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>88000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>66900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>66300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>63500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>92200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>100900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>107400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>117800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>90900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>85100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>62800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>86000</v>
+        <v>98900</v>
       </c>
       <c r="E27" s="3">
-        <v>83500</v>
+        <v>78400</v>
       </c>
       <c r="F27" s="3">
-        <v>76800</v>
+        <v>85200</v>
       </c>
       <c r="G27" s="3">
-        <v>94200</v>
+        <v>82600</v>
       </c>
       <c r="H27" s="3">
-        <v>91400</v>
+        <v>76000</v>
       </c>
       <c r="I27" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K27" s="3">
         <v>90000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>84800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>68800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>88800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>67300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>66200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>63300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>92100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>100900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>107400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>117800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>90900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>84900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>63000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8400</v>
+        <v>-11800</v>
       </c>
       <c r="E32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-7600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-14400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-35100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-41500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-19000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>86000</v>
+        <v>98900</v>
       </c>
       <c r="E33" s="3">
-        <v>83500</v>
+        <v>78400</v>
       </c>
       <c r="F33" s="3">
-        <v>76800</v>
+        <v>85200</v>
       </c>
       <c r="G33" s="3">
-        <v>94200</v>
+        <v>82600</v>
       </c>
       <c r="H33" s="3">
-        <v>91400</v>
+        <v>76000</v>
       </c>
       <c r="I33" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K33" s="3">
         <v>90000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>84800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>68800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>88800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>67300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>66200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>63300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>92100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>100900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>107400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>117800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>90900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>84900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>63000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>86000</v>
+        <v>98900</v>
       </c>
       <c r="E35" s="3">
-        <v>83500</v>
+        <v>78400</v>
       </c>
       <c r="F35" s="3">
-        <v>76800</v>
+        <v>85200</v>
       </c>
       <c r="G35" s="3">
-        <v>94200</v>
+        <v>82600</v>
       </c>
       <c r="H35" s="3">
-        <v>91400</v>
+        <v>76000</v>
       </c>
       <c r="I35" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K35" s="3">
         <v>90000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>84800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>68800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>88800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>67300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>66200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>63300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>92100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>100900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>107400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>117800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>90900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>84900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>63000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>436900</v>
+        <v>722700</v>
       </c>
       <c r="E41" s="3">
-        <v>614300</v>
+        <v>516900</v>
       </c>
       <c r="F41" s="3">
-        <v>520000</v>
+        <v>432400</v>
       </c>
       <c r="G41" s="3">
-        <v>634500</v>
+        <v>608000</v>
       </c>
       <c r="H41" s="3">
-        <v>481100</v>
+        <v>514700</v>
       </c>
       <c r="I41" s="3">
+        <v>628000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>476200</v>
+      </c>
+      <c r="K41" s="3">
         <v>402400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>367600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>366400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>163200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>258900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>344400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>357900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>271400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>218300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>291400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>245900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>231600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>347800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>211800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2884,85 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>530300</v>
+        <v>547400</v>
       </c>
       <c r="E43" s="3">
-        <v>481300</v>
+        <v>552600</v>
       </c>
       <c r="F43" s="3">
-        <v>428500</v>
+        <v>524800</v>
       </c>
       <c r="G43" s="3">
-        <v>405400</v>
+        <v>476400</v>
       </c>
       <c r="H43" s="3">
-        <v>368700</v>
+        <v>424100</v>
       </c>
       <c r="I43" s="3">
+        <v>401200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>364900</v>
+      </c>
+      <c r="K43" s="3">
         <v>360800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>333200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>276400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>271600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>284300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>536000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>697800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>616400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>564300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>525500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>437900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>367300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>352300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>239000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,73 +3026,85 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>413800</v>
+        <v>397600</v>
       </c>
       <c r="E45" s="3">
-        <v>388600</v>
+        <v>421700</v>
       </c>
       <c r="F45" s="3">
-        <v>330600</v>
+        <v>409600</v>
       </c>
       <c r="G45" s="3">
-        <v>272800</v>
+        <v>384600</v>
       </c>
       <c r="H45" s="3">
-        <v>223800</v>
+        <v>327200</v>
       </c>
       <c r="I45" s="3">
+        <v>270000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K45" s="3">
         <v>190100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>163000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>146200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>167100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>161900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>203900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>214200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>303200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>153200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>48800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>30200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>44900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>20500</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,203 +3168,227 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>852200</v>
+        <v>713300</v>
       </c>
       <c r="E47" s="3">
-        <v>640000</v>
+        <v>944900</v>
       </c>
       <c r="F47" s="3">
-        <v>876900</v>
+        <v>843500</v>
       </c>
       <c r="G47" s="3">
-        <v>597200</v>
+        <v>633400</v>
       </c>
       <c r="H47" s="3">
-        <v>610500</v>
+        <v>868000</v>
       </c>
       <c r="I47" s="3">
+        <v>591100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>604300</v>
+      </c>
+      <c r="K47" s="3">
         <v>592200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>699500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>734500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>956000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>905700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>906900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>907900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>809600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>815100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>728000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>655400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>486100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>324500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>427300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47800</v>
+        <v>45800</v>
       </c>
       <c r="E48" s="3">
-        <v>19500</v>
+        <v>47400</v>
       </c>
       <c r="F48" s="3">
-        <v>22000</v>
+        <v>47400</v>
       </c>
       <c r="G48" s="3">
-        <v>23200</v>
+        <v>19300</v>
       </c>
       <c r="H48" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="I48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K48" s="3">
         <v>18400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>20700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>25300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>28000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>33500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>35400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>37200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>37400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>40500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>21900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>19000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>18400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>16300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="E49" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="F49" s="3">
+        <v>21200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K49" s="3">
         <v>21500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="L49" s="3">
         <v>21500</v>
       </c>
-      <c r="H49" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>21500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>21500</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>20800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>21700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>21700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>23200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>17700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>17700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>18200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>18200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>18100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>16700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>16100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>16400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>705300</v>
+        <v>585800</v>
       </c>
       <c r="E52" s="3">
-        <v>655800</v>
+        <v>534800</v>
       </c>
       <c r="F52" s="3">
-        <v>586700</v>
+        <v>698100</v>
       </c>
       <c r="G52" s="3">
-        <v>650500</v>
+        <v>649100</v>
       </c>
       <c r="H52" s="3">
-        <v>609700</v>
+        <v>580700</v>
       </c>
       <c r="I52" s="3">
+        <v>643800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>603400</v>
+      </c>
+      <c r="K52" s="3">
         <v>597500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>535700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>506700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>638900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>545400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>469400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>587600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>944700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>706500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>654500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>578100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>494600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>337600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>379500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3007800</v>
+        <v>3033700</v>
       </c>
       <c r="E54" s="3">
-        <v>2821000</v>
+        <v>3039600</v>
       </c>
       <c r="F54" s="3">
-        <v>2786200</v>
+        <v>2977000</v>
       </c>
       <c r="G54" s="3">
-        <v>2605100</v>
+        <v>2792100</v>
       </c>
       <c r="H54" s="3">
-        <v>2336500</v>
+        <v>2757700</v>
       </c>
       <c r="I54" s="3">
+        <v>2578400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2312500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2182900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2141300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2071600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2243700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2205900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2517300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2818500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3000900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2520300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2315300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1999200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1666600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1424500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1314200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3549,59 +3810,65 @@
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>12100</v>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K57" s="3">
         <v>12900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>13500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>16300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>25900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>48600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>105400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>368600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>113100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>119600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>137700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>181100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>96400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>178100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3630,22 +3897,22 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>22100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>22100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>37100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>36200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3800</v>
       </c>
       <c r="R58" s="3">
         <v>3800</v>
@@ -3654,84 +3921,96 @@
         <v>3800</v>
       </c>
       <c r="T58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V58" s="3">
         <v>4200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>8200</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>210900</v>
+        <v>272300</v>
       </c>
       <c r="E59" s="3">
-        <v>179900</v>
+        <v>212500</v>
       </c>
       <c r="F59" s="3">
-        <v>247600</v>
+        <v>208700</v>
       </c>
       <c r="G59" s="3">
-        <v>162000</v>
+        <v>178100</v>
       </c>
       <c r="H59" s="3">
-        <v>138200</v>
+        <v>245100</v>
       </c>
       <c r="I59" s="3">
+        <v>160300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K59" s="3">
         <v>141100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>176200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>129400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>116600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>93600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>156900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>832000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>964200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>888700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>860200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>672500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>577800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>547400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>397900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,8 +4074,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,73 +4145,85 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>29600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>24700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>22100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="L62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="M62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="N62" s="3">
         <v>29900</v>
       </c>
-      <c r="E62" s="3">
-        <v>24900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>22300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="O62" s="3">
+        <v>30500</v>
+      </c>
+      <c r="P62" s="3">
+        <v>32600</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>30600</v>
+      </c>
+      <c r="R62" s="3">
+        <v>17300</v>
+      </c>
+      <c r="S62" s="3">
         <v>16800</v>
       </c>
-      <c r="J62" s="3">
-        <v>14500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>14400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>29900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>30500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>32600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>30600</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="T62" s="3">
+        <v>15300</v>
+      </c>
+      <c r="U62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="W62" s="3">
         <v>17300</v>
       </c>
-      <c r="Q62" s="3">
-        <v>16800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>15300</v>
-      </c>
-      <c r="S62" s="3">
-        <v>15200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>5600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>17300</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>17700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1292200</v>
+        <v>1249800</v>
       </c>
       <c r="E66" s="3">
-        <v>1191200</v>
+        <v>1280900</v>
       </c>
       <c r="F66" s="3">
-        <v>1238900</v>
+        <v>1279000</v>
       </c>
       <c r="G66" s="3">
-        <v>1074800</v>
+        <v>1179000</v>
       </c>
       <c r="H66" s="3">
-        <v>903600</v>
+        <v>1226300</v>
       </c>
       <c r="I66" s="3">
+        <v>1063800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>894300</v>
+      </c>
+      <c r="K66" s="3">
         <v>845200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>895400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>907400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1067800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1091300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1381500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1594700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1835200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1459900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1358800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1098100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>934700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>756900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>711200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>954200</v>
+        <v>1062500</v>
       </c>
       <c r="E72" s="3">
-        <v>868100</v>
+        <v>1022800</v>
       </c>
       <c r="F72" s="3">
-        <v>784700</v>
+        <v>944400</v>
       </c>
       <c r="G72" s="3">
-        <v>761400</v>
+        <v>859300</v>
       </c>
       <c r="H72" s="3">
-        <v>667200</v>
+        <v>776600</v>
       </c>
       <c r="I72" s="3">
+        <v>753600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>660400</v>
+      </c>
+      <c r="K72" s="3">
         <v>575800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>485800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>432900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>385500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>296700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>245600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>351700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>288300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>194700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>93800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>45900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-66100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-157000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-248000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1715500</v>
+        <v>1783900</v>
       </c>
       <c r="E76" s="3">
-        <v>1629800</v>
+        <v>1758600</v>
       </c>
       <c r="F76" s="3">
-        <v>1547300</v>
+        <v>1698000</v>
       </c>
       <c r="G76" s="3">
-        <v>1530300</v>
+        <v>1613100</v>
       </c>
       <c r="H76" s="3">
-        <v>1432900</v>
+        <v>1531400</v>
       </c>
       <c r="I76" s="3">
+        <v>1514600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1418200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1337700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1245900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1164200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1175800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1114500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1135800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1223800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1165700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1060400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>956500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>901100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>731900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>667600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>602900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>86000</v>
+        <v>98900</v>
       </c>
       <c r="E81" s="3">
-        <v>83500</v>
+        <v>78400</v>
       </c>
       <c r="F81" s="3">
-        <v>76800</v>
+        <v>85200</v>
       </c>
       <c r="G81" s="3">
-        <v>94200</v>
+        <v>82600</v>
       </c>
       <c r="H81" s="3">
-        <v>91400</v>
+        <v>76000</v>
       </c>
       <c r="I81" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K81" s="3">
         <v>90000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>84800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>68800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>88800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>67300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>66200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>63300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>92100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>100900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>107400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>117800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>90900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>84900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>63000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46800</v>
+        <v>95600</v>
       </c>
       <c r="E89" s="3">
-        <v>-46400</v>
+        <v>42800</v>
       </c>
       <c r="F89" s="3">
+        <v>46300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>19700</v>
-      </c>
       <c r="I89" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>42100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>104200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>116600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>184300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-92000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-434900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>233400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>94500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>72600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>78800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>157600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>21300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>12600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-183900</v>
+        <v>256700</v>
       </c>
       <c r="E94" s="3">
-        <v>279000</v>
+        <v>-67100</v>
       </c>
       <c r="F94" s="3">
-        <v>-250400</v>
+        <v>-182000</v>
       </c>
       <c r="G94" s="3">
-        <v>36800</v>
+        <v>276100</v>
       </c>
       <c r="H94" s="3">
-        <v>9100</v>
+        <v>-247800</v>
       </c>
       <c r="I94" s="3">
+        <v>36400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K94" s="3">
         <v>160700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>79900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>199200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-41100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>41000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>4400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-130400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-41200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-124600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-156400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>100200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-32500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8100</v>
+        <v>-126000</v>
       </c>
       <c r="E100" s="3">
-        <v>-99800</v>
+        <v>-63400</v>
       </c>
       <c r="F100" s="3">
-        <v>57600</v>
+        <v>-8000</v>
       </c>
       <c r="G100" s="3">
-        <v>108600</v>
+        <v>-98800</v>
       </c>
       <c r="H100" s="3">
-        <v>47200</v>
+        <v>57000</v>
       </c>
       <c r="I100" s="3">
+        <v>107500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-65400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-124900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-146900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-88800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-147700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-68000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>125100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>43900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>10300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>89300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>67100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>36900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-15400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-9200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>5200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>6900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-5900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-142600</v>
+        <v>222500</v>
       </c>
       <c r="E102" s="3">
-        <v>137400</v>
+        <v>-84900</v>
       </c>
       <c r="F102" s="3">
-        <v>-198100</v>
+        <v>-141100</v>
       </c>
       <c r="G102" s="3">
-        <v>176100</v>
+        <v>136000</v>
       </c>
       <c r="H102" s="3">
-        <v>76500</v>
+        <v>-196100</v>
       </c>
       <c r="I102" s="3">
+        <v>174300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K102" s="3">
         <v>90000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>152300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>44100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-269800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>284300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-23100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>118300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>20800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>43300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>113000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-35000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>FINV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>433600</v>
+        <v>423800</v>
       </c>
       <c r="E8" s="3">
-        <v>433600</v>
+        <v>420300</v>
       </c>
       <c r="F8" s="3">
-        <v>422400</v>
+        <v>420200</v>
       </c>
       <c r="G8" s="3">
-        <v>379000</v>
+        <v>409400</v>
       </c>
       <c r="H8" s="3">
-        <v>347800</v>
+        <v>367300</v>
       </c>
       <c r="I8" s="3">
-        <v>348000</v>
+        <v>337100</v>
       </c>
       <c r="J8" s="3">
+        <v>337300</v>
+      </c>
+      <c r="K8" s="3">
         <v>358900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>342400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>303500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>257900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>264300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>266800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>332300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>220100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>245200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>250800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>228500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>192200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>151700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>149100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>137100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>129000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72800</v>
+        <v>71100</v>
       </c>
       <c r="E9" s="3">
-        <v>73400</v>
+        <v>70600</v>
       </c>
       <c r="F9" s="3">
-        <v>70400</v>
+        <v>71100</v>
       </c>
       <c r="G9" s="3">
-        <v>75300</v>
+        <v>68200</v>
       </c>
       <c r="H9" s="3">
-        <v>70700</v>
+        <v>73000</v>
       </c>
       <c r="I9" s="3">
-        <v>73100</v>
+        <v>68600</v>
       </c>
       <c r="J9" s="3">
-        <v>65300</v>
+        <v>70900</v>
       </c>
       <c r="K9" s="3">
         <v>65300</v>
       </c>
       <c r="L9" s="3">
+        <v>65300</v>
+      </c>
+      <c r="M9" s="3">
         <v>59300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>46900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>31700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>36700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>39100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>360800</v>
+        <v>352700</v>
       </c>
       <c r="E10" s="3">
-        <v>360200</v>
+        <v>349700</v>
       </c>
       <c r="F10" s="3">
-        <v>352000</v>
+        <v>349100</v>
       </c>
       <c r="G10" s="3">
-        <v>303700</v>
+        <v>341200</v>
       </c>
       <c r="H10" s="3">
+        <v>294300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>268500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>266400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>293600</v>
+      </c>
+      <c r="L10" s="3">
         <v>277100</v>
       </c>
-      <c r="I10" s="3">
-        <v>274900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>293600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>277100</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>244100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>193200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>214300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>226700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>292900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>173200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>194100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>204000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>188200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>150000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>120100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>112400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>98000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>86500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="E12" s="3">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="F12" s="3">
-        <v>17900</v>
+        <v>18900</v>
       </c>
       <c r="G12" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="H12" s="3">
         <v>16000</v>
       </c>
       <c r="I12" s="3">
-        <v>18800</v>
+        <v>15500</v>
       </c>
       <c r="J12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K12" s="3">
         <v>14900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13400</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3">
         <v>10900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10700</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,56 +1164,59 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>139400</v>
+        <v>147900</v>
       </c>
       <c r="E14" s="3">
-        <v>133000</v>
+        <v>135100</v>
       </c>
       <c r="F14" s="3">
-        <v>115600</v>
+        <v>128900</v>
       </c>
       <c r="G14" s="3">
-        <v>111900</v>
+        <v>112000</v>
       </c>
       <c r="H14" s="3">
-        <v>93700</v>
+        <v>108500</v>
       </c>
       <c r="I14" s="3">
-        <v>82800</v>
+        <v>90800</v>
       </c>
       <c r="J14" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K14" s="3">
         <v>77500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>56200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>63900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>43000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>48100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>84800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>125700</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>328100</v>
+        <v>344500</v>
       </c>
       <c r="E17" s="3">
-        <v>345900</v>
+        <v>318000</v>
       </c>
       <c r="F17" s="3">
-        <v>328600</v>
+        <v>335200</v>
       </c>
       <c r="G17" s="3">
-        <v>285600</v>
+        <v>318500</v>
       </c>
       <c r="H17" s="3">
-        <v>265100</v>
+        <v>276800</v>
       </c>
       <c r="I17" s="3">
-        <v>273600</v>
+        <v>256900</v>
       </c>
       <c r="J17" s="3">
+        <v>265200</v>
+      </c>
+      <c r="K17" s="3">
         <v>255200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>241200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>209300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>175000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>162700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>183200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>260400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>153200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>145300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>133600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>107100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>118200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>83000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>83400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>79700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>105500</v>
+        <v>79300</v>
       </c>
       <c r="E18" s="3">
-        <v>87700</v>
+        <v>102300</v>
       </c>
       <c r="F18" s="3">
-        <v>93800</v>
+        <v>85000</v>
       </c>
       <c r="G18" s="3">
-        <v>93300</v>
+        <v>90900</v>
       </c>
       <c r="H18" s="3">
-        <v>82700</v>
+        <v>90500</v>
       </c>
       <c r="I18" s="3">
-        <v>74400</v>
+        <v>80200</v>
       </c>
       <c r="J18" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K18" s="3">
         <v>103700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>101200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>82900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>101500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>67000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>99900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>121400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>65700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>57400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1515,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11800</v>
+        <v>16500</v>
       </c>
       <c r="E20" s="3">
-        <v>9200</v>
+        <v>11400</v>
       </c>
       <c r="F20" s="3">
-        <v>8300</v>
+        <v>8900</v>
       </c>
       <c r="G20" s="3">
-        <v>6700</v>
+        <v>8100</v>
       </c>
       <c r="H20" s="3">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="I20" s="3">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="J20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>35100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>41500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-99700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>117300</v>
+        <v>95800</v>
       </c>
       <c r="E23" s="3">
-        <v>96800</v>
+        <v>113700</v>
       </c>
       <c r="F23" s="3">
-        <v>102100</v>
+        <v>93900</v>
       </c>
       <c r="G23" s="3">
-        <v>100000</v>
+        <v>99000</v>
       </c>
       <c r="H23" s="3">
-        <v>90000</v>
+        <v>96900</v>
       </c>
       <c r="I23" s="3">
-        <v>80000</v>
+        <v>87200</v>
       </c>
       <c r="J23" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K23" s="3">
         <v>105800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>83200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>80400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>112300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>124300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>129000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>88400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>103800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>107200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>76400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-83400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19200</v>
+        <v>14500</v>
       </c>
       <c r="E24" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="F24" s="3">
-        <v>16000</v>
+        <v>17200</v>
       </c>
       <c r="G24" s="3">
-        <v>16800</v>
+        <v>15500</v>
       </c>
       <c r="H24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>15800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="N24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>15900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>15800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>15200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>14000</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-29500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>22100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>98100</v>
+        <v>81300</v>
       </c>
       <c r="E26" s="3">
-        <v>79100</v>
+        <v>95000</v>
       </c>
       <c r="F26" s="3">
-        <v>86100</v>
+        <v>76600</v>
       </c>
       <c r="G26" s="3">
-        <v>83200</v>
+        <v>83400</v>
       </c>
       <c r="H26" s="3">
-        <v>75900</v>
+        <v>80600</v>
       </c>
       <c r="I26" s="3">
-        <v>92400</v>
+        <v>73600</v>
       </c>
       <c r="J26" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K26" s="3">
         <v>89900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>89100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>85100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>69200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>88000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>66300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>92200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>117800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>90900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>85100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>62800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-72800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>98900</v>
+        <v>76400</v>
       </c>
       <c r="E27" s="3">
-        <v>78400</v>
+        <v>95900</v>
       </c>
       <c r="F27" s="3">
-        <v>85200</v>
+        <v>76000</v>
       </c>
       <c r="G27" s="3">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="H27" s="3">
-        <v>76000</v>
+        <v>80100</v>
       </c>
       <c r="I27" s="3">
-        <v>93200</v>
+        <v>73700</v>
       </c>
       <c r="J27" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K27" s="3">
         <v>90500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>90000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>88800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>66200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>63300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>92100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>107400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>117800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>90900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>84900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>63000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11800</v>
+        <v>-16500</v>
       </c>
       <c r="E32" s="3">
-        <v>-9200</v>
+        <v>-11400</v>
       </c>
       <c r="F32" s="3">
-        <v>-8300</v>
+        <v>-8900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6700</v>
+        <v>-8100</v>
       </c>
       <c r="H32" s="3">
-        <v>-7200</v>
+        <v>-6500</v>
       </c>
       <c r="I32" s="3">
-        <v>-5600</v>
+        <v>-7000</v>
       </c>
       <c r="J32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-35100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-41500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>99700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>98900</v>
+        <v>76400</v>
       </c>
       <c r="E33" s="3">
-        <v>78400</v>
+        <v>95900</v>
       </c>
       <c r="F33" s="3">
-        <v>85200</v>
+        <v>76000</v>
       </c>
       <c r="G33" s="3">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="H33" s="3">
-        <v>76000</v>
+        <v>80100</v>
       </c>
       <c r="I33" s="3">
-        <v>93200</v>
+        <v>73700</v>
       </c>
       <c r="J33" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K33" s="3">
         <v>90500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>90000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>84800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>88800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>63300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>92100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>107400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>117800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>90900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>84900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>63000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>98900</v>
+        <v>76400</v>
       </c>
       <c r="E35" s="3">
-        <v>78400</v>
+        <v>95900</v>
       </c>
       <c r="F35" s="3">
-        <v>85200</v>
+        <v>76000</v>
       </c>
       <c r="G35" s="3">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="H35" s="3">
-        <v>76000</v>
+        <v>80100</v>
       </c>
       <c r="I35" s="3">
-        <v>93200</v>
+        <v>73700</v>
       </c>
       <c r="J35" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K35" s="3">
         <v>90500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>90000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>84800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>88800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>63300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>92100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>107400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>117800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>90900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>84900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>63000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>722700</v>
+        <v>651000</v>
       </c>
       <c r="E41" s="3">
-        <v>516900</v>
+        <v>700400</v>
       </c>
       <c r="F41" s="3">
-        <v>432400</v>
+        <v>501000</v>
       </c>
       <c r="G41" s="3">
-        <v>608000</v>
+        <v>419100</v>
       </c>
       <c r="H41" s="3">
-        <v>514700</v>
+        <v>589300</v>
       </c>
       <c r="I41" s="3">
-        <v>628000</v>
+        <v>498900</v>
       </c>
       <c r="J41" s="3">
+        <v>608700</v>
+      </c>
+      <c r="K41" s="3">
         <v>476200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>402400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>367600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>366400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>163200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>258900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>344400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>357900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>271400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>218300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>291400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>245900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>231600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>347800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>211800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>547400</v>
+        <v>532300</v>
       </c>
       <c r="E43" s="3">
-        <v>552600</v>
+        <v>530500</v>
       </c>
       <c r="F43" s="3">
-        <v>524800</v>
+        <v>535600</v>
       </c>
       <c r="G43" s="3">
-        <v>476400</v>
+        <v>508700</v>
       </c>
       <c r="H43" s="3">
-        <v>424100</v>
+        <v>461800</v>
       </c>
       <c r="I43" s="3">
-        <v>401200</v>
+        <v>411100</v>
       </c>
       <c r="J43" s="3">
+        <v>388900</v>
+      </c>
+      <c r="K43" s="3">
         <v>364900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>360800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>333200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>276400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>271600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>284300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>536000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>697800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>616400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>564300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>525500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>437900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>367300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>352300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>239000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,79 +3128,85 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>397600</v>
+        <v>393000</v>
       </c>
       <c r="E45" s="3">
-        <v>421700</v>
+        <v>385400</v>
       </c>
       <c r="F45" s="3">
-        <v>409600</v>
+        <v>408800</v>
       </c>
       <c r="G45" s="3">
-        <v>384600</v>
+        <v>397000</v>
       </c>
       <c r="H45" s="3">
-        <v>327200</v>
+        <v>372800</v>
       </c>
       <c r="I45" s="3">
-        <v>270000</v>
+        <v>317200</v>
       </c>
       <c r="J45" s="3">
+        <v>261700</v>
+      </c>
+      <c r="K45" s="3">
         <v>221500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>190100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>163000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>146200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>167100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>203900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>214200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>303200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>153200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>44900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>20500</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,221 +3276,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>713300</v>
+        <v>822100</v>
       </c>
       <c r="E47" s="3">
-        <v>944900</v>
+        <v>691400</v>
       </c>
       <c r="F47" s="3">
-        <v>843500</v>
+        <v>915900</v>
       </c>
       <c r="G47" s="3">
-        <v>633400</v>
+        <v>817600</v>
       </c>
       <c r="H47" s="3">
-        <v>868000</v>
+        <v>614000</v>
       </c>
       <c r="I47" s="3">
-        <v>591100</v>
+        <v>841300</v>
       </c>
       <c r="J47" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K47" s="3">
         <v>604300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>592200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>699500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>734500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>956000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>905700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>906900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>907900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>809600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>815100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>728000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>655400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>486100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>324500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>427300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>380600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45800</v>
+        <v>47100</v>
       </c>
       <c r="E48" s="3">
-        <v>47400</v>
+        <v>44400</v>
       </c>
       <c r="F48" s="3">
-        <v>47400</v>
+        <v>46000</v>
       </c>
       <c r="G48" s="3">
-        <v>19300</v>
+        <v>45900</v>
       </c>
       <c r="H48" s="3">
-        <v>21700</v>
+        <v>18800</v>
       </c>
       <c r="I48" s="3">
-        <v>23000</v>
+        <v>21100</v>
       </c>
       <c r="J48" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K48" s="3">
         <v>21100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>20700</v>
       </c>
       <c r="M48" s="3">
         <v>20700</v>
       </c>
       <c r="N48" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O48" s="3">
         <v>25300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K49" s="3">
         <v>21200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>21200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>21200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>21200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>21200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>21500</v>
       </c>
       <c r="L49" s="3">
         <v>21500</v>
       </c>
       <c r="M49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="N49" s="3">
         <v>20800</v>
-      </c>
-      <c r="N49" s="3">
-        <v>21700</v>
       </c>
       <c r="O49" s="3">
         <v>21700</v>
       </c>
       <c r="P49" s="3">
+        <v>21700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>23200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>17700</v>
       </c>
       <c r="R49" s="3">
         <v>17700</v>
       </c>
       <c r="S49" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="T49" s="3">
         <v>18200</v>
       </c>
       <c r="U49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="V49" s="3">
         <v>18100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>16700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>16100</v>
-      </c>
-      <c r="X49" s="3">
-        <v>16400</v>
       </c>
       <c r="Y49" s="3">
         <v>16400</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>585800</v>
+        <v>524500</v>
       </c>
       <c r="E52" s="3">
-        <v>534800</v>
+        <v>567800</v>
       </c>
       <c r="F52" s="3">
-        <v>698100</v>
+        <v>518300</v>
       </c>
       <c r="G52" s="3">
-        <v>649100</v>
+        <v>676600</v>
       </c>
       <c r="H52" s="3">
-        <v>580700</v>
+        <v>629100</v>
       </c>
       <c r="I52" s="3">
-        <v>643800</v>
+        <v>562800</v>
       </c>
       <c r="J52" s="3">
+        <v>624000</v>
+      </c>
+      <c r="K52" s="3">
         <v>603400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>597500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>535700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>506700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>638900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>545400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>469400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>587600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>944700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>706500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>654500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>578100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>494600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>337600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>379500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>361700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3033700</v>
+        <v>2990600</v>
       </c>
       <c r="E54" s="3">
-        <v>3039600</v>
+        <v>2940500</v>
       </c>
       <c r="F54" s="3">
-        <v>2977000</v>
+        <v>2946100</v>
       </c>
       <c r="G54" s="3">
-        <v>2792100</v>
+        <v>2885500</v>
       </c>
       <c r="H54" s="3">
-        <v>2757700</v>
+        <v>2706200</v>
       </c>
       <c r="I54" s="3">
-        <v>2578400</v>
+        <v>2672900</v>
       </c>
       <c r="J54" s="3">
+        <v>2499100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2312500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2182900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2141300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2071600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2243700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2205900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2517300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2818500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3000900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2520300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2315300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1999200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1666600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1424500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1314200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1234500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3816,59 +3947,62 @@
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="3">
-        <v>11500</v>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K57" s="3">
         <v>11900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>105400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>368600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>113100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>119600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>137700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>181100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>96400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>178100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3903,19 +4037,19 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>22100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>22100</v>
       </c>
       <c r="P58" s="3">
+        <v>22100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>37100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>3800</v>
       </c>
       <c r="S58" s="3">
         <v>3800</v>
@@ -3927,90 +4061,96 @@
         <v>3800</v>
       </c>
       <c r="V58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W58" s="3">
         <v>4200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8200</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>272300</v>
+        <v>205900</v>
       </c>
       <c r="E59" s="3">
-        <v>212500</v>
+        <v>263900</v>
       </c>
       <c r="F59" s="3">
-        <v>208700</v>
+        <v>206000</v>
       </c>
       <c r="G59" s="3">
-        <v>178100</v>
+        <v>202300</v>
       </c>
       <c r="H59" s="3">
-        <v>245100</v>
+        <v>172600</v>
       </c>
       <c r="I59" s="3">
-        <v>160300</v>
+        <v>237600</v>
       </c>
       <c r="J59" s="3">
+        <v>155400</v>
+      </c>
+      <c r="K59" s="3">
         <v>136800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>141100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>176200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>129400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>116600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>156900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>832000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>964200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>888700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>860200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>672500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>577800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>547400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>397900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,79 +4294,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41500</v>
+        <v>43800</v>
       </c>
       <c r="E62" s="3">
-        <v>33000</v>
+        <v>40200</v>
       </c>
       <c r="F62" s="3">
-        <v>29600</v>
+        <v>32000</v>
       </c>
       <c r="G62" s="3">
-        <v>24700</v>
+        <v>28700</v>
       </c>
       <c r="H62" s="3">
-        <v>22100</v>
+        <v>23900</v>
       </c>
       <c r="I62" s="3">
-        <v>19600</v>
+        <v>21400</v>
       </c>
       <c r="J62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K62" s="3">
         <v>16100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17300</v>
-      </c>
-      <c r="X62" s="3">
-        <v>17700</v>
       </c>
       <c r="Y62" s="3">
         <v>17700</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1249800</v>
+        <v>1200900</v>
       </c>
       <c r="E66" s="3">
-        <v>1280900</v>
+        <v>1211400</v>
       </c>
       <c r="F66" s="3">
-        <v>1279000</v>
+        <v>1241600</v>
       </c>
       <c r="G66" s="3">
-        <v>1179000</v>
+        <v>1239700</v>
       </c>
       <c r="H66" s="3">
-        <v>1226300</v>
+        <v>1142700</v>
       </c>
       <c r="I66" s="3">
-        <v>1063800</v>
+        <v>1188600</v>
       </c>
       <c r="J66" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="K66" s="3">
         <v>894300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>845200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>895400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>907400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1067800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1091300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1381500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1594700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1835200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1459900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1358800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1098100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>934700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>756900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>711200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>714700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1062500</v>
+        <v>1106300</v>
       </c>
       <c r="E72" s="3">
-        <v>1022800</v>
+        <v>1029900</v>
       </c>
       <c r="F72" s="3">
-        <v>944400</v>
+        <v>991400</v>
       </c>
       <c r="G72" s="3">
-        <v>859300</v>
+        <v>915400</v>
       </c>
       <c r="H72" s="3">
-        <v>776600</v>
+        <v>832800</v>
       </c>
       <c r="I72" s="3">
-        <v>753600</v>
+        <v>752800</v>
       </c>
       <c r="J72" s="3">
+        <v>730400</v>
+      </c>
+      <c r="K72" s="3">
         <v>660400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>575800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>485800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>432900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>385500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>296700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>245600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>351700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>288300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>194700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>93800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-66100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-157000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-248000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-336300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1783900</v>
+        <v>1789700</v>
       </c>
       <c r="E76" s="3">
-        <v>1758600</v>
+        <v>1729100</v>
       </c>
       <c r="F76" s="3">
-        <v>1698000</v>
+        <v>1704600</v>
       </c>
       <c r="G76" s="3">
-        <v>1613100</v>
+        <v>1645800</v>
       </c>
       <c r="H76" s="3">
-        <v>1531400</v>
+        <v>1563500</v>
       </c>
       <c r="I76" s="3">
-        <v>1514600</v>
+        <v>1484300</v>
       </c>
       <c r="J76" s="3">
+        <v>1468100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1418200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1337700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1245900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1164200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1175800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1114500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1135800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1223800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1165700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1060400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>956500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>901100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>731900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>667600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>602900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>98900</v>
+        <v>76400</v>
       </c>
       <c r="E81" s="3">
-        <v>78400</v>
+        <v>95900</v>
       </c>
       <c r="F81" s="3">
-        <v>85200</v>
+        <v>76000</v>
       </c>
       <c r="G81" s="3">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="H81" s="3">
-        <v>76000</v>
+        <v>80100</v>
       </c>
       <c r="I81" s="3">
-        <v>93200</v>
+        <v>73700</v>
       </c>
       <c r="J81" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K81" s="3">
         <v>90500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>90000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>84800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>88800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>63300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>92100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>107400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>117800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>90900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>84900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>63000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-187100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>95600</v>
+        <v>69800</v>
       </c>
       <c r="E89" s="3">
-        <v>42800</v>
+        <v>92600</v>
       </c>
       <c r="F89" s="3">
-        <v>46300</v>
+        <v>41500</v>
       </c>
       <c r="G89" s="3">
-        <v>-46000</v>
+        <v>44900</v>
       </c>
       <c r="H89" s="3">
-        <v>-5000</v>
+        <v>-44500</v>
       </c>
       <c r="I89" s="3">
-        <v>31100</v>
+        <v>-4800</v>
       </c>
       <c r="J89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K89" s="3">
         <v>19500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>116600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>184300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-434900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>233400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>94500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>78800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>157600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>256700</v>
+        <v>-121300</v>
       </c>
       <c r="E94" s="3">
-        <v>-67100</v>
+        <v>248800</v>
       </c>
       <c r="F94" s="3">
-        <v>-182000</v>
+        <v>-65000</v>
       </c>
       <c r="G94" s="3">
-        <v>276100</v>
+        <v>-176400</v>
       </c>
       <c r="H94" s="3">
-        <v>-247800</v>
+        <v>267600</v>
       </c>
       <c r="I94" s="3">
-        <v>36400</v>
+        <v>-240200</v>
       </c>
       <c r="J94" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K94" s="3">
         <v>9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>160700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>79900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>199200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>41000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-130400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-124600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-156400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>100200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-132100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-126000</v>
+        <v>-71500</v>
       </c>
       <c r="E100" s="3">
-        <v>-63400</v>
+        <v>-122200</v>
       </c>
       <c r="F100" s="3">
-        <v>-8000</v>
+        <v>-61400</v>
       </c>
       <c r="G100" s="3">
-        <v>-98800</v>
+        <v>-7700</v>
       </c>
       <c r="H100" s="3">
-        <v>57000</v>
+        <v>-95800</v>
       </c>
       <c r="I100" s="3">
-        <v>107500</v>
+        <v>55300</v>
       </c>
       <c r="J100" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K100" s="3">
         <v>46700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-124900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-146900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-88800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-147700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>125100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>43900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>89300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>67100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>36900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>244100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3800</v>
+        <v>9000</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>-3600</v>
       </c>
       <c r="F101" s="3">
         <v>2600</v>
       </c>
       <c r="G101" s="3">
-        <v>4600</v>
+        <v>2500</v>
       </c>
       <c r="H101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>222500</v>
+        <v>-114000</v>
       </c>
       <c r="E102" s="3">
-        <v>-84900</v>
+        <v>215600</v>
       </c>
       <c r="F102" s="3">
-        <v>-141100</v>
+        <v>-82300</v>
       </c>
       <c r="G102" s="3">
-        <v>136000</v>
+        <v>-136800</v>
       </c>
       <c r="H102" s="3">
-        <v>-196100</v>
+        <v>131800</v>
       </c>
       <c r="I102" s="3">
-        <v>174300</v>
+        <v>-190000</v>
       </c>
       <c r="J102" s="3">
+        <v>168900</v>
+      </c>
+      <c r="K102" s="3">
         <v>75700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>90000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>152300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-269800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>284300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>118300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>43300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>113000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>168800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FINV_QTR_FIN.xlsx
@@ -775,25 +775,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>423800</v>
+        <v>424700</v>
       </c>
       <c r="E8" s="3">
-        <v>420300</v>
+        <v>421200</v>
       </c>
       <c r="F8" s="3">
-        <v>420200</v>
+        <v>421100</v>
       </c>
       <c r="G8" s="3">
-        <v>409400</v>
+        <v>410300</v>
       </c>
       <c r="H8" s="3">
-        <v>367300</v>
+        <v>368100</v>
       </c>
       <c r="I8" s="3">
-        <v>337100</v>
+        <v>337900</v>
       </c>
       <c r="J8" s="3">
-        <v>337300</v>
+        <v>338000</v>
       </c>
       <c r="K8" s="3">
         <v>358900</v>
@@ -849,25 +849,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71100</v>
+        <v>71200</v>
       </c>
       <c r="E9" s="3">
-        <v>70600</v>
+        <v>70800</v>
       </c>
       <c r="F9" s="3">
-        <v>71100</v>
+        <v>71300</v>
       </c>
       <c r="G9" s="3">
-        <v>68200</v>
+        <v>68400</v>
       </c>
       <c r="H9" s="3">
-        <v>73000</v>
+        <v>73100</v>
       </c>
       <c r="I9" s="3">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="J9" s="3">
-        <v>70900</v>
+        <v>71000</v>
       </c>
       <c r="K9" s="3">
         <v>65300</v>
@@ -923,25 +923,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>352700</v>
+        <v>353400</v>
       </c>
       <c r="E10" s="3">
-        <v>349700</v>
+        <v>350500</v>
       </c>
       <c r="F10" s="3">
-        <v>349100</v>
+        <v>349900</v>
       </c>
       <c r="G10" s="3">
-        <v>341200</v>
+        <v>341900</v>
       </c>
       <c r="H10" s="3">
-        <v>294300</v>
+        <v>295000</v>
       </c>
       <c r="I10" s="3">
-        <v>268500</v>
+        <v>269100</v>
       </c>
       <c r="J10" s="3">
-        <v>266400</v>
+        <v>267000</v>
       </c>
       <c r="K10" s="3">
         <v>293600</v>
@@ -1031,7 +1031,7 @@
         <v>17400</v>
       </c>
       <c r="F12" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="G12" s="3">
         <v>17300</v>
@@ -1173,25 +1173,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>147900</v>
+        <v>148200</v>
       </c>
       <c r="E14" s="3">
-        <v>135100</v>
+        <v>135400</v>
       </c>
       <c r="F14" s="3">
-        <v>128900</v>
+        <v>129200</v>
       </c>
       <c r="G14" s="3">
-        <v>112000</v>
+        <v>112300</v>
       </c>
       <c r="H14" s="3">
-        <v>108500</v>
+        <v>108700</v>
       </c>
       <c r="I14" s="3">
-        <v>90800</v>
+        <v>91000</v>
       </c>
       <c r="J14" s="3">
-        <v>80300</v>
+        <v>80400</v>
       </c>
       <c r="K14" s="3">
         <v>77500</v>
@@ -1346,25 +1346,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>344500</v>
+        <v>345200</v>
       </c>
       <c r="E17" s="3">
-        <v>318000</v>
+        <v>318700</v>
       </c>
       <c r="F17" s="3">
-        <v>335200</v>
+        <v>336000</v>
       </c>
       <c r="G17" s="3">
-        <v>318500</v>
+        <v>319200</v>
       </c>
       <c r="H17" s="3">
-        <v>276800</v>
+        <v>277400</v>
       </c>
       <c r="I17" s="3">
-        <v>256900</v>
+        <v>257500</v>
       </c>
       <c r="J17" s="3">
-        <v>265200</v>
+        <v>265700</v>
       </c>
       <c r="K17" s="3">
         <v>255200</v>
@@ -1420,25 +1420,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>79300</v>
+        <v>79500</v>
       </c>
       <c r="E18" s="3">
-        <v>102300</v>
+        <v>102500</v>
       </c>
       <c r="F18" s="3">
-        <v>85000</v>
+        <v>85200</v>
       </c>
       <c r="G18" s="3">
-        <v>90900</v>
+        <v>91100</v>
       </c>
       <c r="H18" s="3">
-        <v>90500</v>
+        <v>90700</v>
       </c>
       <c r="I18" s="3">
-        <v>80200</v>
+        <v>80400</v>
       </c>
       <c r="J18" s="3">
-        <v>72100</v>
+        <v>72300</v>
       </c>
       <c r="K18" s="3">
         <v>103700</v>
@@ -1522,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="E20" s="3">
         <v>11400</v>
@@ -1744,25 +1744,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95800</v>
+        <v>96000</v>
       </c>
       <c r="E23" s="3">
-        <v>113700</v>
+        <v>113900</v>
       </c>
       <c r="F23" s="3">
-        <v>93900</v>
+        <v>94100</v>
       </c>
       <c r="G23" s="3">
-        <v>99000</v>
+        <v>99200</v>
       </c>
       <c r="H23" s="3">
-        <v>96900</v>
+        <v>97200</v>
       </c>
       <c r="I23" s="3">
-        <v>87200</v>
+        <v>87400</v>
       </c>
       <c r="J23" s="3">
-        <v>77500</v>
+        <v>77700</v>
       </c>
       <c r="K23" s="3">
         <v>105800</v>
@@ -1821,16 +1821,16 @@
         <v>14500</v>
       </c>
       <c r="E24" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F24" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G24" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="H24" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="I24" s="3">
         <v>13600</v>
@@ -1966,25 +1966,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>81300</v>
+        <v>81500</v>
       </c>
       <c r="E26" s="3">
-        <v>95000</v>
+        <v>95300</v>
       </c>
       <c r="F26" s="3">
-        <v>76600</v>
+        <v>76800</v>
       </c>
       <c r="G26" s="3">
-        <v>83400</v>
+        <v>83600</v>
       </c>
       <c r="H26" s="3">
-        <v>80600</v>
+        <v>80800</v>
       </c>
       <c r="I26" s="3">
-        <v>73600</v>
+        <v>73800</v>
       </c>
       <c r="J26" s="3">
-        <v>89500</v>
+        <v>89700</v>
       </c>
       <c r="K26" s="3">
         <v>89900</v>
@@ -2040,25 +2040,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="E27" s="3">
-        <v>95900</v>
+        <v>96100</v>
       </c>
       <c r="F27" s="3">
-        <v>76000</v>
+        <v>76100</v>
       </c>
       <c r="G27" s="3">
-        <v>82500</v>
+        <v>82700</v>
       </c>
       <c r="H27" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="I27" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="J27" s="3">
-        <v>90400</v>
+        <v>90600</v>
       </c>
       <c r="K27" s="3">
         <v>90500</v>
@@ -2410,7 +2410,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="E32" s="3">
         <v>-11400</v>
@@ -2484,25 +2484,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="E33" s="3">
-        <v>95900</v>
+        <v>96100</v>
       </c>
       <c r="F33" s="3">
-        <v>76000</v>
+        <v>76100</v>
       </c>
       <c r="G33" s="3">
-        <v>82500</v>
+        <v>82700</v>
       </c>
       <c r="H33" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="I33" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="J33" s="3">
-        <v>90400</v>
+        <v>90600</v>
       </c>
       <c r="K33" s="3">
         <v>90500</v>
@@ -2632,25 +2632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="E35" s="3">
-        <v>95900</v>
+        <v>96100</v>
       </c>
       <c r="F35" s="3">
-        <v>76000</v>
+        <v>76100</v>
       </c>
       <c r="G35" s="3">
-        <v>82500</v>
+        <v>82700</v>
       </c>
       <c r="H35" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="I35" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="J35" s="3">
-        <v>90400</v>
+        <v>90600</v>
       </c>
       <c r="K35" s="3">
         <v>90500</v>
@@ -2841,25 +2841,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>651000</v>
+        <v>652400</v>
       </c>
       <c r="E41" s="3">
-        <v>700400</v>
+        <v>702000</v>
       </c>
       <c r="F41" s="3">
-        <v>501000</v>
+        <v>502100</v>
       </c>
       <c r="G41" s="3">
-        <v>419100</v>
+        <v>420000</v>
       </c>
       <c r="H41" s="3">
-        <v>589300</v>
+        <v>590600</v>
       </c>
       <c r="I41" s="3">
-        <v>498900</v>
+        <v>500000</v>
       </c>
       <c r="J41" s="3">
-        <v>608700</v>
+        <v>610100</v>
       </c>
       <c r="K41" s="3">
         <v>476200</v>
@@ -2989,25 +2989,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>532300</v>
+        <v>533500</v>
       </c>
       <c r="E43" s="3">
-        <v>530500</v>
+        <v>531700</v>
       </c>
       <c r="F43" s="3">
-        <v>535600</v>
+        <v>536800</v>
       </c>
       <c r="G43" s="3">
-        <v>508700</v>
+        <v>509800</v>
       </c>
       <c r="H43" s="3">
-        <v>461800</v>
+        <v>462800</v>
       </c>
       <c r="I43" s="3">
-        <v>411100</v>
+        <v>412000</v>
       </c>
       <c r="J43" s="3">
-        <v>388900</v>
+        <v>389800</v>
       </c>
       <c r="K43" s="3">
         <v>364900</v>
@@ -3137,25 +3137,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>393000</v>
+        <v>393900</v>
       </c>
       <c r="E45" s="3">
-        <v>385400</v>
+        <v>386200</v>
       </c>
       <c r="F45" s="3">
-        <v>408800</v>
+        <v>409600</v>
       </c>
       <c r="G45" s="3">
-        <v>397000</v>
+        <v>397800</v>
       </c>
       <c r="H45" s="3">
-        <v>372800</v>
+        <v>373600</v>
       </c>
       <c r="I45" s="3">
-        <v>317200</v>
+        <v>317900</v>
       </c>
       <c r="J45" s="3">
-        <v>261700</v>
+        <v>262300</v>
       </c>
       <c r="K45" s="3">
         <v>221500</v>
@@ -3285,25 +3285,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>822100</v>
+        <v>823900</v>
       </c>
       <c r="E47" s="3">
-        <v>691400</v>
+        <v>692900</v>
       </c>
       <c r="F47" s="3">
-        <v>915900</v>
+        <v>917900</v>
       </c>
       <c r="G47" s="3">
-        <v>817600</v>
+        <v>819300</v>
       </c>
       <c r="H47" s="3">
-        <v>614000</v>
+        <v>615300</v>
       </c>
       <c r="I47" s="3">
-        <v>841300</v>
+        <v>843100</v>
       </c>
       <c r="J47" s="3">
-        <v>572900</v>
+        <v>574200</v>
       </c>
       <c r="K47" s="3">
         <v>604300</v>
@@ -3359,16 +3359,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="E48" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="F48" s="3">
+        <v>46100</v>
+      </c>
+      <c r="G48" s="3">
         <v>46000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>45900</v>
       </c>
       <c r="H48" s="3">
         <v>18800</v>
@@ -3433,19 +3433,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="E49" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="F49" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G49" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="H49" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="I49" s="3">
         <v>20600</v>
@@ -3655,25 +3655,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>524500</v>
+        <v>525700</v>
       </c>
       <c r="E52" s="3">
-        <v>567800</v>
+        <v>569000</v>
       </c>
       <c r="F52" s="3">
-        <v>518300</v>
+        <v>519500</v>
       </c>
       <c r="G52" s="3">
-        <v>676600</v>
+        <v>678100</v>
       </c>
       <c r="H52" s="3">
-        <v>629100</v>
+        <v>630500</v>
       </c>
       <c r="I52" s="3">
-        <v>562800</v>
+        <v>564000</v>
       </c>
       <c r="J52" s="3">
-        <v>624000</v>
+        <v>625400</v>
       </c>
       <c r="K52" s="3">
         <v>603400</v>
@@ -3803,25 +3803,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2990600</v>
+        <v>2997100</v>
       </c>
       <c r="E54" s="3">
-        <v>2940500</v>
+        <v>2946900</v>
       </c>
       <c r="F54" s="3">
-        <v>2946100</v>
+        <v>2952600</v>
       </c>
       <c r="G54" s="3">
-        <v>2885500</v>
+        <v>2891700</v>
       </c>
       <c r="H54" s="3">
-        <v>2706200</v>
+        <v>2712100</v>
       </c>
       <c r="I54" s="3">
-        <v>2672900</v>
+        <v>2678700</v>
       </c>
       <c r="J54" s="3">
-        <v>2499100</v>
+        <v>2504600</v>
       </c>
       <c r="K54" s="3">
         <v>2312500</v>
@@ -4081,25 +4081,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>205900</v>
+        <v>206400</v>
       </c>
       <c r="E59" s="3">
-        <v>263900</v>
+        <v>264500</v>
       </c>
       <c r="F59" s="3">
-        <v>206000</v>
+        <v>206400</v>
       </c>
       <c r="G59" s="3">
-        <v>202300</v>
+        <v>202700</v>
       </c>
       <c r="H59" s="3">
-        <v>172600</v>
+        <v>173000</v>
       </c>
       <c r="I59" s="3">
-        <v>237600</v>
+        <v>238100</v>
       </c>
       <c r="J59" s="3">
-        <v>155400</v>
+        <v>155800</v>
       </c>
       <c r="K59" s="3">
         <v>136800</v>
@@ -4303,22 +4303,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43800</v>
+        <v>43900</v>
       </c>
       <c r="E62" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="F62" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="G62" s="3">
         <v>28700</v>
       </c>
       <c r="H62" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="I62" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J62" s="3">
         <v>19000</v>
@@ -4599,25 +4599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200900</v>
+        <v>1203500</v>
       </c>
       <c r="E66" s="3">
-        <v>1211400</v>
+        <v>1214000</v>
       </c>
       <c r="F66" s="3">
-        <v>1241600</v>
+        <v>1244300</v>
       </c>
       <c r="G66" s="3">
-        <v>1239700</v>
+        <v>1242400</v>
       </c>
       <c r="H66" s="3">
-        <v>1142700</v>
+        <v>1145200</v>
       </c>
       <c r="I66" s="3">
-        <v>1188600</v>
+        <v>1191200</v>
       </c>
       <c r="J66" s="3">
-        <v>1031000</v>
+        <v>1033300</v>
       </c>
       <c r="K66" s="3">
         <v>894300</v>
@@ -4997,25 +4997,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1106300</v>
+        <v>1108700</v>
       </c>
       <c r="E72" s="3">
-        <v>1029900</v>
+        <v>1032100</v>
       </c>
       <c r="F72" s="3">
-        <v>991400</v>
+        <v>993500</v>
       </c>
       <c r="G72" s="3">
-        <v>915400</v>
+        <v>917400</v>
       </c>
       <c r="H72" s="3">
-        <v>832800</v>
+        <v>834700</v>
       </c>
       <c r="I72" s="3">
-        <v>752800</v>
+        <v>754400</v>
       </c>
       <c r="J72" s="3">
-        <v>730400</v>
+        <v>732000</v>
       </c>
       <c r="K72" s="3">
         <v>660400</v>
@@ -5293,25 +5293,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1789700</v>
+        <v>1793600</v>
       </c>
       <c r="E76" s="3">
-        <v>1729100</v>
+        <v>1732800</v>
       </c>
       <c r="F76" s="3">
-        <v>1704600</v>
+        <v>1708300</v>
       </c>
       <c r="G76" s="3">
-        <v>1645800</v>
+        <v>1649400</v>
       </c>
       <c r="H76" s="3">
-        <v>1563500</v>
+        <v>1566900</v>
       </c>
       <c r="I76" s="3">
-        <v>1484300</v>
+        <v>1487600</v>
       </c>
       <c r="J76" s="3">
-        <v>1468100</v>
+        <v>1471300</v>
       </c>
       <c r="K76" s="3">
         <v>1418200</v>
@@ -5520,25 +5520,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="E81" s="3">
-        <v>95900</v>
+        <v>96100</v>
       </c>
       <c r="F81" s="3">
-        <v>76000</v>
+        <v>76100</v>
       </c>
       <c r="G81" s="3">
-        <v>82500</v>
+        <v>82700</v>
       </c>
       <c r="H81" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="I81" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="J81" s="3">
-        <v>90400</v>
+        <v>90600</v>
       </c>
       <c r="K81" s="3">
         <v>90500</v>
@@ -6066,22 +6066,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69800</v>
+        <v>70000</v>
       </c>
       <c r="E89" s="3">
-        <v>92600</v>
+        <v>92800</v>
       </c>
       <c r="F89" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G89" s="3">
-        <v>44900</v>
+        <v>45000</v>
       </c>
       <c r="H89" s="3">
-        <v>-44500</v>
+        <v>-44600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="J89" s="3">
         <v>30200</v>
@@ -6390,25 +6390,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-121300</v>
+        <v>-121600</v>
       </c>
       <c r="E94" s="3">
-        <v>248800</v>
+        <v>249400</v>
       </c>
       <c r="F94" s="3">
-        <v>-65000</v>
+        <v>-65200</v>
       </c>
       <c r="G94" s="3">
-        <v>-176400</v>
+        <v>-176800</v>
       </c>
       <c r="H94" s="3">
-        <v>267600</v>
+        <v>268200</v>
       </c>
       <c r="I94" s="3">
-        <v>-240200</v>
+        <v>-240700</v>
       </c>
       <c r="J94" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="K94" s="3">
         <v>9000</v>
@@ -6788,25 +6788,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71500</v>
+        <v>-71600</v>
       </c>
       <c r="E100" s="3">
-        <v>-122200</v>
+        <v>-122400</v>
       </c>
       <c r="F100" s="3">
-        <v>-61400</v>
+        <v>-61600</v>
       </c>
       <c r="G100" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="H100" s="3">
-        <v>-95800</v>
+        <v>-96000</v>
       </c>
       <c r="I100" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="J100" s="3">
-        <v>104200</v>
+        <v>104400</v>
       </c>
       <c r="K100" s="3">
         <v>46700</v>
@@ -6936,25 +6936,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-114000</v>
+        <v>-114300</v>
       </c>
       <c r="E102" s="3">
-        <v>215600</v>
+        <v>216100</v>
       </c>
       <c r="F102" s="3">
-        <v>-82300</v>
+        <v>-82500</v>
       </c>
       <c r="G102" s="3">
-        <v>-136800</v>
+        <v>-137100</v>
       </c>
       <c r="H102" s="3">
-        <v>131800</v>
+        <v>132100</v>
       </c>
       <c r="I102" s="3">
-        <v>-190000</v>
+        <v>-190400</v>
       </c>
       <c r="J102" s="3">
-        <v>168900</v>
+        <v>169300</v>
       </c>
       <c r="K102" s="3">
         <v>75700</v>
